--- a/Документы/AdvantageShoping_Профиль.xlsx
+++ b/Документы/AdvantageShoping_Профиль.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Programs\Itogovoe\Документы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DAF3F8-8EE3-4714-AFC6-288434CE5704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73993CDF-2B63-4233-9E61-66D7A64EAE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="57" r:id="rId6"/>
+    <pivotCache cacheId="8" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -474,7 +474,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="113">
   <si>
     <t>Вход в систему</t>
   </si>
@@ -2101,6 +2101,20 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2116,20 +2130,6 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="80">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2213,203 +2213,7 @@
     <cellStyle name="Текст предупреждения" xfId="15" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="77">
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="29">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2605,6 +2409,34 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2624,7 +2456,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Артем Клейменов" refreshedDate="45666.99520578704" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="34" xr:uid="{15D61AD1-E1C1-4DCC-AFD6-4E9D9EE3EDD2}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Артем Клейменов" refreshedDate="45669.569691087963" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="34" xr:uid="{15D61AD1-E1C1-4DCC-AFD6-4E9D9EE3EDD2}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H35" sheet="Автоматизированный расчет"/>
   </cacheSource>
@@ -2667,16 +2499,16 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="2"/>
     </cacheField>
     <cacheField name="pacing" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="50" maxValue="130"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="51" maxValue="130"/>
     </cacheField>
-    <cacheField name="одним пользователем в минуту" numFmtId="2">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.46153846153846156" maxValue="2.4"/>
+    <cacheField name="одним пользователем в минуту" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.46153846153846156" maxValue="2.1818181818181817"/>
     </cacheField>
     <cacheField name="Длительность ступени" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="20" maxValue="20"/>
     </cacheField>
-    <cacheField name="Итого" numFmtId="1">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="18.461538461538463" maxValue="96"/>
+    <cacheField name="Итого" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="14.117647058823531" maxValue="87.272727272727266"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -2774,40 +2606,40 @@
     <x v="0"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="50"/>
-    <n v="1.2"/>
+    <n v="55"/>
+    <n v="1.0909090909090908"/>
     <n v="20"/>
-    <n v="48"/>
+    <n v="43.636363636363633"/>
   </r>
   <r>
     <s v="Логин"/>
     <x v="1"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="50"/>
-    <n v="1.2"/>
+    <n v="55"/>
+    <n v="1.0909090909090908"/>
     <n v="20"/>
-    <n v="48"/>
+    <n v="43.636363636363633"/>
   </r>
   <r>
     <s v="Логин"/>
     <x v="2"/>
     <n v="2"/>
     <n v="2"/>
-    <n v="50"/>
-    <n v="2.4"/>
+    <n v="55"/>
+    <n v="2.1818181818181817"/>
     <n v="20"/>
-    <n v="96"/>
+    <n v="87.272727272727266"/>
   </r>
   <r>
     <s v="Логин"/>
     <x v="8"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="50"/>
-    <n v="1.2"/>
+    <n v="55"/>
+    <n v="1.0909090909090908"/>
     <n v="20"/>
-    <n v="48"/>
+    <n v="43.636363636363633"/>
   </r>
   <r>
     <s v="Регистрация новых пользователей"/>
@@ -2854,50 +2686,70 @@
     <x v="0"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="62"/>
-    <n v="0.967741935483871"/>
+    <n v="85"/>
+    <n v="0.70588235294117652"/>
     <n v="20"/>
-    <n v="19.35483870967742"/>
+    <n v="14.117647058823531"/>
   </r>
   <r>
     <s v="Удаление товаара "/>
     <x v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="62"/>
-    <n v="0.967741935483871"/>
+    <n v="85"/>
+    <n v="0.70588235294117652"/>
     <n v="20"/>
-    <n v="19.35483870967742"/>
+    <n v="14.117647058823531"/>
+  </r>
+  <r>
+    <s v="Удаление товаара "/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="85"/>
+    <n v="0.70588235294117652"/>
+    <n v="20"/>
+    <n v="14.117647058823531"/>
+  </r>
+  <r>
+    <s v="Удаление товаара "/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="85"/>
+    <n v="0.70588235294117652"/>
+    <n v="20"/>
+    <n v="14.117647058823531"/>
+  </r>
+  <r>
+    <s v="Удаление товаара "/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="85"/>
+    <n v="0.70588235294117652"/>
+    <n v="20"/>
+    <n v="14.117647058823531"/>
   </r>
   <r>
     <s v="Удаление товаара "/>
     <x v="5"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="62"/>
-    <n v="0.967741935483871"/>
+    <n v="85"/>
+    <n v="0.70588235294117652"/>
     <n v="20"/>
-    <n v="19.35483870967742"/>
+    <n v="14.117647058823531"/>
   </r>
   <r>
     <s v="Удаление товаара "/>
     <x v="11"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="62"/>
-    <n v="0.967741935483871"/>
+    <n v="85"/>
+    <n v="0.70588235294117652"/>
     <n v="20"/>
-    <n v="19.35483870967742"/>
-  </r>
-  <r>
-    <s v="Удаление товаара "/>
-    <x v="8"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="62"/>
-    <n v="0.967741935483871"/>
-    <n v="20"/>
-    <n v="19.35483870967742"/>
+    <n v="14.117647058823531"/>
   </r>
   <r>
     <s v="Поиск товара "/>
@@ -3009,31 +2861,11 @@
     <m/>
     <m/>
   </r>
-  <r>
-    <m/>
-    <x v="13"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="13"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9867D804-B564-4097-BC7C-27756DD55E4E}" name="Сводная таблица2" cacheId="57" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9867D804-B564-4097-BC7C-27756DD55E4E}" name="Сводная таблица2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I1:J16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -3130,28 +2962,28 @@
     <dataField name="Сумма по полю Итого" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="40">
+    <format dxfId="28">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="27">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="26">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="25">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="24">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="23">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="22">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -3439,7 +3271,7 @@
   <dimension ref="A1:Z70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3533,7 +3365,7 @@
       </c>
     </row>
     <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="82" t="s">
         <v>109</v>
       </c>
       <c r="B2" s="29" t="s">
@@ -3547,26 +3379,26 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <f>VLOOKUP(A2,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" ref="E2:E11" si="0">VLOOKUP(A2,$M$1:$X$8,5,FALSE)</f>
         <v>130</v>
       </c>
       <c r="F2" s="4">
-        <f>60/E2*C2</f>
+        <f t="shared" ref="F2:F11" si="1">60/E2*C2</f>
         <v>0.46153846153846156</v>
       </c>
       <c r="G2">
-        <f>VLOOKUP(A2,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" ref="G2:G11" si="2">VLOOKUP(A2,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
       <c r="H2" s="3">
-        <f>D2*F2*G2</f>
+        <f t="shared" ref="H2:H11" si="3">D2*F2*G2</f>
         <v>18.461538461538463</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="3">
-        <v>115.81637717121589</v>
+        <v>106.21554915672563</v>
       </c>
       <c r="L2" s="61"/>
       <c r="M2" s="64" t="s">
@@ -3593,13 +3425,13 @@
         <v>0.2</v>
       </c>
       <c r="T2" s="40">
-        <f t="shared" ref="T2:T7" si="0">60/(Q2)</f>
+        <f t="shared" ref="T2:T7" si="4">60/(Q2)</f>
         <v>0.46153846153846156</v>
       </c>
-      <c r="U2" s="92">
+      <c r="U2" s="87">
         <v>20</v>
       </c>
-      <c r="V2" s="93">
+      <c r="V2" s="88">
         <f>ROUND(R2*T2*U2,0)</f>
         <v>18</v>
       </c>
@@ -3616,7 +3448,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="83" t="s">
         <v>109</v>
       </c>
       <c r="B3" s="37" t="s">
@@ -3630,73 +3462,73 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <f>VLOOKUP(A3,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>130</v>
       </c>
       <c r="F3" s="4">
-        <f>60/E3*C3</f>
+        <f t="shared" si="1"/>
         <v>0.46153846153846156</v>
       </c>
       <c r="G3">
-        <f>VLOOKUP(A3,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="H3" s="3">
-        <f>D3*F3*G3</f>
+        <f t="shared" si="3"/>
         <v>18.461538461538463</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J3" s="3">
-        <v>90.884250474383308</v>
+        <v>67.16577540106951</v>
       </c>
       <c r="L3" s="62"/>
       <c r="M3" s="64" t="s">
         <v>110</v>
       </c>
       <c r="N3" s="5">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="O3" s="18">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="P3" s="19">
-        <f t="shared" ref="P3:P7" si="1">N3+O3</f>
-        <v>30</v>
+        <f t="shared" ref="P3:P7" si="5">N3+O3</f>
+        <v>42</v>
       </c>
       <c r="Q3" s="9">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="R3" s="27">
         <v>1</v>
       </c>
       <c r="S3" s="28">
-        <f t="shared" ref="S3:S6" si="2">R3/W$2</f>
+        <f t="shared" ref="S3:S6" si="6">R3/W$2</f>
         <v>0.1</v>
       </c>
       <c r="T3" s="40">
-        <f t="shared" si="0"/>
-        <v>0.967741935483871</v>
-      </c>
-      <c r="U3" s="92">
+        <f t="shared" si="4"/>
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="U3" s="87">
         <v>20</v>
       </c>
-      <c r="V3" s="93">
+      <c r="V3" s="88">
         <f>ROUND(R3*T3*U3,0)</f>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="W3" s="13"/>
       <c r="Y3">
         <v>10</v>
       </c>
       <c r="Z3">
-        <f t="shared" ref="Z3:Z7" si="3">Q3+((Q3/100)*Y3)</f>
-        <v>68.2</v>
+        <f t="shared" ref="Z3:Z7" si="7">Q3+((Q3/100)*Y3)</f>
+        <v>93.5</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="83" t="s">
         <v>109</v>
       </c>
       <c r="B4" s="37" t="s">
@@ -3706,30 +3538,30 @@
         <v>1</v>
       </c>
       <c r="D4" s="54">
-        <f t="shared" ref="D4:D8" si="4">VLOOKUP(A4,$M$1:$X$8,6,FALSE)</f>
+        <f t="shared" ref="D4:D8" si="8">VLOOKUP(A4,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="E4">
-        <f>VLOOKUP(A4,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>130</v>
       </c>
       <c r="F4" s="4">
-        <f>60/E4*C4</f>
+        <f t="shared" si="1"/>
         <v>0.46153846153846156</v>
       </c>
       <c r="G4">
-        <f>VLOOKUP(A4,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="H4" s="3">
-        <f>D4*F4*G4</f>
+        <f t="shared" si="3"/>
         <v>18.461538461538463</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>90</v>
       </c>
       <c r="J4" s="3">
-        <v>182.9821525722854</v>
+        <v>173.38132455779515</v>
       </c>
       <c r="L4" s="61"/>
       <c r="M4" s="64" t="s">
@@ -3742,7 +3574,7 @@
         <v>15</v>
       </c>
       <c r="P4" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="Q4" s="9">
@@ -3752,17 +3584,17 @@
         <v>1</v>
       </c>
       <c r="S4" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
       <c r="T4" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1764705882352942</v>
       </c>
-      <c r="U4" s="92">
+      <c r="U4" s="87">
         <v>20</v>
       </c>
-      <c r="V4" s="93">
+      <c r="V4" s="88">
         <f>ROUND(R4*T4*U4,0)</f>
         <v>24</v>
       </c>
@@ -3771,12 +3603,12 @@
         <v>10</v>
       </c>
       <c r="Z4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>56.1</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="83" t="s">
         <v>109</v>
       </c>
       <c r="B5" s="37" t="s">
@@ -3786,30 +3618,30 @@
         <v>1</v>
       </c>
       <c r="D5" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E5">
-        <f>VLOOKUP(A5,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>130</v>
       </c>
       <c r="F5" s="4">
-        <f>60/E5*C5</f>
+        <f t="shared" si="1"/>
         <v>0.46153846153846156</v>
       </c>
       <c r="G5">
-        <f>VLOOKUP(A5,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="H5" s="3">
-        <f>D5*F5*G5</f>
+        <f t="shared" si="3"/>
         <v>18.461538461538463</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>94</v>
       </c>
       <c r="J5" s="3">
-        <v>144.46153846153845</v>
+        <v>149.85191279308927</v>
       </c>
       <c r="L5" s="61"/>
       <c r="M5" s="24" t="s">
@@ -3819,11 +3651,11 @@
         <v>16</v>
       </c>
       <c r="O5" s="43">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P5" s="44">
         <f>N5+O5</f>
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="45">
         <v>55</v>
@@ -3832,17 +3664,17 @@
         <v>2</v>
       </c>
       <c r="S5" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
       <c r="T5" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0909090909090908</v>
       </c>
-      <c r="U5" s="92">
+      <c r="U5" s="87">
         <v>20</v>
       </c>
-      <c r="V5" s="93">
+      <c r="V5" s="88">
         <f>ROUND(R5*T5*U5,0)</f>
         <v>44</v>
       </c>
@@ -3851,12 +3683,12 @@
         <v>10</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>60.5</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="83" t="s">
         <v>109</v>
       </c>
       <c r="B6" s="37" t="s">
@@ -3866,30 +3698,30 @@
         <v>1</v>
       </c>
       <c r="D6" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E6">
-        <f>VLOOKUP(A6,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>130</v>
       </c>
       <c r="F6" s="4">
-        <f>60/E6*C6</f>
+        <f t="shared" si="1"/>
         <v>0.46153846153846156</v>
       </c>
       <c r="G6">
-        <f>VLOOKUP(A6,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="H6" s="3">
-        <f>D6*F6*G6</f>
+        <f t="shared" si="3"/>
         <v>18.461538461538463</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>108</v>
       </c>
       <c r="J6" s="3">
-        <v>48.461538461538467</v>
+        <v>62.579185520361996</v>
       </c>
       <c r="L6" s="61"/>
       <c r="M6" s="24" t="s">
@@ -3912,17 +3744,17 @@
         <v>2</v>
       </c>
       <c r="S6" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
       <c r="T6" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
-      <c r="U6" s="92">
+      <c r="U6" s="87">
         <v>20</v>
       </c>
-      <c r="V6" s="93">
+      <c r="V6" s="88">
         <f>ROUND(R6*T6*U6,0)</f>
         <v>30</v>
       </c>
@@ -3931,12 +3763,12 @@
         <v>10</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="83" t="s">
         <v>109</v>
       </c>
       <c r="B7" s="63" t="s">
@@ -3946,30 +3778,30 @@
         <v>1</v>
       </c>
       <c r="D7" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E7">
-        <f>VLOOKUP(A7,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>130</v>
       </c>
       <c r="F7" s="4">
-        <f>60/E7*C7</f>
+        <f t="shared" si="1"/>
         <v>0.46153846153846156</v>
       </c>
       <c r="G7">
-        <f>VLOOKUP(A7,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="H7" s="3">
-        <f>D7*F7*G7</f>
+        <f t="shared" si="3"/>
         <v>18.461538461538463</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>97</v>
       </c>
       <c r="J7" s="3">
-        <v>48.461538461538467</v>
+        <v>62.579185520361996</v>
       </c>
       <c r="L7" s="61"/>
       <c r="M7" s="24" t="s">
@@ -3979,14 +3811,14 @@
         <v>13</v>
       </c>
       <c r="O7" s="47">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="P7" s="48">
-        <f t="shared" si="1"/>
-        <v>23</v>
+        <f t="shared" si="5"/>
+        <v>28</v>
       </c>
       <c r="Q7" s="49">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="R7" s="50">
         <v>2</v>
@@ -3996,27 +3828,27 @@
         <v>0.2</v>
       </c>
       <c r="T7" s="40">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-      <c r="U7" s="92">
+        <f t="shared" si="4"/>
+        <v>1.0909090909090908</v>
+      </c>
+      <c r="U7" s="87">
         <v>20</v>
       </c>
-      <c r="V7" s="93">
+      <c r="V7" s="88">
         <f>SUM(V2:V6)</f>
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="W7" s="13"/>
       <c r="Y7">
         <v>10</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="3"/>
-        <v>55</v>
+        <f t="shared" si="7"/>
+        <v>60.5</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="83" t="s">
         <v>109</v>
       </c>
       <c r="B8" s="37" t="s">
@@ -4026,30 +3858,30 @@
         <v>1</v>
       </c>
       <c r="D8" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E8">
-        <f>VLOOKUP(A8,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>130</v>
       </c>
       <c r="F8" s="4">
-        <f>60/E8*C8</f>
+        <f t="shared" si="1"/>
         <v>0.46153846153846156</v>
       </c>
       <c r="G8">
-        <f>VLOOKUP(A8,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="H8" s="3">
-        <f>D8*F8*G8</f>
+        <f t="shared" si="3"/>
         <v>18.461538461538463</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>99</v>
       </c>
       <c r="J8" s="3">
-        <v>37.816377171215883</v>
+        <v>32.579185520361996</v>
       </c>
       <c r="M8" s="25"/>
       <c r="N8" s="26"/>
@@ -4067,7 +3899,7 @@
       <c r="W8" s="14"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="83" t="s">
         <v>109</v>
       </c>
       <c r="B9" s="37" t="s">
@@ -4077,23 +3909,23 @@
         <v>1</v>
       </c>
       <c r="D9" s="55">
-        <f t="shared" ref="D9:D21" si="5">VLOOKUP(A9,$M$1:$X$8,6,FALSE)</f>
+        <f t="shared" ref="D9:D11" si="9">VLOOKUP(A9,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="E9">
-        <f>VLOOKUP(A9,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>130</v>
       </c>
       <c r="F9" s="4">
-        <f>60/E9*C9</f>
+        <f t="shared" si="1"/>
         <v>0.46153846153846156</v>
       </c>
       <c r="G9">
-        <f>VLOOKUP(A9,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="H9" s="3">
-        <f>D9*F9*G9</f>
+        <f t="shared" si="3"/>
         <v>18.461538461538463</v>
       </c>
       <c r="I9" s="2" t="s">
@@ -4104,7 +3936,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="90" t="s">
         <v>43</v>
       </c>
       <c r="B10" s="37" t="s">
@@ -4114,24 +3946,24 @@
         <v>1</v>
       </c>
       <c r="D10" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="E10">
-        <f>VLOOKUP(A10,$M$1:$X$8,5,FALSE)</f>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>55</v>
       </c>
       <c r="F10" s="4">
-        <f>60/E10*C10</f>
-        <v>1.2</v>
+        <f t="shared" si="1"/>
+        <v>1.0909090909090908</v>
       </c>
       <c r="G10">
-        <f>VLOOKUP(A10,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="H10" s="3">
-        <f>D10*F10*G10</f>
-        <v>48</v>
+        <f t="shared" si="3"/>
+        <v>43.636363636363633</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>103</v>
@@ -4142,7 +3974,7 @@
       <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="89" t="s">
         <v>43</v>
       </c>
       <c r="B11" s="37" t="s">
@@ -4152,24 +3984,24 @@
         <v>1</v>
       </c>
       <c r="D11" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="E11">
-        <f>VLOOKUP(A11,$M$1:$X$8,5,FALSE)</f>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>55</v>
       </c>
       <c r="F11" s="4">
-        <f>60/E11*C11</f>
-        <v>1.2</v>
+        <f t="shared" si="1"/>
+        <v>1.0909090909090908</v>
       </c>
       <c r="G11">
-        <f>VLOOKUP(A11,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="H11" s="3">
-        <f>D11*F11*G11</f>
-        <v>48</v>
+        <f t="shared" si="3"/>
+        <v>43.636363636363633</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>91</v>
@@ -4180,26 +4012,26 @@
       <c r="P11" s="3"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="94" t="s">
+      <c r="A12" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="96" t="s">
+      <c r="B12" s="91" t="s">
         <v>94</v>
       </c>
       <c r="C12" s="53">
         <v>2</v>
       </c>
       <c r="D12" s="55">
-        <f t="shared" ref="D12" si="6">VLOOKUP(A12,$M$1:$X$8,6,FALSE)</f>
+        <f>VLOOKUP(A12,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="E12">
         <f>VLOOKUP(A12,$M$1:$X$8,5,FALSE)</f>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F12" s="4">
         <f>60/E12*C12</f>
-        <v>2.4</v>
+        <v>2.1818181818181817</v>
       </c>
       <c r="G12">
         <f>VLOOKUP(A12,$M$1:$X$8,9,FALSE)</f>
@@ -4207,7 +4039,7 @@
       </c>
       <c r="H12" s="3">
         <f>D12*F12*G12</f>
-        <v>96</v>
+        <v>87.272727272727266</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>92</v>
@@ -4218,7 +4050,7 @@
       <c r="P12" s="3"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="94" t="s">
+      <c r="A13" s="89" t="s">
         <v>43</v>
       </c>
       <c r="B13" s="37" t="s">
@@ -4233,11 +4065,11 @@
       </c>
       <c r="E13">
         <f>VLOOKUP(A13,$M$1:$X$8,5,FALSE)</f>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F13" s="4">
         <f>60/E13*C13</f>
-        <v>1.2</v>
+        <v>1.0909090909090908</v>
       </c>
       <c r="G13">
         <f>VLOOKUP(A13,$M$1:$X$8,9,FALSE)</f>
@@ -4245,21 +4077,21 @@
       </c>
       <c r="H13" s="3">
         <f>D13*F13*G13</f>
-        <v>48</v>
+        <v>43.636363636363633</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>105</v>
       </c>
       <c r="J13" s="3">
-        <v>19.35483870967742</v>
+        <v>14.117647058823531</v>
       </c>
       <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="85" t="s">
         <v>90</v>
       </c>
       <c r="C14" s="53">
@@ -4330,7 +4162,7 @@
       <c r="P15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="91" t="s">
+      <c r="A16" s="86" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="37" t="s">
@@ -4363,12 +4195,12 @@
         <v>61</v>
       </c>
       <c r="J16" s="3">
-        <v>815.85687557224549</v>
+        <v>796.08802961744129</v>
       </c>
       <c r="P16" s="3"/>
     </row>
     <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="86" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="37" t="s">
@@ -4399,7 +4231,7 @@
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="88" t="s">
+      <c r="A18" s="83" t="s">
         <v>110</v>
       </c>
       <c r="B18" s="37" t="s">
@@ -4414,11 +4246,11 @@
       </c>
       <c r="E18">
         <f>VLOOKUP(A18,$M$1:$X$8,5,FALSE)</f>
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="F18" s="4">
         <f>60/E18*C18</f>
-        <v>0.967741935483871</v>
+        <v>0.70588235294117652</v>
       </c>
       <c r="G18">
         <f>VLOOKUP(A18,$M$1:$X$8,9,FALSE)</f>
@@ -4426,14 +4258,14 @@
       </c>
       <c r="H18" s="3">
         <f>D18*F18*G18</f>
-        <v>19.35483870967742</v>
+        <v>14.117647058823531</v>
       </c>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="88" t="s">
+      <c r="A19" s="83" t="s">
         <v>110</v>
       </c>
       <c r="B19" s="37" t="s">
@@ -4448,11 +4280,11 @@
       </c>
       <c r="E19">
         <f>VLOOKUP(A19,$M$1:$X$8,5,FALSE)</f>
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="F19" s="4">
         <f>60/E19*C19</f>
-        <v>0.967741935483871</v>
+        <v>0.70588235294117652</v>
       </c>
       <c r="G19">
         <f>VLOOKUP(A19,$M$1:$X$8,9,FALSE)</f>
@@ -4460,126 +4292,126 @@
       </c>
       <c r="H19" s="3">
         <f>D19*F19*G19</f>
-        <v>19.35483870967742</v>
+        <v>14.117647058823531</v>
       </c>
       <c r="P19" s="3"/>
     </row>
     <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="86" t="s">
+      <c r="A20" s="83" t="s">
         <v>110</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C20" s="53">
         <v>1</v>
       </c>
       <c r="D20" s="54">
-        <f>VLOOKUP(A20,$M$1:$X$8,6,FALSE)</f>
+        <f t="shared" ref="D20:D22" si="10">VLOOKUP(A20,$M$1:$X$8,6,FALSE)</f>
         <v>1</v>
       </c>
       <c r="E20">
-        <f>VLOOKUP(A20,$M$1:$X$8,5,FALSE)</f>
-        <v>62</v>
+        <f t="shared" ref="E20:E22" si="11">VLOOKUP(A20,$M$1:$X$8,5,FALSE)</f>
+        <v>85</v>
       </c>
       <c r="F20" s="4">
-        <f>60/E20*C20</f>
-        <v>0.967741935483871</v>
+        <f t="shared" ref="F20:F23" si="12">60/E20*C20</f>
+        <v>0.70588235294117652</v>
       </c>
       <c r="G20">
-        <f>VLOOKUP(A20,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" ref="G20:G22" si="13">VLOOKUP(A20,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
       <c r="H20" s="3">
-        <f>D20*F20*G20</f>
-        <v>19.35483870967742</v>
+        <f t="shared" ref="H20:H22" si="14">D20*F20*G20</f>
+        <v>14.117647058823531</v>
       </c>
       <c r="P20" s="3"/>
     </row>
     <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="86" t="s">
+      <c r="A21" s="83" t="s">
         <v>110</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C21" s="53">
         <v>1</v>
       </c>
       <c r="D21" s="54">
-        <f>VLOOKUP(A21,$M$1:$X$8,6,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E21">
-        <f>VLOOKUP(A21,$M$1:$X$8,5,FALSE)</f>
-        <v>62</v>
+        <f t="shared" si="11"/>
+        <v>85</v>
       </c>
       <c r="F21" s="4">
-        <f>60/E21*C21</f>
-        <v>0.967741935483871</v>
+        <f t="shared" si="12"/>
+        <v>0.70588235294117652</v>
       </c>
       <c r="G21">
-        <f>VLOOKUP(A21,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="H21" s="3">
-        <f>D21*F21*G21</f>
-        <v>19.35483870967742</v>
+        <f t="shared" si="14"/>
+        <v>14.117647058823531</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="86" t="s">
+      <c r="A22" s="83" t="s">
         <v>110</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C22" s="53">
         <v>1</v>
       </c>
       <c r="D22" s="54">
-        <f>VLOOKUP(A22,$M$1:$X$8,6,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E22">
-        <f>VLOOKUP(A22,$M$1:$X$8,5,FALSE)</f>
-        <v>62</v>
+        <f t="shared" si="11"/>
+        <v>85</v>
       </c>
       <c r="F22" s="4">
-        <f>60/E22*C22</f>
-        <v>0.967741935483871</v>
+        <f t="shared" si="12"/>
+        <v>0.70588235294117652</v>
       </c>
       <c r="G22">
-        <f>VLOOKUP(A22,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="H22" s="3">
-        <f>D22*F22*G22</f>
-        <v>19.35483870967742</v>
+        <f t="shared" si="14"/>
+        <v>14.117647058823531</v>
       </c>
       <c r="P22" s="3"/>
     </row>
     <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="94" t="s">
-        <v>111</v>
+      <c r="A23" s="81" t="s">
+        <v>110</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C23" s="53">
         <v>1</v>
       </c>
       <c r="D23" s="54">
-        <f t="shared" ref="D23" si="7">VLOOKUP(A23,$M$1:$X$8,6,FALSE)</f>
-        <v>2</v>
+        <f>VLOOKUP(A23,$M$1:$X$8,6,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E23">
         <f>VLOOKUP(A23,$M$1:$X$8,5,FALSE)</f>
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="F23" s="4">
-        <f>60/E23*C23</f>
-        <v>1.0909090909090908</v>
+        <f t="shared" si="12"/>
+        <v>0.70588235294117652</v>
       </c>
       <c r="G23">
         <f>VLOOKUP(A23,$M$1:$X$8,9,FALSE)</f>
@@ -4587,31 +4419,31 @@
       </c>
       <c r="H23" s="3">
         <f>D23*F23*G23</f>
-        <v>43.636363636363633</v>
+        <v>14.117647058823531</v>
       </c>
       <c r="P23" s="3"/>
     </row>
     <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="94" t="s">
-        <v>111</v>
+      <c r="A24" s="81" t="s">
+        <v>110</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C24" s="53">
         <v>1</v>
       </c>
       <c r="D24" s="54">
         <f>VLOOKUP(A24,$M$1:$X$8,6,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <f>VLOOKUP(A24,$M$1:$X$8,5,FALSE)</f>
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="F24" s="4">
         <f>60/E24*C24</f>
-        <v>1.0909090909090908</v>
+        <v>0.70588235294117652</v>
       </c>
       <c r="G24">
         <f>VLOOKUP(A24,$M$1:$X$8,9,FALSE)</f>
@@ -4619,13 +4451,13 @@
       </c>
       <c r="H24" s="3">
         <f>D24*F24*G24</f>
-        <v>43.636363636363633</v>
+        <v>14.117647058823531</v>
       </c>
       <c r="P24" s="3"/>
     </row>
     <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="88" t="s">
-        <v>97</v>
+      <c r="A25" s="89" t="s">
+        <v>111</v>
       </c>
       <c r="B25" s="37" t="s">
         <v>90</v>
@@ -4639,11 +4471,11 @@
       </c>
       <c r="E25">
         <f>VLOOKUP(A25,$M$1:$X$8,5,FALSE)</f>
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="F25" s="4">
         <f>60/E25*C25</f>
-        <v>0.75</v>
+        <v>1.0909090909090908</v>
       </c>
       <c r="G25">
         <f>VLOOKUP(A25,$M$1:$X$8,9,FALSE)</f>
@@ -4651,18 +4483,18 @@
       </c>
       <c r="H25" s="3">
         <f>D25*F25*G25</f>
-        <v>30</v>
+        <v>43.636363636363633</v>
       </c>
       <c r="I25" s="52"/>
       <c r="N25" s="4"/>
       <c r="P25" s="3"/>
     </row>
     <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="88" t="s">
-        <v>97</v>
+      <c r="A26" s="89" t="s">
+        <v>111</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="C26" s="53">
         <v>1</v>
@@ -4673,11 +4505,11 @@
       </c>
       <c r="E26">
         <f>VLOOKUP(A26,$M$1:$X$8,5,FALSE)</f>
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="F26" s="4">
         <f>60/E26*C26</f>
-        <v>0.75</v>
+        <v>1.0909090909090908</v>
       </c>
       <c r="G26">
         <f>VLOOKUP(A26,$M$1:$X$8,9,FALSE)</f>
@@ -4685,15 +4517,15 @@
       </c>
       <c r="H26" s="3">
         <f>D26*F26*G26</f>
-        <v>30</v>
+        <v>43.636363636363633</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="88" t="s">
+      <c r="A27" s="83" t="s">
         <v>97</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C27" s="53">
         <v>1</v>
@@ -4720,11 +4552,11 @@
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="83" t="s">
         <v>97</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="C28" s="53">
         <v>1</v>
@@ -4751,16 +4583,16 @@
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="88" t="s">
+      <c r="A29" s="83" t="s">
         <v>97</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C29" s="53">
         <v>1</v>
       </c>
-      <c r="D29" s="55">
+      <c r="D29" s="54">
         <f>VLOOKUP(A29,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
@@ -4781,20 +4613,72 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F30" s="4"/>
-      <c r="H30" s="3"/>
+    <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="53">
+        <v>1</v>
+      </c>
+      <c r="D30" s="54">
+        <f>VLOOKUP(A30,$M$1:$X$8,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <f>VLOOKUP(A30,$M$1:$X$8,5,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="F30" s="4">
+        <f>60/E30*C30</f>
+        <v>0.75</v>
+      </c>
+      <c r="G30">
+        <f>VLOOKUP(A30,$M$1:$X$8,9,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="H30" s="3">
+        <f>D30*F30*G30</f>
+        <v>30</v>
+      </c>
       <c r="P30" s="3"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F31" s="4"/>
-      <c r="H31" s="3"/>
+    <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="53">
+        <v>1</v>
+      </c>
+      <c r="D31" s="55">
+        <f>VLOOKUP(A31,$M$1:$X$8,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <f>VLOOKUP(A31,$M$1:$X$8,5,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="F31" s="4">
+        <f>60/E31*C31</f>
+        <v>0.75</v>
+      </c>
+      <c r="G31">
+        <f>VLOOKUP(A31,$M$1:$X$8,9,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="H31" s="3">
+        <f>D31*F31*G31</f>
+        <v>30</v>
+      </c>
       <c r="P31" s="3"/>
       <c r="T31" s="3"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F32" s="4"/>
-      <c r="H32" s="3"/>
       <c r="P32" s="3"/>
       <c r="T32" s="3"/>
     </row>
@@ -4828,14 +4712,14 @@
     </row>
     <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="80" t="s">
+      <c r="A53" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="B53" s="81"/>
-      <c r="C53" s="82" t="s">
+      <c r="B53" s="93"/>
+      <c r="C53" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="D53" s="83"/>
+      <c r="D53" s="95"/>
     </row>
     <row r="54" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
@@ -4869,15 +4753,15 @@
         <v>90</v>
       </c>
       <c r="B55" s="33">
-        <v>550</v>
+        <v>520</v>
       </c>
       <c r="C55" s="19">
         <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A55)*3</f>
-        <v>548.94645771685623</v>
+        <v>520.14397367338552</v>
       </c>
       <c r="D55" s="65">
         <f>1-B55/C55</f>
-        <v>-1.9192077266070307E-3</v>
+        <v>2.7679581168404965E-4</v>
       </c>
       <c r="E55" s="20"/>
       <c r="F55" s="37" t="str">
@@ -4886,7 +4770,7 @@
       </c>
       <c r="G55" s="16">
         <f>C55/3</f>
-        <v>182.9821525722854</v>
+        <v>173.38132455779518</v>
       </c>
       <c r="H55" s="58">
         <f>VLOOKUP(F55,SummaryReport!A:J,8,FALSE)</f>
@@ -4894,7 +4778,7 @@
       </c>
       <c r="I55" s="6">
         <f>1-G55/H55</f>
-        <v>-3.3797472159804443E-2</v>
+        <v>2.0444494023756032E-2</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -4902,15 +4786,15 @@
         <v>0</v>
       </c>
       <c r="B56" s="33">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="C56" s="19">
         <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A56)*3</f>
-        <v>347.44913151364767</v>
+        <v>318.6466474701769</v>
       </c>
       <c r="D56" s="65">
         <f>1-B56/C56</f>
-        <v>-7.3417034466012332E-3</v>
+        <v>-4.2471889805455465E-3</v>
       </c>
       <c r="E56" s="20"/>
       <c r="F56" s="37" t="str">
@@ -4918,27 +4802,27 @@
         <v>Login</v>
       </c>
       <c r="G56" s="16">
-        <f t="shared" ref="G56:G66" si="8">C56/3</f>
-        <v>115.81637717121589</v>
+        <f t="shared" ref="G56:G65" si="15">C56/3</f>
+        <v>106.21554915672563</v>
       </c>
       <c r="H56" s="58">
         <f>VLOOKUP(F56,SummaryReport!A:J,8,FALSE)</f>
         <v>144</v>
       </c>
       <c r="I56" s="6">
-        <f t="shared" ref="I56:I66" si="9">1-G56/H56</f>
-        <v>0.19571960297766744</v>
+        <f t="shared" ref="I56:I65" si="16">1-G56/H56</f>
+        <v>0.26239201974496096</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="85" t="s">
+      <c r="A57" s="80" t="s">
         <v>101</v>
       </c>
       <c r="B57" s="33">
         <v>55</v>
       </c>
       <c r="C57" s="19">
-        <f t="shared" ref="C57:C64" si="10">GETPIVOTDATA("Итого",$I$1,"transaction rq",A57)*3</f>
+        <f t="shared" ref="C57:C64" si="17">GETPIVOTDATA("Итого",$I$1,"transaction rq",A57)*3</f>
         <v>55.384615384615387</v>
       </c>
       <c r="D57" s="65">
@@ -4951,7 +4835,7 @@
         <v>CheckoutUserData</v>
       </c>
       <c r="G57" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>18.461538461538463</v>
       </c>
       <c r="H57" s="58" t="e">
@@ -4959,7 +4843,7 @@
         <v>#N/A</v>
       </c>
       <c r="I57" s="6" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -4968,15 +4852,15 @@
         <v>97</v>
       </c>
       <c r="B58" s="33">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="C58" s="19">
-        <f t="shared" si="10"/>
-        <v>145.38461538461542</v>
+        <f t="shared" si="17"/>
+        <v>187.737556561086</v>
       </c>
       <c r="D58" s="65">
-        <f t="shared" ref="D58:D67" si="11">1-B58/C58</f>
-        <v>-3.1746031746031633E-2</v>
+        <f t="shared" ref="D58:D65" si="18">1-B58/C58</f>
+        <v>-1.205109664979509E-2</v>
       </c>
       <c r="E58" s="20"/>
       <c r="F58" s="37" t="str">
@@ -4984,15 +4868,15 @@
         <v>AddToCart</v>
       </c>
       <c r="G58" s="16">
-        <f t="shared" si="8"/>
-        <v>48.461538461538474</v>
+        <f t="shared" si="15"/>
+        <v>62.579185520361996</v>
       </c>
       <c r="H58" s="58" t="e">
         <f>VLOOKUP(F58,SummaryReport!A:J,8,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I58" s="6" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -5001,15 +4885,15 @@
         <v>94</v>
       </c>
       <c r="B59" s="33">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="C59" s="19">
-        <f t="shared" si="10"/>
-        <v>433.38461538461536</v>
+        <f t="shared" si="17"/>
+        <v>449.55573837926784</v>
       </c>
       <c r="D59" s="65">
-        <f t="shared" si="11"/>
-        <v>7.8097266595668069E-3</v>
+        <f t="shared" si="18"/>
+        <v>-9.8822366795681127E-4</v>
       </c>
       <c r="E59" s="20"/>
       <c r="F59" s="37" t="str">
@@ -5017,15 +4901,15 @@
         <v>ChooseCategory</v>
       </c>
       <c r="G59" s="16">
-        <f t="shared" si="8"/>
-        <v>144.46153846153845</v>
+        <f t="shared" si="15"/>
+        <v>149.85191279308927</v>
       </c>
       <c r="H59" s="58" t="e">
         <f>VLOOKUP(F59,SummaryReport!A:J,8,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I59" s="6" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -5037,11 +4921,11 @@
         <v>55</v>
       </c>
       <c r="C60" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>55.384615384615387</v>
       </c>
       <c r="D60" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>6.9444444444445308E-3</v>
       </c>
       <c r="E60" s="20"/>
@@ -5050,7 +4934,7 @@
         <v>Payment</v>
       </c>
       <c r="G60" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>18.461538461538463</v>
       </c>
       <c r="H60" s="58" t="e">
@@ -5058,7 +4942,7 @@
         <v>#N/A</v>
       </c>
       <c r="I60" s="6" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -5067,15 +4951,15 @@
         <v>99</v>
       </c>
       <c r="B61" s="33">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C61" s="19">
-        <f t="shared" si="10"/>
-        <v>113.44913151364764</v>
+        <f t="shared" si="17"/>
+        <v>97.737556561085995</v>
       </c>
       <c r="D61" s="65">
-        <f t="shared" si="11"/>
-        <v>3.0402449693788247E-2</v>
+        <f t="shared" si="18"/>
+        <v>-2.3148148148147918E-2</v>
       </c>
       <c r="E61" s="20"/>
       <c r="F61" s="37" t="str">
@@ -5083,15 +4967,15 @@
         <v>OpenCart</v>
       </c>
       <c r="G61" s="16">
-        <f t="shared" si="8"/>
-        <v>37.816377171215883</v>
+        <f t="shared" si="15"/>
+        <v>32.579185520361996</v>
       </c>
       <c r="H61" s="58" t="e">
         <f>VLOOKUP(F61,SummaryReport!A:J,8,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I61" s="6" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -5100,15 +4984,15 @@
         <v>105</v>
       </c>
       <c r="B62" s="33">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C62" s="19">
-        <f t="shared" si="10"/>
-        <v>58.064516129032256</v>
+        <f t="shared" si="17"/>
+        <v>42.352941176470594</v>
       </c>
       <c r="D62" s="65">
-        <f t="shared" si="11"/>
-        <v>-3.3333333333333437E-2</v>
+        <f t="shared" si="18"/>
+        <v>8.3333333333335258E-3</v>
       </c>
       <c r="E62" s="20"/>
       <c r="F62" s="37" t="str">
@@ -5116,8 +5000,8 @@
         <v>DeleteProduct</v>
       </c>
       <c r="G62" s="16">
-        <f t="shared" si="8"/>
-        <v>19.35483870967742</v>
+        <f t="shared" si="15"/>
+        <v>14.117647058823531</v>
       </c>
       <c r="H62" s="58" t="e">
         <f>VLOOKUP(F62,SummaryReport!A:J,8,FALSE)</f>
@@ -5133,15 +5017,15 @@
         <v>3</v>
       </c>
       <c r="B63" s="33">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="C63" s="19">
         <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A63)*3</f>
-        <v>272.65275142314994</v>
+        <v>201.49732620320853</v>
       </c>
       <c r="D63" s="65">
-        <f t="shared" si="11"/>
-        <v>9.7294137297478933E-3</v>
+        <f t="shared" si="18"/>
+        <v>7.4309978768576368E-3</v>
       </c>
       <c r="E63" s="20"/>
       <c r="F63" s="37" t="str">
@@ -5149,16 +5033,16 @@
         <v>Logout</v>
       </c>
       <c r="G63" s="16">
-        <f t="shared" si="8"/>
-        <v>90.884250474383308</v>
+        <f t="shared" si="15"/>
+        <v>67.16577540106951</v>
       </c>
       <c r="H63" s="58">
         <f>VLOOKUP(F63,SummaryReport!A:J,8,FALSE)</f>
         <v>106</v>
       </c>
       <c r="I63" s="6">
-        <f t="shared" si="9"/>
-        <v>0.14260141061902543</v>
+        <f t="shared" si="16"/>
+        <v>0.3663606094238725</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -5169,11 +5053,11 @@
         <v>70</v>
       </c>
       <c r="C64" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>70.588235294117652</v>
       </c>
       <c r="D64" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>8.3333333333334147E-3</v>
       </c>
       <c r="E64" s="20"/>
@@ -5182,7 +5066,7 @@
         <v>OpenRegistrationPage</v>
       </c>
       <c r="G64" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>23.529411764705884</v>
       </c>
       <c r="H64" s="58">
@@ -5190,7 +5074,7 @@
         <v>33</v>
       </c>
       <c r="I64" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0.28698752228163993</v>
       </c>
     </row>
@@ -5206,7 +5090,7 @@
         <v>70.588235294117652</v>
       </c>
       <c r="D65" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>8.3333333333334147E-3</v>
       </c>
       <c r="E65" s="20"/>
@@ -5215,7 +5099,7 @@
         <v>UserRegistered</v>
       </c>
       <c r="G65" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>23.529411764705884</v>
       </c>
       <c r="H65" s="58">
@@ -5223,7 +5107,7 @@
         <v>33</v>
       </c>
       <c r="I65" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0.28698752228163993</v>
       </c>
     </row>
@@ -5239,7 +5123,7 @@
         <v>130.90909090909091</v>
       </c>
       <c r="D66" s="65">
-        <f t="shared" ref="D66" si="12">1-B66/C66</f>
+        <f t="shared" ref="D66" si="19">1-B66/C66</f>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="F66" s="37" t="str">
@@ -5247,7 +5131,7 @@
         <v>SeachProduct</v>
       </c>
       <c r="G66" s="16">
-        <f t="shared" ref="G66" si="13">C66/3</f>
+        <f t="shared" ref="G66" si="20">C66/3</f>
         <v>43.636363636363633</v>
       </c>
       <c r="H66" s="58" t="e">
@@ -5255,7 +5139,7 @@
         <v>#N/A</v>
       </c>
       <c r="I66" s="6" t="e">
-        <f t="shared" ref="I66" si="14">1-G66/H66</f>
+        <f t="shared" ref="I66" si="21">1-G66/H66</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5264,15 +5148,15 @@
         <v>108</v>
       </c>
       <c r="B67" s="33">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="C67" s="19">
         <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A67)*3</f>
-        <v>145.38461538461542</v>
+        <v>187.737556561086</v>
       </c>
       <c r="D67" s="65">
         <f>1-B67/C67</f>
-        <v>-3.1746031746031633E-2</v>
+        <v>-1.205109664979509E-2</v>
       </c>
       <c r="E67" s="20"/>
       <c r="F67" s="37" t="str">
@@ -5281,7 +5165,7 @@
       </c>
       <c r="G67" s="16">
         <f>C67/3</f>
-        <v>48.461538461538474</v>
+        <v>62.579185520361996</v>
       </c>
       <c r="H67" s="58" t="e">
         <f>VLOOKUP(F67,SummaryReport!A:J,8,FALSE)</f>
@@ -5298,19 +5182,19 @@
       </c>
       <c r="B68" s="34">
         <f>SUM(B55:B67)</f>
-        <v>2450</v>
+        <v>2392</v>
       </c>
       <c r="C68" s="35">
         <f>SUM(C55:C67)</f>
-        <v>2447.570626716737</v>
+        <v>2388.2640888523242</v>
       </c>
       <c r="D68" s="66">
         <f>1-B68/C68</f>
-        <v>-9.9256514061130119E-4</v>
+        <v>-1.5642789108263333E-3</v>
       </c>
       <c r="G68" s="3">
         <f>SUM(G55:G67)</f>
-        <v>815.85687557224549</v>
+        <v>796.08802961744129</v>
       </c>
       <c r="H68" s="3" t="e">
         <f>SUM(H55:H67)</f>
@@ -6121,14 +6005,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
     </row>
     <row r="3" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E3" s="78" t="s">
@@ -6184,7 +6068,7 @@
       </c>
       <c r="G5" s="71">
         <f>VLOOKUP(E5,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="H5" s="74">
         <f>633*0.6</f>
@@ -6192,7 +6076,7 @@
       </c>
       <c r="I5" s="73">
         <f t="shared" ref="I5:I6" si="0">1-G5/H5</f>
-        <v>7.846234860452872E-2</v>
+        <v>0.15745129015271198</v>
       </c>
       <c r="J5" s="77" t="s">
         <v>86</v>
@@ -6356,7 +6240,7 @@
       </c>
       <c r="G12" s="71">
         <f>VLOOKUP(E12,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="H12" s="74">
         <f>437*0.6</f>
@@ -6364,7 +6248,7 @@
       </c>
       <c r="I12" s="73">
         <f t="shared" si="1"/>
-        <v>-2.9748283752860427E-2</v>
+        <v>0.23722349351639971</v>
       </c>
       <c r="J12" s="77" t="s">
         <v>86</v>
@@ -6449,14 +6333,14 @@
       <c r="I16" s="75"/>
     </row>
     <row r="17" spans="5:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="84" t="s">
+      <c r="E17" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
     </row>
     <row r="19" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E19" s="78" t="s">
@@ -6512,7 +6396,7 @@
       </c>
       <c r="G21" s="71">
         <f>VLOOKUP(E21,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="H21" s="74">
         <f>(543/4)*3</f>
@@ -6520,7 +6404,7 @@
       </c>
       <c r="I21" s="73">
         <f t="shared" ref="I21:I22" si="2">1-G21/H21</f>
-        <v>0.14057704112952729</v>
+        <v>0.21424186617556784</v>
       </c>
       <c r="J21" s="77" t="s">
         <v>86</v>
@@ -6688,7 +6572,7 @@
       </c>
       <c r="G28" s="71">
         <f>VLOOKUP(E28,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="H28" s="74">
         <f>(413/4)*3</f>
@@ -6696,7 +6580,7 @@
       </c>
       <c r="I28" s="73">
         <f>1-G28/H28</f>
-        <v>0.12832929782082325</v>
+        <v>0.35431799838579503</v>
       </c>
       <c r="J28" s="77" t="s">
         <v>86</v>
@@ -6781,14 +6665,14 @@
       <c r="Q32" s="76"/>
     </row>
     <row r="33" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E33" s="84" t="s">
+      <c r="E33" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="F33" s="84"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="84"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="96"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="96"/>
+      <c r="J33" s="96"/>
     </row>
     <row r="35" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E35" s="78" t="s">
@@ -6843,14 +6727,14 @@
       </c>
       <c r="G37" s="71">
         <f>VLOOKUP(E37,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="H37" s="74">
         <v>407</v>
       </c>
       <c r="I37" s="73">
         <f t="shared" ref="I37:I38" si="4">1-G37/H37</f>
-        <v>0.14004914004914004</v>
+        <v>0.21375921375921381</v>
       </c>
       <c r="J37" s="77" t="s">
         <v>86</v>
@@ -7006,14 +6890,14 @@
       </c>
       <c r="G44" s="71">
         <f>VLOOKUP(E44,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="H44" s="74">
         <v>309</v>
       </c>
       <c r="I44" s="73">
         <f>1-G44/H44</f>
-        <v>0.12621359223300976</v>
+        <v>0.3527508090614887</v>
       </c>
       <c r="J44" s="77" t="s">
         <v>83</v>
@@ -7091,14 +6975,14 @@
       </c>
     </row>
     <row r="49" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E49" s="84" t="s">
+      <c r="E49" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="F49" s="84"/>
-      <c r="G49" s="84"/>
-      <c r="H49" s="84"/>
-      <c r="I49" s="84"/>
-      <c r="J49" s="84"/>
+      <c r="F49" s="96"/>
+      <c r="G49" s="96"/>
+      <c r="H49" s="96"/>
+      <c r="I49" s="96"/>
+      <c r="J49" s="96"/>
     </row>
     <row r="51" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E51" s="78" t="s">
@@ -7154,7 +7038,7 @@
       </c>
       <c r="G53" s="71">
         <f>VLOOKUP(E53,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="H53" s="74">
         <f>(271/2)*3</f>
@@ -7162,7 +7046,7 @@
       </c>
       <c r="I53" s="73">
         <f t="shared" ref="I53:I54" si="7">1-G53/H53</f>
-        <v>0.13899138991389914</v>
+        <v>0.21279212792127922</v>
       </c>
       <c r="J53" s="77" t="s">
         <v>83</v>
@@ -7322,7 +7206,7 @@
       </c>
       <c r="G60" s="71">
         <f>VLOOKUP(E60,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="H60" s="74">
         <f>(206/2)*3</f>
@@ -7330,7 +7214,7 @@
       </c>
       <c r="I60" s="73">
         <f>1-G60/H60</f>
-        <v>0.12621359223300976</v>
+        <v>0.3527508090614887</v>
       </c>
       <c r="J60" s="77" t="s">
         <v>83</v>
@@ -7409,14 +7293,14 @@
       </c>
     </row>
     <row r="65" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E65" s="84" t="s">
+      <c r="E65" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="F65" s="84"/>
-      <c r="G65" s="84"/>
-      <c r="H65" s="84"/>
-      <c r="I65" s="84"/>
-      <c r="J65" s="84"/>
+      <c r="F65" s="96"/>
+      <c r="G65" s="96"/>
+      <c r="H65" s="96"/>
+      <c r="I65" s="96"/>
+      <c r="J65" s="96"/>
     </row>
     <row r="67" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E67" s="78" t="s">
@@ -7472,7 +7356,7 @@
       </c>
       <c r="G69" s="71">
         <f>VLOOKUP(E69,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="H69" s="74">
         <f>146*3</f>
@@ -7480,7 +7364,7 @@
       </c>
       <c r="I69" s="73">
         <f t="shared" ref="I69:I70" si="10">1-G69/H69</f>
-        <v>0.20091324200913241</v>
+        <v>0.26940639269406397</v>
       </c>
       <c r="J69" s="77" t="s">
         <v>83</v>
@@ -7640,7 +7524,7 @@
       </c>
       <c r="G76" s="71">
         <f>VLOOKUP(E76,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="H76" s="74">
         <f>108*3</f>
@@ -7648,7 +7532,7 @@
       </c>
       <c r="I76" s="73">
         <f>1-G76/H76</f>
-        <v>0.16666666666666663</v>
+        <v>0.38271604938271608</v>
       </c>
       <c r="J76" s="77" t="s">
         <v>83</v>
@@ -7738,82 +7622,82 @@
     <mergeCell ref="E17:J17"/>
   </mergeCells>
   <conditionalFormatting sqref="I4:I15">
-    <cfRule type="cellIs" dxfId="76" priority="76" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="76" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I31">
-    <cfRule type="cellIs" dxfId="75" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="28" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:I47">
-    <cfRule type="cellIs" dxfId="74" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52:I63">
-    <cfRule type="cellIs" dxfId="73" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="14" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I68:I79">
-    <cfRule type="cellIs" dxfId="72" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J15">
-    <cfRule type="cellIs" dxfId="71" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="29" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="70" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="14" priority="70" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",J4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:J31">
-    <cfRule type="cellIs" dxfId="69" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="22" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="23" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="12" priority="23" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",J20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36:J47">
-    <cfRule type="cellIs" dxfId="67" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="16" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="10" priority="16" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",J36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J52:J63">
-    <cfRule type="cellIs" dxfId="65" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="9" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",J52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J68:J79">
-    <cfRule type="cellIs" dxfId="63" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="2" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",J68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7:L10">
-    <cfRule type="cellIs" dxfId="61" priority="79" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="79" operator="lessThan">
       <formula>-5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:L24 Q21:Q24 L31:L32 Q31:Q32">
-    <cfRule type="cellIs" dxfId="60" priority="67" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="67" operator="lessThan">
       <formula>-5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L40 O40 L46 O46">
-    <cfRule type="cellIs" dxfId="59" priority="60" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="60" operator="lessThan">
       <formula>-5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7841,14 +7725,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="96" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="78" t="s">
@@ -7903,14 +7787,14 @@
       </c>
       <c r="C5" s="71">
         <f>VLOOKUP(A5,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)*2</f>
-        <v>700</v>
+        <v>640</v>
       </c>
       <c r="D5" s="74">
         <v>852</v>
       </c>
       <c r="E5" s="73">
         <f t="shared" ref="E5:E6" si="0">1-C5/D5</f>
-        <v>0.17840375586854462</v>
+        <v>0.24882629107981225</v>
       </c>
       <c r="F5" s="77" t="s">
         <v>83</v>
@@ -8064,14 +7948,14 @@
       </c>
       <c r="C12" s="71">
         <f>VLOOKUP(A12,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)*2</f>
-        <v>540</v>
+        <v>400</v>
       </c>
       <c r="D12" s="74">
         <v>633</v>
       </c>
       <c r="E12" s="73">
         <f>1-C12/D12</f>
-        <v>0.14691943127962082</v>
+        <v>0.36808846761453395</v>
       </c>
       <c r="F12" s="77" t="s">
         <v>83</v>
@@ -8151,15 +8035,15 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E15">
-    <cfRule type="cellIs" dxfId="58" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F15">
-    <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="2" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",F4)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Документы/AdvantageShoping_Профиль.xlsx
+++ b/Документы/AdvantageShoping_Профиль.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Programs\Itogovoe\Документы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73993CDF-2B63-4233-9E61-66D7A64EAE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DF9B24-49F2-4030-A3C5-4DE6B6B25175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2456,7 +2456,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Артем Клейменов" refreshedDate="45669.569691087963" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="34" xr:uid="{15D61AD1-E1C1-4DCC-AFD6-4E9D9EE3EDD2}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Артем Клейменов" refreshedDate="45669.746048263885" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="34" xr:uid="{15D61AD1-E1C1-4DCC-AFD6-4E9D9EE3EDD2}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H35" sheet="Автоматизированный расчет"/>
   </cacheSource>
@@ -2508,7 +2508,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="20" maxValue="20"/>
     </cacheField>
     <cacheField name="Итого" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="14.117647058823531" maxValue="87.272727272727266"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="13.636363636363635" maxValue="87.272727272727266"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -2686,70 +2686,70 @@
     <x v="0"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="85"/>
-    <n v="0.70588235294117652"/>
+    <n v="88"/>
+    <n v="0.68181818181818177"/>
     <n v="20"/>
-    <n v="14.117647058823531"/>
+    <n v="13.636363636363635"/>
   </r>
   <r>
     <s v="Удаление товаара "/>
     <x v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="85"/>
-    <n v="0.70588235294117652"/>
+    <n v="88"/>
+    <n v="0.68181818181818177"/>
     <n v="20"/>
-    <n v="14.117647058823531"/>
+    <n v="13.636363636363635"/>
   </r>
   <r>
     <s v="Удаление товаара "/>
     <x v="2"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="85"/>
-    <n v="0.70588235294117652"/>
+    <n v="88"/>
+    <n v="0.68181818181818177"/>
     <n v="20"/>
-    <n v="14.117647058823531"/>
+    <n v="13.636363636363635"/>
   </r>
   <r>
     <s v="Удаление товаара "/>
     <x v="3"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="85"/>
-    <n v="0.70588235294117652"/>
+    <n v="88"/>
+    <n v="0.68181818181818177"/>
     <n v="20"/>
-    <n v="14.117647058823531"/>
+    <n v="13.636363636363635"/>
   </r>
   <r>
     <s v="Удаление товаара "/>
     <x v="4"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="85"/>
-    <n v="0.70588235294117652"/>
+    <n v="88"/>
+    <n v="0.68181818181818177"/>
     <n v="20"/>
-    <n v="14.117647058823531"/>
+    <n v="13.636363636363635"/>
   </r>
   <r>
     <s v="Удаление товаара "/>
     <x v="5"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="85"/>
-    <n v="0.70588235294117652"/>
+    <n v="88"/>
+    <n v="0.68181818181818177"/>
     <n v="20"/>
-    <n v="14.117647058823531"/>
+    <n v="13.636363636363635"/>
   </r>
   <r>
     <s v="Удаление товаара "/>
     <x v="11"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="85"/>
-    <n v="0.70588235294117652"/>
+    <n v="88"/>
+    <n v="0.68181818181818177"/>
     <n v="20"/>
-    <n v="14.117647058823531"/>
+    <n v="13.636363636363635"/>
   </r>
   <r>
     <s v="Поиск товара "/>
@@ -3270,8 +3270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="3">
-        <v>106.21554915672563</v>
+        <v>105.73426573426573</v>
       </c>
       <c r="L2" s="61"/>
       <c r="M2" s="64" t="s">
@@ -3488,17 +3488,17 @@
         <v>110</v>
       </c>
       <c r="N3" s="5">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O3" s="18">
         <v>24</v>
       </c>
       <c r="P3" s="19">
         <f t="shared" ref="P3:P7" si="5">N3+O3</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q3" s="9">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="R3" s="27">
         <v>1</v>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="T3" s="40">
         <f t="shared" si="4"/>
-        <v>0.70588235294117652</v>
+        <v>0.68181818181818177</v>
       </c>
       <c r="U3" s="87">
         <v>20</v>
@@ -3524,7 +3524,7 @@
       </c>
       <c r="Z3">
         <f t="shared" ref="Z3:Z7" si="7">Q3+((Q3/100)*Y3)</f>
-        <v>93.5</v>
+        <v>96.8</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3561,7 +3561,7 @@
         <v>90</v>
       </c>
       <c r="J4" s="3">
-        <v>173.38132455779515</v>
+        <v>172.90004113533524</v>
       </c>
       <c r="L4" s="61"/>
       <c r="M4" s="64" t="s">
@@ -3641,7 +3641,7 @@
         <v>94</v>
       </c>
       <c r="J5" s="3">
-        <v>149.85191279308927</v>
+        <v>149.37062937062939</v>
       </c>
       <c r="L5" s="61"/>
       <c r="M5" s="24" t="s">
@@ -3721,7 +3721,7 @@
         <v>108</v>
       </c>
       <c r="J6" s="3">
-        <v>62.579185520361996</v>
+        <v>62.0979020979021</v>
       </c>
       <c r="L6" s="61"/>
       <c r="M6" s="24" t="s">
@@ -3801,7 +3801,7 @@
         <v>97</v>
       </c>
       <c r="J7" s="3">
-        <v>62.579185520361996</v>
+        <v>62.0979020979021</v>
       </c>
       <c r="L7" s="61"/>
       <c r="M7" s="24" t="s">
@@ -3881,7 +3881,7 @@
         <v>99</v>
       </c>
       <c r="J8" s="3">
-        <v>32.579185520361996</v>
+        <v>32.0979020979021</v>
       </c>
       <c r="M8" s="25"/>
       <c r="N8" s="26"/>
@@ -4022,23 +4022,23 @@
         <v>2</v>
       </c>
       <c r="D12" s="55">
-        <f>VLOOKUP(A12,$M$1:$X$8,6,FALSE)</f>
+        <f t="shared" ref="D12:D19" si="10">VLOOKUP(A12,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="E12">
-        <f>VLOOKUP(A12,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" ref="E12:E19" si="11">VLOOKUP(A12,$M$1:$X$8,5,FALSE)</f>
         <v>55</v>
       </c>
       <c r="F12" s="4">
-        <f>60/E12*C12</f>
+        <f t="shared" ref="F12:F19" si="12">60/E12*C12</f>
         <v>2.1818181818181817</v>
       </c>
       <c r="G12">
-        <f>VLOOKUP(A12,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" ref="G12:G19" si="13">VLOOKUP(A12,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
       <c r="H12" s="3">
-        <f>D12*F12*G12</f>
+        <f t="shared" ref="H12:H19" si="14">D12*F12*G12</f>
         <v>87.272727272727266</v>
       </c>
       <c r="I12" s="2" t="s">
@@ -4060,30 +4060,30 @@
         <v>1</v>
       </c>
       <c r="D13" s="55">
-        <f>VLOOKUP(A13,$M$1:$X$8,6,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="E13">
-        <f>VLOOKUP(A13,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>55</v>
       </c>
       <c r="F13" s="4">
-        <f>60/E13*C13</f>
+        <f t="shared" si="12"/>
         <v>1.0909090909090908</v>
       </c>
       <c r="G13">
-        <f>VLOOKUP(A13,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="H13" s="3">
-        <f>D13*F13*G13</f>
+        <f t="shared" si="14"/>
         <v>43.636363636363633</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>105</v>
       </c>
       <c r="J13" s="3">
-        <v>14.117647058823531</v>
+        <v>13.636363636363635</v>
       </c>
       <c r="P13" s="3"/>
     </row>
@@ -4098,23 +4098,23 @@
         <v>1</v>
       </c>
       <c r="D14" s="56">
-        <f>VLOOKUP(A14,$M$1:$X$8,6,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E14">
-        <f>VLOOKUP(A14,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>51</v>
       </c>
       <c r="F14" s="4">
-        <f>60/E14*C14</f>
+        <f t="shared" si="12"/>
         <v>1.1764705882352942</v>
       </c>
       <c r="G14">
-        <f>VLOOKUP(A14,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="H14" s="3">
-        <f>D14*F14*G14</f>
+        <f t="shared" si="14"/>
         <v>23.529411764705884</v>
       </c>
       <c r="I14" s="2" t="s">
@@ -4136,23 +4136,23 @@
         <v>1</v>
       </c>
       <c r="D15" s="54">
-        <f>VLOOKUP(A15,$M$1:$X$8,6,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E15">
-        <f>VLOOKUP(A15,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>51</v>
       </c>
       <c r="F15" s="4">
-        <f>60/E15*C15</f>
+        <f t="shared" si="12"/>
         <v>1.1764705882352942</v>
       </c>
       <c r="G15">
-        <f>VLOOKUP(A15,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="H15" s="3">
-        <f>D15*F15*G15</f>
+        <f t="shared" si="14"/>
         <v>23.529411764705884</v>
       </c>
       <c r="I15" s="2" t="s">
@@ -4172,30 +4172,30 @@
         <v>1</v>
       </c>
       <c r="D16" s="54">
-        <f>VLOOKUP(A16,$M$1:$X$8,6,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E16">
-        <f>VLOOKUP(A16,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>51</v>
       </c>
       <c r="F16" s="4">
-        <f>60/E16*C16</f>
+        <f t="shared" si="12"/>
         <v>1.1764705882352942</v>
       </c>
       <c r="G16">
-        <f>VLOOKUP(A16,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="H16" s="3">
-        <f>D16*F16*G16</f>
+        <f t="shared" si="14"/>
         <v>23.529411764705884</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>61</v>
       </c>
       <c r="J16" s="3">
-        <v>796.08802961744129</v>
+        <v>792.71904566022204</v>
       </c>
       <c r="P16" s="3"/>
     </row>
@@ -4210,23 +4210,23 @@
         <v>1</v>
       </c>
       <c r="D17" s="55">
-        <f>VLOOKUP(A17,$M$1:$X$8,6,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E17">
-        <f>VLOOKUP(A17,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>51</v>
       </c>
       <c r="F17" s="4">
-        <f>60/E17*C17</f>
+        <f t="shared" si="12"/>
         <v>1.1764705882352942</v>
       </c>
       <c r="G17">
-        <f>VLOOKUP(A17,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="H17" s="3">
-        <f>D17*F17*G17</f>
+        <f t="shared" si="14"/>
         <v>23.529411764705884</v>
       </c>
     </row>
@@ -4241,24 +4241,24 @@
         <v>1</v>
       </c>
       <c r="D18" s="54">
-        <f>VLOOKUP(A18,$M$1:$X$8,6,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E18">
-        <f>VLOOKUP(A18,$M$1:$X$8,5,FALSE)</f>
-        <v>85</v>
+        <f t="shared" si="11"/>
+        <v>88</v>
       </c>
       <c r="F18" s="4">
-        <f>60/E18*C18</f>
-        <v>0.70588235294117652</v>
+        <f t="shared" si="12"/>
+        <v>0.68181818181818177</v>
       </c>
       <c r="G18">
-        <f>VLOOKUP(A18,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="H18" s="3">
-        <f>D18*F18*G18</f>
-        <v>14.117647058823531</v>
+        <f t="shared" si="14"/>
+        <v>13.636363636363635</v>
       </c>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
@@ -4275,24 +4275,24 @@
         <v>1</v>
       </c>
       <c r="D19" s="54">
-        <f>VLOOKUP(A19,$M$1:$X$8,6,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E19">
-        <f>VLOOKUP(A19,$M$1:$X$8,5,FALSE)</f>
-        <v>85</v>
+        <f t="shared" si="11"/>
+        <v>88</v>
       </c>
       <c r="F19" s="4">
-        <f>60/E19*C19</f>
-        <v>0.70588235294117652</v>
+        <f t="shared" si="12"/>
+        <v>0.68181818181818177</v>
       </c>
       <c r="G19">
-        <f>VLOOKUP(A19,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="H19" s="3">
-        <f>D19*F19*G19</f>
-        <v>14.117647058823531</v>
+        <f t="shared" si="14"/>
+        <v>13.636363636363635</v>
       </c>
       <c r="P19" s="3"/>
     </row>
@@ -4307,24 +4307,24 @@
         <v>1</v>
       </c>
       <c r="D20" s="54">
-        <f t="shared" ref="D20:D22" si="10">VLOOKUP(A20,$M$1:$X$8,6,FALSE)</f>
+        <f t="shared" ref="D20:D22" si="15">VLOOKUP(A20,$M$1:$X$8,6,FALSE)</f>
         <v>1</v>
       </c>
       <c r="E20">
-        <f t="shared" ref="E20:E22" si="11">VLOOKUP(A20,$M$1:$X$8,5,FALSE)</f>
-        <v>85</v>
+        <f t="shared" ref="E20:E22" si="16">VLOOKUP(A20,$M$1:$X$8,5,FALSE)</f>
+        <v>88</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" ref="F20:F23" si="12">60/E20*C20</f>
-        <v>0.70588235294117652</v>
+        <f t="shared" ref="F20:F23" si="17">60/E20*C20</f>
+        <v>0.68181818181818177</v>
       </c>
       <c r="G20">
-        <f t="shared" ref="G20:G22" si="13">VLOOKUP(A20,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" ref="G20:G22" si="18">VLOOKUP(A20,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" ref="H20:H22" si="14">D20*F20*G20</f>
-        <v>14.117647058823531</v>
+        <f t="shared" ref="H20:H22" si="19">D20*F20*G20</f>
+        <v>13.636363636363635</v>
       </c>
       <c r="P20" s="3"/>
     </row>
@@ -4339,24 +4339,24 @@
         <v>1</v>
       </c>
       <c r="D21" s="54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="E21">
-        <f t="shared" si="11"/>
-        <v>85</v>
+        <f t="shared" si="16"/>
+        <v>88</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="12"/>
-        <v>0.70588235294117652</v>
+        <f t="shared" si="17"/>
+        <v>0.68181818181818177</v>
       </c>
       <c r="G21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" si="14"/>
-        <v>14.117647058823531</v>
+        <f t="shared" si="19"/>
+        <v>13.636363636363635</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4370,24 +4370,24 @@
         <v>1</v>
       </c>
       <c r="D22" s="54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="E22">
-        <f t="shared" si="11"/>
-        <v>85</v>
+        <f t="shared" si="16"/>
+        <v>88</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" si="12"/>
-        <v>0.70588235294117652</v>
+        <f t="shared" si="17"/>
+        <v>0.68181818181818177</v>
       </c>
       <c r="G22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" si="14"/>
-        <v>14.117647058823531</v>
+        <f t="shared" si="19"/>
+        <v>13.636363636363635</v>
       </c>
       <c r="P22" s="3"/>
     </row>
@@ -4402,24 +4402,24 @@
         <v>1</v>
       </c>
       <c r="D23" s="54">
-        <f>VLOOKUP(A23,$M$1:$X$8,6,FALSE)</f>
+        <f t="shared" ref="D23:D31" si="20">VLOOKUP(A23,$M$1:$X$8,6,FALSE)</f>
         <v>1</v>
       </c>
       <c r="E23">
-        <f>VLOOKUP(A23,$M$1:$X$8,5,FALSE)</f>
-        <v>85</v>
+        <f t="shared" ref="E23:E31" si="21">VLOOKUP(A23,$M$1:$X$8,5,FALSE)</f>
+        <v>88</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" si="12"/>
-        <v>0.70588235294117652</v>
+        <f t="shared" si="17"/>
+        <v>0.68181818181818177</v>
       </c>
       <c r="G23">
-        <f>VLOOKUP(A23,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" ref="G23:G31" si="22">VLOOKUP(A23,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
       <c r="H23" s="3">
-        <f>D23*F23*G23</f>
-        <v>14.117647058823531</v>
+        <f t="shared" ref="H23:H31" si="23">D23*F23*G23</f>
+        <v>13.636363636363635</v>
       </c>
       <c r="P23" s="3"/>
     </row>
@@ -4434,24 +4434,24 @@
         <v>1</v>
       </c>
       <c r="D24" s="54">
-        <f>VLOOKUP(A24,$M$1:$X$8,6,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="E24">
-        <f>VLOOKUP(A24,$M$1:$X$8,5,FALSE)</f>
-        <v>85</v>
+        <f t="shared" si="21"/>
+        <v>88</v>
       </c>
       <c r="F24" s="4">
-        <f>60/E24*C24</f>
-        <v>0.70588235294117652</v>
+        <f t="shared" ref="F24:F31" si="24">60/E24*C24</f>
+        <v>0.68181818181818177</v>
       </c>
       <c r="G24">
-        <f>VLOOKUP(A24,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>20</v>
       </c>
       <c r="H24" s="3">
-        <f>D24*F24*G24</f>
-        <v>14.117647058823531</v>
+        <f t="shared" si="23"/>
+        <v>13.636363636363635</v>
       </c>
       <c r="P24" s="3"/>
     </row>
@@ -4466,23 +4466,23 @@
         <v>1</v>
       </c>
       <c r="D25" s="54">
-        <f>VLOOKUP(A25,$M$1:$X$8,6,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="E25">
-        <f>VLOOKUP(A25,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>55</v>
       </c>
       <c r="F25" s="4">
-        <f>60/E25*C25</f>
+        <f t="shared" si="24"/>
         <v>1.0909090909090908</v>
       </c>
       <c r="G25">
-        <f>VLOOKUP(A25,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>20</v>
       </c>
       <c r="H25" s="3">
-        <f>D25*F25*G25</f>
+        <f t="shared" si="23"/>
         <v>43.636363636363633</v>
       </c>
       <c r="I25" s="52"/>
@@ -4500,23 +4500,23 @@
         <v>1</v>
       </c>
       <c r="D26" s="54">
-        <f>VLOOKUP(A26,$M$1:$X$8,6,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="E26">
-        <f>VLOOKUP(A26,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>55</v>
       </c>
       <c r="F26" s="4">
-        <f>60/E26*C26</f>
+        <f t="shared" si="24"/>
         <v>1.0909090909090908</v>
       </c>
       <c r="G26">
-        <f>VLOOKUP(A26,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>20</v>
       </c>
       <c r="H26" s="3">
-        <f>D26*F26*G26</f>
+        <f t="shared" si="23"/>
         <v>43.636363636363633</v>
       </c>
     </row>
@@ -4531,23 +4531,23 @@
         <v>1</v>
       </c>
       <c r="D27" s="54">
-        <f>VLOOKUP(A27,$M$1:$X$8,6,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="E27">
-        <f>VLOOKUP(A27,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>80</v>
       </c>
       <c r="F27" s="4">
-        <f>60/E27*C27</f>
+        <f t="shared" si="24"/>
         <v>0.75</v>
       </c>
       <c r="G27">
-        <f>VLOOKUP(A27,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>20</v>
       </c>
       <c r="H27" s="3">
-        <f>D27*F27*G27</f>
+        <f t="shared" si="23"/>
         <v>30</v>
       </c>
     </row>
@@ -4562,23 +4562,23 @@
         <v>1</v>
       </c>
       <c r="D28" s="54">
-        <f>VLOOKUP(A28,$M$1:$X$8,6,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="E28">
-        <f>VLOOKUP(A28,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>80</v>
       </c>
       <c r="F28" s="4">
-        <f>60/E28*C28</f>
+        <f t="shared" si="24"/>
         <v>0.75</v>
       </c>
       <c r="G28">
-        <f>VLOOKUP(A28,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>20</v>
       </c>
       <c r="H28" s="3">
-        <f>D28*F28*G28</f>
+        <f t="shared" si="23"/>
         <v>30</v>
       </c>
     </row>
@@ -4593,23 +4593,23 @@
         <v>1</v>
       </c>
       <c r="D29" s="54">
-        <f>VLOOKUP(A29,$M$1:$X$8,6,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="E29">
-        <f>VLOOKUP(A29,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>80</v>
       </c>
       <c r="F29" s="4">
-        <f>60/E29*C29</f>
+        <f t="shared" si="24"/>
         <v>0.75</v>
       </c>
       <c r="G29">
-        <f>VLOOKUP(A29,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>20</v>
       </c>
       <c r="H29" s="3">
-        <f>D29*F29*G29</f>
+        <f t="shared" si="23"/>
         <v>30</v>
       </c>
     </row>
@@ -4624,23 +4624,23 @@
         <v>1</v>
       </c>
       <c r="D30" s="54">
-        <f>VLOOKUP(A30,$M$1:$X$8,6,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="E30">
-        <f>VLOOKUP(A30,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>80</v>
       </c>
       <c r="F30" s="4">
-        <f>60/E30*C30</f>
+        <f t="shared" si="24"/>
         <v>0.75</v>
       </c>
       <c r="G30">
-        <f>VLOOKUP(A30,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>20</v>
       </c>
       <c r="H30" s="3">
-        <f>D30*F30*G30</f>
+        <f t="shared" si="23"/>
         <v>30</v>
       </c>
       <c r="P30" s="3"/>
@@ -4656,23 +4656,23 @@
         <v>1</v>
       </c>
       <c r="D31" s="55">
-        <f>VLOOKUP(A31,$M$1:$X$8,6,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="E31">
-        <f>VLOOKUP(A31,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>80</v>
       </c>
       <c r="F31" s="4">
-        <f>60/E31*C31</f>
+        <f t="shared" si="24"/>
         <v>0.75</v>
       </c>
       <c r="G31">
-        <f>VLOOKUP(A31,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>20</v>
       </c>
       <c r="H31" s="3">
-        <f>D31*F31*G31</f>
+        <f t="shared" si="23"/>
         <v>30</v>
       </c>
       <c r="P31" s="3"/>
@@ -4757,11 +4757,11 @@
       </c>
       <c r="C55" s="19">
         <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A55)*3</f>
-        <v>520.14397367338552</v>
+        <v>518.70012340600579</v>
       </c>
       <c r="D55" s="65">
         <f>1-B55/C55</f>
-        <v>2.7679581168404965E-4</v>
+        <v>-2.5060271539143475E-3</v>
       </c>
       <c r="E55" s="20"/>
       <c r="F55" s="37" t="str">
@@ -4770,7 +4770,7 @@
       </c>
       <c r="G55" s="16">
         <f>C55/3</f>
-        <v>173.38132455779518</v>
+        <v>172.90004113533527</v>
       </c>
       <c r="H55" s="58">
         <f>VLOOKUP(F55,SummaryReport!A:J,8,FALSE)</f>
@@ -4778,7 +4778,7 @@
       </c>
       <c r="I55" s="6">
         <f>1-G55/H55</f>
-        <v>2.0444494023756032E-2</v>
+        <v>2.3163609404885488E-2</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -4790,11 +4790,11 @@
       </c>
       <c r="C56" s="19">
         <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A56)*3</f>
-        <v>318.6466474701769</v>
+        <v>317.20279720279723</v>
       </c>
       <c r="D56" s="65">
         <f>1-B56/C56</f>
-        <v>-4.2471889805455465E-3</v>
+        <v>-8.818342151675429E-3</v>
       </c>
       <c r="E56" s="20"/>
       <c r="F56" s="37" t="str">
@@ -4802,16 +4802,16 @@
         <v>Login</v>
       </c>
       <c r="G56" s="16">
-        <f t="shared" ref="G56:G65" si="15">C56/3</f>
-        <v>106.21554915672563</v>
+        <f t="shared" ref="G56:G65" si="25">C56/3</f>
+        <v>105.73426573426575</v>
       </c>
       <c r="H56" s="58">
         <f>VLOOKUP(F56,SummaryReport!A:J,8,FALSE)</f>
         <v>144</v>
       </c>
       <c r="I56" s="6">
-        <f t="shared" ref="I56:I65" si="16">1-G56/H56</f>
-        <v>0.26239201974496096</v>
+        <f t="shared" ref="I56:I65" si="26">1-G56/H56</f>
+        <v>0.26573426573426562</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
@@ -4822,7 +4822,7 @@
         <v>55</v>
       </c>
       <c r="C57" s="19">
-        <f t="shared" ref="C57:C64" si="17">GETPIVOTDATA("Итого",$I$1,"transaction rq",A57)*3</f>
+        <f t="shared" ref="C57:C64" si="27">GETPIVOTDATA("Итого",$I$1,"transaction rq",A57)*3</f>
         <v>55.384615384615387</v>
       </c>
       <c r="D57" s="65">
@@ -4835,7 +4835,7 @@
         <v>CheckoutUserData</v>
       </c>
       <c r="G57" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>18.461538461538463</v>
       </c>
       <c r="H57" s="58" t="e">
@@ -4843,7 +4843,7 @@
         <v>#N/A</v>
       </c>
       <c r="I57" s="6" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -4855,12 +4855,12 @@
         <v>190</v>
       </c>
       <c r="C58" s="19">
-        <f t="shared" si="17"/>
-        <v>187.737556561086</v>
+        <f t="shared" si="27"/>
+        <v>186.29370629370629</v>
       </c>
       <c r="D58" s="65">
-        <f t="shared" ref="D58:D65" si="18">1-B58/C58</f>
-        <v>-1.205109664979509E-2</v>
+        <f t="shared" ref="D58:D65" si="28">1-B58/C58</f>
+        <v>-1.9894894894894932E-2</v>
       </c>
       <c r="E58" s="20"/>
       <c r="F58" s="37" t="str">
@@ -4868,15 +4868,15 @@
         <v>AddToCart</v>
       </c>
       <c r="G58" s="16">
-        <f t="shared" si="15"/>
-        <v>62.579185520361996</v>
+        <f t="shared" si="25"/>
+        <v>62.0979020979021</v>
       </c>
       <c r="H58" s="58" t="e">
         <f>VLOOKUP(F58,SummaryReport!A:J,8,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I58" s="6" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -4888,12 +4888,12 @@
         <v>450</v>
       </c>
       <c r="C59" s="19">
-        <f t="shared" si="17"/>
-        <v>449.55573837926784</v>
+        <f t="shared" si="27"/>
+        <v>448.11188811188816</v>
       </c>
       <c r="D59" s="65">
-        <f t="shared" si="18"/>
-        <v>-9.8822366795681127E-4</v>
+        <f t="shared" si="28"/>
+        <v>-4.2134831460673983E-3</v>
       </c>
       <c r="E59" s="20"/>
       <c r="F59" s="37" t="str">
@@ -4901,15 +4901,15 @@
         <v>ChooseCategory</v>
       </c>
       <c r="G59" s="16">
-        <f t="shared" si="15"/>
-        <v>149.85191279308927</v>
+        <f t="shared" si="25"/>
+        <v>149.37062937062939</v>
       </c>
       <c r="H59" s="58" t="e">
         <f>VLOOKUP(F59,SummaryReport!A:J,8,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I59" s="6" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -4921,11 +4921,11 @@
         <v>55</v>
       </c>
       <c r="C60" s="19">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>55.384615384615387</v>
       </c>
       <c r="D60" s="65">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>6.9444444444445308E-3</v>
       </c>
       <c r="E60" s="20"/>
@@ -4934,7 +4934,7 @@
         <v>Payment</v>
       </c>
       <c r="G60" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>18.461538461538463</v>
       </c>
       <c r="H60" s="58" t="e">
@@ -4942,7 +4942,7 @@
         <v>#N/A</v>
       </c>
       <c r="I60" s="6" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -4951,15 +4951,15 @@
         <v>99</v>
       </c>
       <c r="B61" s="33">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C61" s="19">
-        <f t="shared" si="17"/>
-        <v>97.737556561085995</v>
+        <f t="shared" si="27"/>
+        <v>96.293706293706293</v>
       </c>
       <c r="D61" s="65">
-        <f t="shared" si="18"/>
-        <v>-2.3148148148147918E-2</v>
+        <f t="shared" si="28"/>
+        <v>1.3435003631082076E-2</v>
       </c>
       <c r="E61" s="20"/>
       <c r="F61" s="37" t="str">
@@ -4967,15 +4967,15 @@
         <v>OpenCart</v>
       </c>
       <c r="G61" s="16">
-        <f t="shared" si="15"/>
-        <v>32.579185520361996</v>
+        <f t="shared" si="25"/>
+        <v>32.0979020979021</v>
       </c>
       <c r="H61" s="58" t="e">
         <f>VLOOKUP(F61,SummaryReport!A:J,8,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I61" s="6" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -4984,15 +4984,15 @@
         <v>105</v>
       </c>
       <c r="B62" s="33">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C62" s="19">
-        <f t="shared" si="17"/>
-        <v>42.352941176470594</v>
+        <f t="shared" si="27"/>
+        <v>40.909090909090907</v>
       </c>
       <c r="D62" s="65">
-        <f t="shared" si="18"/>
-        <v>8.3333333333335258E-3</v>
+        <f t="shared" si="28"/>
+        <v>2.2222222222222143E-2</v>
       </c>
       <c r="E62" s="20"/>
       <c r="F62" s="37" t="str">
@@ -5000,8 +5000,8 @@
         <v>DeleteProduct</v>
       </c>
       <c r="G62" s="16">
-        <f t="shared" si="15"/>
-        <v>14.117647058823531</v>
+        <f t="shared" si="25"/>
+        <v>13.636363636363635</v>
       </c>
       <c r="H62" s="58" t="e">
         <f>VLOOKUP(F62,SummaryReport!A:J,8,FALSE)</f>
@@ -5024,7 +5024,7 @@
         <v>201.49732620320853</v>
       </c>
       <c r="D63" s="65">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>7.4309978768576368E-3</v>
       </c>
       <c r="E63" s="20"/>
@@ -5033,7 +5033,7 @@
         <v>Logout</v>
       </c>
       <c r="G63" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>67.16577540106951</v>
       </c>
       <c r="H63" s="58">
@@ -5041,7 +5041,7 @@
         <v>106</v>
       </c>
       <c r="I63" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0.3663606094238725</v>
       </c>
     </row>
@@ -5053,11 +5053,11 @@
         <v>70</v>
       </c>
       <c r="C64" s="19">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>70.588235294117652</v>
       </c>
       <c r="D64" s="65">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>8.3333333333334147E-3</v>
       </c>
       <c r="E64" s="20"/>
@@ -5066,7 +5066,7 @@
         <v>OpenRegistrationPage</v>
       </c>
       <c r="G64" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>23.529411764705884</v>
       </c>
       <c r="H64" s="58">
@@ -5074,7 +5074,7 @@
         <v>33</v>
       </c>
       <c r="I64" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0.28698752228163993</v>
       </c>
     </row>
@@ -5090,7 +5090,7 @@
         <v>70.588235294117652</v>
       </c>
       <c r="D65" s="65">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>8.3333333333334147E-3</v>
       </c>
       <c r="E65" s="20"/>
@@ -5099,7 +5099,7 @@
         <v>UserRegistered</v>
       </c>
       <c r="G65" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>23.529411764705884</v>
       </c>
       <c r="H65" s="58">
@@ -5107,7 +5107,7 @@
         <v>33</v>
       </c>
       <c r="I65" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0.28698752228163993</v>
       </c>
     </row>
@@ -5123,7 +5123,7 @@
         <v>130.90909090909091</v>
       </c>
       <c r="D66" s="65">
-        <f t="shared" ref="D66" si="19">1-B66/C66</f>
+        <f t="shared" ref="D66" si="29">1-B66/C66</f>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="F66" s="37" t="str">
@@ -5131,7 +5131,7 @@
         <v>SeachProduct</v>
       </c>
       <c r="G66" s="16">
-        <f t="shared" ref="G66" si="20">C66/3</f>
+        <f t="shared" ref="G66" si="30">C66/3</f>
         <v>43.636363636363633</v>
       </c>
       <c r="H66" s="58" t="e">
@@ -5139,7 +5139,7 @@
         <v>#N/A</v>
       </c>
       <c r="I66" s="6" t="e">
-        <f t="shared" ref="I66" si="21">1-G66/H66</f>
+        <f t="shared" ref="I66" si="31">1-G66/H66</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5152,11 +5152,11 @@
       </c>
       <c r="C67" s="19">
         <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A67)*3</f>
-        <v>187.737556561086</v>
+        <v>186.29370629370629</v>
       </c>
       <c r="D67" s="65">
         <f>1-B67/C67</f>
-        <v>-1.205109664979509E-2</v>
+        <v>-1.9894894894894932E-2</v>
       </c>
       <c r="E67" s="20"/>
       <c r="F67" s="37" t="str">
@@ -5165,7 +5165,7 @@
       </c>
       <c r="G67" s="16">
         <f>C67/3</f>
-        <v>62.579185520361996</v>
+        <v>62.0979020979021</v>
       </c>
       <c r="H67" s="58" t="e">
         <f>VLOOKUP(F67,SummaryReport!A:J,8,FALSE)</f>
@@ -5182,19 +5182,19 @@
       </c>
       <c r="B68" s="34">
         <f>SUM(B55:B67)</f>
-        <v>2392</v>
+        <v>2385</v>
       </c>
       <c r="C68" s="35">
         <f>SUM(C55:C67)</f>
-        <v>2388.2640888523242</v>
+        <v>2378.1571369806666</v>
       </c>
       <c r="D68" s="66">
         <f>1-B68/C68</f>
-        <v>-1.5642789108263333E-3</v>
+        <v>-2.8773805199522329E-3</v>
       </c>
       <c r="G68" s="3">
         <f>SUM(G55:G67)</f>
-        <v>796.08802961744129</v>
+        <v>792.71904566022204</v>
       </c>
       <c r="H68" s="3" t="e">
         <f>SUM(H55:H67)</f>

--- a/Документы/AdvantageShoping_Профиль.xlsx
+++ b/Документы/AdvantageShoping_Профиль.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Programs\Itogovoe\Документы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DF9B24-49F2-4030-A3C5-4DE6B6B25175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51700620-40D6-42C3-AAAA-1CEC02F7B752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2213,7 +2213,35 @@
     <cellStyle name="Текст предупреждения" xfId="15" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="37">
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2456,7 +2484,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Артем Клейменов" refreshedDate="45669.746048263885" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="34" xr:uid="{15D61AD1-E1C1-4DCC-AFD6-4E9D9EE3EDD2}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Артем Клейменов" refreshedDate="45670.869252314813" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="34" xr:uid="{15D61AD1-E1C1-4DCC-AFD6-4E9D9EE3EDD2}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H35" sheet="Автоматизированный расчет"/>
   </cacheSource>
@@ -2962,28 +2990,28 @@
     <dataField name="Сумма по полю Итого" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="28">
+    <format dxfId="36">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="35">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="34">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="33">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="32">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="31">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="30">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -3270,8 +3298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7622,82 +7650,82 @@
     <mergeCell ref="E17:J17"/>
   </mergeCells>
   <conditionalFormatting sqref="I4:I15">
-    <cfRule type="cellIs" dxfId="20" priority="76" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="76" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I31">
-    <cfRule type="cellIs" dxfId="19" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:I47">
-    <cfRule type="cellIs" dxfId="18" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="21" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52:I63">
-    <cfRule type="cellIs" dxfId="17" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="14" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I68:I79">
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="7" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J15">
-    <cfRule type="cellIs" dxfId="15" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="29" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="70" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="22" priority="70" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",J4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:J31">
-    <cfRule type="cellIs" dxfId="13" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="23" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="20" priority="23" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",J20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36:J47">
-    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="16" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="18" priority="16" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",J36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J52:J63">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",J52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J68:J79">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",J68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7:L10">
-    <cfRule type="cellIs" dxfId="5" priority="79" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="79" operator="lessThan">
       <formula>-5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:L24 Q21:Q24 L31:L32 Q31:Q32">
-    <cfRule type="cellIs" dxfId="4" priority="67" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="67" operator="lessThan">
       <formula>-5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L40 O40 L46 O46">
-    <cfRule type="cellIs" dxfId="3" priority="60" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="60" operator="lessThan">
       <formula>-5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8035,15 +8063,15 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E15">
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F15">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",F4)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Документы/AdvantageShoping_Профиль.xlsx
+++ b/Документы/AdvantageShoping_Профиль.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Programs\Itogovoe\Документы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51700620-40D6-42C3-AAAA-1CEC02F7B752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FF3C21-07BB-4B4A-8B3D-AB784D3DF21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Автоматизированный расчет" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -474,7 +474,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="105">
   <si>
     <t>Вход в систему</t>
   </si>
@@ -662,12 +662,6 @@
     <t>Общий итог</t>
   </si>
   <si>
-    <t>BuyingTicket</t>
-  </si>
-  <si>
-    <t>DeleteTicket</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
@@ -677,43 +671,10 @@
     <t>OpenLandingPage</t>
   </si>
   <si>
-    <t>OpenPage_FindFlight</t>
-  </si>
-  <si>
     <t>OpenRegistrationPage</t>
   </si>
   <si>
-    <t>press continue</t>
-  </si>
-  <si>
-    <t>SubmitFlight</t>
-  </si>
-  <si>
-    <t>UC1_LoginLogout</t>
-  </si>
-  <si>
-    <t>UC2_SearchTicket</t>
-  </si>
-  <si>
-    <t>UC3_BuyingTicket</t>
-  </si>
-  <si>
-    <t>UC4_ViewTicketList</t>
-  </si>
-  <si>
-    <t>UC5_DeleteTicket</t>
-  </si>
-  <si>
-    <t>UC7_RandomUserRegistrtion</t>
-  </si>
-  <si>
-    <t>СhooseDepartureTime</t>
-  </si>
-  <si>
     <t>UserRegistered</t>
-  </si>
-  <si>
-    <t>ViewTicketList</t>
   </si>
   <si>
     <t>Фактическая интенсивность в тесте</t>
@@ -838,14 +799,29 @@
     <t xml:space="preserve">Поиск товара </t>
   </si>
   <si>
-    <t>(пусто)</t>
+    <t>UC1_RandomUserRegistration</t>
+  </si>
+  <si>
+    <t>UC2_LoginLogout</t>
+  </si>
+  <si>
+    <t>UC4_AddToCart</t>
+  </si>
+  <si>
+    <t>UC5_BuyingProduct</t>
+  </si>
+  <si>
+    <t>UC6_DeleteProduct</t>
+  </si>
+  <si>
+    <t>UC7_SeachProduct</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1123,13 +1099,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1978,7 +1947,7 @@
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2079,28 +2048,26 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="38" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="37" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="42" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="42" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="43" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2112,8 +2079,8 @@
     <xf numFmtId="0" fontId="2" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2130,6 +2097,7 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="80">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2213,32 +2181,124 @@
     <cellStyle name="Текст предупреждения" xfId="15" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="40">
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2438,32 +2498,25 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <numFmt numFmtId="168" formatCode="0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
+      <numFmt numFmtId="167" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="0.0000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
+      <numFmt numFmtId="165" formatCode="0.00000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
+      <numFmt numFmtId="164" formatCode="0.000000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2484,16 +2537,16 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Артем Клейменов" refreshedDate="45670.869252314813" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="34" xr:uid="{15D61AD1-E1C1-4DCC-AFD6-4E9D9EE3EDD2}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Артем Клейменов" refreshedDate="45672.670376967595" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="30" xr:uid="{0BB46A07-82A4-4AE1-BD7F-6A0E54336BAD}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:H35" sheet="Автоматизированный расчет"/>
+    <worksheetSource ref="A1:H31" sheet="Автоматизированный расчет"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="Script name" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems/>
     </cacheField>
     <cacheField name="transaction rq" numFmtId="0">
-      <sharedItems containsBlank="1" count="24">
+      <sharedItems count="13">
         <s v="Главная страница"/>
         <s v="Вход в систему"/>
         <s v="Выбор категории товаров"/>
@@ -2507,36 +2560,25 @@
         <s v="Регистрация пользователя"/>
         <s v="Удаление продукта"/>
         <s v="Поиск продукта"/>
-        <m/>
-        <s v="Главная Welcome страница" u="1"/>
-        <s v="Переход на страницу поиска билетов" u="1"/>
-        <s v="Заполнение полей для поиска билета " u="1"/>
-        <s v="Выбор рейса из найденных " u="1"/>
-        <s v="Оплата билета" u="1"/>
-        <s v="Просмотр квитанций" u="1"/>
-        <s v="Перход на страницу регистрации" u="1"/>
-        <s v="Заполнение полей регистарции" u="1"/>
-        <s v="Переход на следуюущий эран после регистарции" u="1"/>
-        <s v="Отмена бронирования " u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="count" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="2"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
     </cacheField>
     <cacheField name="VU" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="2"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="2"/>
     </cacheField>
     <cacheField name="pacing" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="51" maxValue="130"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="51" maxValue="130"/>
     </cacheField>
-    <cacheField name="одним пользователем в минуту" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.46153846153846156" maxValue="2.1818181818181817"/>
+    <cacheField name="одним пользователем в минуту" numFmtId="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.46153846153846156" maxValue="1.1764705882352942"/>
     </cacheField>
     <cacheField name="Длительность ступени" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="20" maxValue="20"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="20" maxValue="20"/>
     </cacheField>
-    <cacheField name="Итого" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="13.636363636363635" maxValue="87.272727272727266"/>
+    <cacheField name="Итого" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="13.636363636363635" maxValue="43.636363636363633"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -2548,7 +2590,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="34">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="30">
   <r>
     <s v="Покупка товара"/>
     <x v="0"/>
@@ -2652,12 +2694,12 @@
   <r>
     <s v="Логин"/>
     <x v="2"/>
-    <n v="2"/>
+    <n v="1"/>
     <n v="2"/>
     <n v="55"/>
-    <n v="2.1818181818181817"/>
+    <n v="1.0909090909090908"/>
     <n v="20"/>
-    <n v="87.272727272727266"/>
+    <n v="43.636363636363633"/>
   </r>
   <r>
     <s v="Логин"/>
@@ -2849,68 +2891,18 @@
     <n v="20"/>
     <n v="30"/>
   </r>
-  <r>
-    <m/>
-    <x v="13"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="13"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="13"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="13"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9867D804-B564-4097-BC7C-27756DD55E4E}" name="Сводная таблица2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I1:J16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB65BE3F-A2D6-4025-A342-1F950D6F6F4E}" name="Сводная таблица2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I1:J15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="25">
+      <items count="14">
         <item x="1"/>
-        <item m="1" x="17"/>
         <item x="8"/>
-        <item m="1" x="16"/>
-        <item m="1" x="18"/>
-        <item m="1" x="23"/>
-        <item m="1" x="19"/>
-        <item m="1" x="14"/>
-        <item m="1" x="20"/>
-        <item m="1" x="21"/>
-        <item m="1" x="22"/>
-        <item m="1" x="15"/>
         <item x="0"/>
         <item x="2"/>
         <item x="3"/>
@@ -2922,7 +2914,6 @@
         <item x="10"/>
         <item x="11"/>
         <item x="12"/>
-        <item x="13"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2936,48 +2927,45 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="15">
+  <rowItems count="14">
     <i>
       <x/>
+    </i>
+    <i>
+      <x v="1"/>
     </i>
     <i>
       <x v="2"/>
     </i>
     <i>
-      <x v="12"/>
+      <x v="3"/>
     </i>
     <i>
-      <x v="13"/>
+      <x v="4"/>
     </i>
     <i>
-      <x v="14"/>
+      <x v="5"/>
     </i>
     <i>
-      <x v="15"/>
+      <x v="6"/>
     </i>
     <i>
-      <x v="16"/>
+      <x v="7"/>
     </i>
     <i>
-      <x v="17"/>
+      <x v="8"/>
     </i>
     <i>
-      <x v="18"/>
+      <x v="9"/>
     </i>
     <i>
-      <x v="19"/>
+      <x v="10"/>
     </i>
     <i>
-      <x v="20"/>
+      <x v="11"/>
     </i>
     <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
+      <x v="12"/>
     </i>
     <i t="grand">
       <x/>
@@ -2989,7 +2977,16 @@
   <dataFields count="1">
     <dataField name="Сумма по полю Итого" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
-  <formats count="8">
+  <formats count="7">
+    <format dxfId="39">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="38">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="37">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
     <format dxfId="36">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
@@ -3001,24 +2998,6 @@
     </format>
     <format dxfId="33">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="32">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="31">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="30">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="29">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="1">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -3298,8 +3277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3393,11 +3372,11 @@
       </c>
     </row>
     <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="82" t="s">
-        <v>109</v>
+      <c r="A2" s="80" t="s">
+        <v>96</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C2" s="53">
         <v>1</v>
@@ -3407,19 +3386,19 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E11" si="0">VLOOKUP(A2,$M$1:$X$8,5,FALSE)</f>
+        <f>VLOOKUP(A2,$M$1:$X$8,5,FALSE)</f>
         <v>130</v>
       </c>
       <c r="F2" s="4">
-        <f t="shared" ref="F2:F11" si="1">60/E2*C2</f>
+        <f>60/E2*C2</f>
         <v>0.46153846153846156</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G11" si="2">VLOOKUP(A2,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" ref="G2:G11" si="0">VLOOKUP(A2,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
       <c r="H2" s="3">
-        <f t="shared" ref="H2:H11" si="3">D2*F2*G2</f>
+        <f t="shared" ref="H2:H11" si="1">D2*F2*G2</f>
         <v>18.461538461538463</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -3430,7 +3409,7 @@
       </c>
       <c r="L2" s="61"/>
       <c r="M2" s="64" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="N2" s="5">
         <v>30</v>
@@ -3453,13 +3432,13 @@
         <v>0.2</v>
       </c>
       <c r="T2" s="40">
-        <f t="shared" ref="T2:T7" si="4">60/(Q2)</f>
+        <f t="shared" ref="T2:T7" si="2">60/(Q2)</f>
         <v>0.46153846153846156</v>
       </c>
-      <c r="U2" s="87">
+      <c r="U2" s="85">
         <v>20</v>
       </c>
-      <c r="V2" s="88">
+      <c r="V2" s="86">
         <f>ROUND(R2*T2*U2,0)</f>
         <v>18</v>
       </c>
@@ -3476,8 +3455,8 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="83" t="s">
-        <v>109</v>
+      <c r="A3" s="81" t="s">
+        <v>96</v>
       </c>
       <c r="B3" s="37" t="s">
         <v>0</v>
@@ -3490,19 +3469,19 @@
         <v>2</v>
       </c>
       <c r="E3">
+        <f t="shared" ref="E3:E11" si="3">VLOOKUP(A3,$M$1:$X$8,5,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:F11" si="4">60/E3*C3</f>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="G3">
         <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="F3" s="4">
+        <v>20</v>
+      </c>
+      <c r="H3" s="3">
         <f t="shared" si="1"/>
-        <v>0.46153846153846156</v>
-      </c>
-      <c r="G3">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="H3" s="3">
-        <f t="shared" si="3"/>
         <v>18.461538461538463</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -3513,7 +3492,7 @@
       </c>
       <c r="L3" s="62"/>
       <c r="M3" s="64" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="N3" s="5">
         <v>20</v>
@@ -3536,13 +3515,13 @@
         <v>0.1</v>
       </c>
       <c r="T3" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.68181818181818177</v>
       </c>
-      <c r="U3" s="87">
+      <c r="U3" s="85">
         <v>20</v>
       </c>
-      <c r="V3" s="88">
+      <c r="V3" s="86">
         <f>ROUND(R3*T3*U3,0)</f>
         <v>14</v>
       </c>
@@ -3556,11 +3535,11 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="83" t="s">
-        <v>109</v>
+      <c r="A4" s="81" t="s">
+        <v>96</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C4" s="53">
         <v>1</v>
@@ -3570,23 +3549,23 @@
         <v>2</v>
       </c>
       <c r="E4">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+      <c r="F4" s="4">
+        <f>60/E4*C4</f>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="G4">
         <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="F4" s="4">
+        <v>20</v>
+      </c>
+      <c r="H4" s="3">
         <f t="shared" si="1"/>
-        <v>0.46153846153846156</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="H4" s="3">
-        <f t="shared" si="3"/>
         <v>18.461538461538463</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J4" s="3">
         <v>172.90004113533524</v>
@@ -3616,13 +3595,13 @@
         <v>0.1</v>
       </c>
       <c r="T4" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.1764705882352942</v>
       </c>
-      <c r="U4" s="87">
+      <c r="U4" s="85">
         <v>20</v>
       </c>
-      <c r="V4" s="88">
+      <c r="V4" s="86">
         <f>ROUND(R4*T4*U4,0)</f>
         <v>24</v>
       </c>
@@ -3636,11 +3615,11 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="83" t="s">
-        <v>109</v>
+      <c r="A5" s="81" t="s">
+        <v>96</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C5" s="53">
         <v>1</v>
@@ -3650,40 +3629,40 @@
         <v>2</v>
       </c>
       <c r="E5">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+      <c r="F5" s="4">
+        <f>60/E5*C5</f>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="F5" s="4">
+        <v>20</v>
+      </c>
+      <c r="H5" s="3">
         <f t="shared" si="1"/>
-        <v>0.46153846153846156</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="H5" s="3">
-        <f t="shared" si="3"/>
         <v>18.461538461538463</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="J5" s="3">
-        <v>149.37062937062939</v>
+        <v>105.73426573426573</v>
       </c>
       <c r="L5" s="61"/>
       <c r="M5" s="24" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="N5" s="5">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O5" s="43">
         <v>5</v>
       </c>
       <c r="P5" s="44">
         <f>N5+O5</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="45">
         <v>55</v>
@@ -3696,13 +3675,13 @@
         <v>0.2</v>
       </c>
       <c r="T5" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.0909090909090908</v>
       </c>
-      <c r="U5" s="87">
+      <c r="U5" s="85">
         <v>20</v>
       </c>
-      <c r="V5" s="88">
+      <c r="V5" s="86">
         <f>ROUND(R5*T5*U5,0)</f>
         <v>44</v>
       </c>
@@ -3716,11 +3695,11 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="83" t="s">
-        <v>109</v>
+      <c r="A6" s="81" t="s">
+        <v>96</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C6" s="53">
         <v>1</v>
@@ -3730,30 +3709,30 @@
         <v>2</v>
       </c>
       <c r="E6">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+      <c r="F6" s="4">
+        <f>60/E6*C6</f>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="F6" s="4">
+        <v>20</v>
+      </c>
+      <c r="H6" s="3">
         <f t="shared" si="1"/>
-        <v>0.46153846153846156</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="H6" s="3">
-        <f t="shared" si="3"/>
         <v>18.461538461538463</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="J6" s="3">
         <v>62.0979020979021</v>
       </c>
       <c r="L6" s="61"/>
       <c r="M6" s="24" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="N6" s="5">
         <v>18</v>
@@ -3776,13 +3755,13 @@
         <v>0.2</v>
       </c>
       <c r="T6" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="U6" s="87">
+      <c r="U6" s="85">
         <v>20</v>
       </c>
-      <c r="V6" s="88">
+      <c r="V6" s="86">
         <f>ROUND(R6*T6*U6,0)</f>
         <v>30</v>
       </c>
@@ -3796,11 +3775,11 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="83" t="s">
-        <v>109</v>
+      <c r="A7" s="81" t="s">
+        <v>96</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C7" s="53">
         <v>1</v>
@@ -3810,23 +3789,23 @@
         <v>2</v>
       </c>
       <c r="E7">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+      <c r="F7" s="4">
+        <f>60/E7*C7</f>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="F7" s="4">
+        <v>20</v>
+      </c>
+      <c r="H7" s="3">
         <f t="shared" si="1"/>
-        <v>0.46153846153846156</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="H7" s="3">
-        <f t="shared" si="3"/>
         <v>18.461538461538463</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="J7" s="3">
         <v>62.0979020979021</v>
@@ -3856,13 +3835,13 @@
         <v>0.2</v>
       </c>
       <c r="T7" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.0909090909090908</v>
       </c>
-      <c r="U7" s="87">
+      <c r="U7" s="85">
         <v>20</v>
       </c>
-      <c r="V7" s="88">
+      <c r="V7" s="86">
         <f>SUM(V2:V6)</f>
         <v>130</v>
       </c>
@@ -3876,11 +3855,11 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="83" t="s">
-        <v>109</v>
+      <c r="A8" s="81" t="s">
+        <v>96</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C8" s="53">
         <v>1</v>
@@ -3890,23 +3869,23 @@
         <v>2</v>
       </c>
       <c r="E8">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+      <c r="F8" s="4">
+        <f>60/E8*C8</f>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="F8" s="4">
+        <v>20</v>
+      </c>
+      <c r="H8" s="3">
         <f t="shared" si="1"/>
-        <v>0.46153846153846156</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="H8" s="3">
-        <f t="shared" si="3"/>
         <v>18.461538461538463</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="J8" s="3">
         <v>32.0979020979021</v>
@@ -3927,11 +3906,11 @@
       <c r="W8" s="14"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="83" t="s">
-        <v>109</v>
+      <c r="A9" s="81" t="s">
+        <v>96</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C9" s="53">
         <v>1</v>
@@ -3941,34 +3920,34 @@
         <v>2</v>
       </c>
       <c r="E9">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+      <c r="F9" s="4">
+        <f>60/E9*C9</f>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="F9" s="4">
+        <v>20</v>
+      </c>
+      <c r="H9" s="3">
         <f t="shared" si="1"/>
-        <v>0.46153846153846156</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="H9" s="3">
-        <f t="shared" si="3"/>
         <v>18.461538461538463</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="J9" s="3">
         <v>18.461538461538463</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="88" t="s">
         <v>43</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C10" s="53">
         <v>1</v>
@@ -3978,23 +3957,23 @@
         <v>2</v>
       </c>
       <c r="E10">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="F10" s="4">
+        <f>60/E10*C10</f>
+        <v>1.0909090909090908</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="F10" s="4">
+        <v>20</v>
+      </c>
+      <c r="H10" s="3">
         <f t="shared" si="1"/>
-        <v>1.0909090909090908</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="H10" s="3">
-        <f t="shared" si="3"/>
         <v>43.636363636363633</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="J10" s="3">
         <v>18.461538461538463</v>
@@ -4002,7 +3981,7 @@
       <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="87" t="s">
         <v>43</v>
       </c>
       <c r="B11" s="37" t="s">
@@ -4016,23 +3995,23 @@
         <v>2</v>
       </c>
       <c r="E11">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="F11" s="4">
+        <f>60/E11*C11</f>
+        <v>1.0909090909090908</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="F11" s="4">
+        <v>20</v>
+      </c>
+      <c r="H11" s="3">
         <f t="shared" si="1"/>
-        <v>1.0909090909090908</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="H11" s="3">
-        <f t="shared" si="3"/>
         <v>43.636363636363633</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="J11" s="3">
         <v>23.529411764705884</v>
@@ -4040,14 +4019,14 @@
       <c r="P11" s="3"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="91" t="s">
-        <v>94</v>
+      <c r="B12" s="89" t="s">
+        <v>81</v>
       </c>
       <c r="C12" s="53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="55">
         <f t="shared" ref="D12:D19" si="10">VLOOKUP(A12,$M$1:$X$8,6,FALSE)</f>
@@ -4058,19 +4037,19 @@
         <v>55</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" ref="F12:F19" si="12">60/E12*C12</f>
-        <v>2.1818181818181817</v>
+        <f>60/E12*C12</f>
+        <v>1.0909090909090908</v>
       </c>
       <c r="G12">
-        <f t="shared" ref="G12:G19" si="13">VLOOKUP(A12,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" ref="G12:G19" si="12">VLOOKUP(A12,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" ref="H12:H19" si="14">D12*F12*G12</f>
-        <v>87.272727272727266</v>
+        <f t="shared" ref="H12:H19" si="13">D12*F12*G12</f>
+        <v>43.636363636363633</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="J12" s="3">
         <v>23.529411764705884</v>
@@ -4078,7 +4057,7 @@
       <c r="P12" s="3"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="87" t="s">
         <v>43</v>
       </c>
       <c r="B13" s="37" t="s">
@@ -4096,19 +4075,19 @@
         <v>55</v>
       </c>
       <c r="F13" s="4">
+        <f t="shared" ref="F12:F19" si="14">60/E13*C13</f>
+        <v>1.0909090909090908</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="12"/>
-        <v>1.0909090909090908</v>
-      </c>
-      <c r="G13">
+        <v>20</v>
+      </c>
+      <c r="H13" s="3">
         <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-      <c r="H13" s="3">
-        <f t="shared" si="14"/>
         <v>43.636363636363633</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="J13" s="3">
         <v>13.636363636363635</v>
@@ -4116,11 +4095,11 @@
       <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="84" t="s">
+      <c r="A14" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="85" t="s">
-        <v>90</v>
+      <c r="B14" s="83" t="s">
+        <v>77</v>
       </c>
       <c r="C14" s="53">
         <v>1</v>
@@ -4134,19 +4113,19 @@
         <v>51</v>
       </c>
       <c r="F14" s="4">
+        <f t="shared" si="14"/>
+        <v>1.1764705882352942</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="12"/>
-        <v>1.1764705882352942</v>
-      </c>
-      <c r="G14">
+        <v>20</v>
+      </c>
+      <c r="H14" s="3">
         <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-      <c r="H14" s="3">
-        <f t="shared" si="14"/>
         <v>23.529411764705884</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="J14" s="3">
         <v>43.636363636363633</v>
@@ -4158,7 +4137,7 @@
         <v>38</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C15" s="53">
         <v>1</v>
@@ -4172,29 +4151,31 @@
         <v>51</v>
       </c>
       <c r="F15" s="4">
+        <f t="shared" si="14"/>
+        <v>1.1764705882352942</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="12"/>
-        <v>1.1764705882352942</v>
-      </c>
-      <c r="G15">
+        <v>20</v>
+      </c>
+      <c r="H15" s="3">
         <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-      <c r="H15" s="3">
-        <f t="shared" si="14"/>
         <v>23.529411764705884</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J15" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="J15" s="3">
+        <v>749.0826820238583</v>
+      </c>
       <c r="P15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="86" t="s">
+      <c r="A16" s="84" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C16" s="53">
         <v>1</v>
@@ -4208,27 +4189,21 @@
         <v>51</v>
       </c>
       <c r="F16" s="4">
+        <f t="shared" si="14"/>
+        <v>1.1764705882352942</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="12"/>
-        <v>1.1764705882352942</v>
-      </c>
-      <c r="G16">
+        <v>20</v>
+      </c>
+      <c r="H16" s="3">
         <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-      <c r="H16" s="3">
-        <f t="shared" si="14"/>
         <v>23.529411764705884</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J16" s="3">
-        <v>792.71904566022204</v>
-      </c>
       <c r="P16" s="3"/>
     </row>
     <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="86" t="s">
+      <c r="A17" s="84" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="37" t="s">
@@ -4246,24 +4221,24 @@
         <v>51</v>
       </c>
       <c r="F17" s="4">
+        <f t="shared" si="14"/>
+        <v>1.1764705882352942</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="12"/>
-        <v>1.1764705882352942</v>
-      </c>
-      <c r="G17">
+        <v>20</v>
+      </c>
+      <c r="H17" s="3">
         <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-      <c r="H17" s="3">
-        <f t="shared" si="14"/>
         <v>23.529411764705884</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="83" t="s">
-        <v>110</v>
+      <c r="A18" s="81" t="s">
+        <v>97</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C18" s="53">
         <v>1</v>
@@ -4277,15 +4252,15 @@
         <v>88</v>
       </c>
       <c r="F18" s="4">
+        <f t="shared" si="14"/>
+        <v>0.68181818181818177</v>
+      </c>
+      <c r="G18">
         <f t="shared" si="12"/>
-        <v>0.68181818181818177</v>
-      </c>
-      <c r="G18">
+        <v>20</v>
+      </c>
+      <c r="H18" s="3">
         <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-      <c r="H18" s="3">
-        <f t="shared" si="14"/>
         <v>13.636363636363635</v>
       </c>
       <c r="O18" s="3"/>
@@ -4293,8 +4268,8 @@
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="83" t="s">
-        <v>110</v>
+      <c r="A19" s="81" t="s">
+        <v>97</v>
       </c>
       <c r="B19" s="37" t="s">
         <v>0</v>
@@ -4311,25 +4286,25 @@
         <v>88</v>
       </c>
       <c r="F19" s="4">
+        <f t="shared" si="14"/>
+        <v>0.68181818181818177</v>
+      </c>
+      <c r="G19">
         <f t="shared" si="12"/>
-        <v>0.68181818181818177</v>
-      </c>
-      <c r="G19">
+        <v>20</v>
+      </c>
+      <c r="H19" s="3">
         <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-      <c r="H19" s="3">
-        <f t="shared" si="14"/>
         <v>13.636363636363635</v>
       </c>
       <c r="P19" s="3"/>
     </row>
     <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="83" t="s">
-        <v>110</v>
+      <c r="A20" s="81" t="s">
+        <v>97</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C20" s="53">
         <v>1</v>
@@ -4357,11 +4332,11 @@
       <c r="P20" s="3"/>
     </row>
     <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="83" t="s">
-        <v>110</v>
+      <c r="A21" s="81" t="s">
+        <v>97</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C21" s="53">
         <v>1</v>
@@ -4388,11 +4363,11 @@
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="83" t="s">
-        <v>110</v>
+      <c r="A22" s="81" t="s">
+        <v>97</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C22" s="53">
         <v>1</v>
@@ -4420,11 +4395,11 @@
       <c r="P22" s="3"/>
     </row>
     <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="81" t="s">
-        <v>110</v>
+      <c r="A23" s="79" t="s">
+        <v>97</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C23" s="53">
         <v>1</v>
@@ -4452,11 +4427,11 @@
       <c r="P23" s="3"/>
     </row>
     <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="81" t="s">
-        <v>110</v>
+      <c r="A24" s="79" t="s">
+        <v>97</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="C24" s="53">
         <v>1</v>
@@ -4484,11 +4459,11 @@
       <c r="P24" s="3"/>
     </row>
     <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="89" t="s">
-        <v>111</v>
+      <c r="A25" s="87" t="s">
+        <v>98</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C25" s="53">
         <v>1</v>
@@ -4518,11 +4493,11 @@
       <c r="P25" s="3"/>
     </row>
     <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="89" t="s">
-        <v>111</v>
+      <c r="A26" s="87" t="s">
+        <v>98</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C26" s="53">
         <v>1</v>
@@ -4549,11 +4524,11 @@
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="83" t="s">
-        <v>97</v>
+      <c r="A27" s="81" t="s">
+        <v>84</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C27" s="53">
         <v>1</v>
@@ -4580,8 +4555,8 @@
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="83" t="s">
-        <v>97</v>
+      <c r="A28" s="81" t="s">
+        <v>84</v>
       </c>
       <c r="B28" s="37" t="s">
         <v>0</v>
@@ -4611,11 +4586,11 @@
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="83" t="s">
-        <v>97</v>
+      <c r="A29" s="81" t="s">
+        <v>84</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C29" s="53">
         <v>1</v>
@@ -4642,11 +4617,11 @@
       </c>
     </row>
     <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="83" t="s">
-        <v>97</v>
+      <c r="A30" s="81" t="s">
+        <v>84</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C30" s="53">
         <v>1</v>
@@ -4674,11 +4649,11 @@
       <c r="P30" s="3"/>
     </row>
     <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="83" t="s">
-        <v>97</v>
+      <c r="A31" s="81" t="s">
+        <v>84</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C31" s="53">
         <v>1</v>
@@ -4740,14 +4715,14 @@
     </row>
     <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="92" t="s">
+      <c r="A53" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="B53" s="93"/>
-      <c r="C53" s="94" t="s">
+      <c r="B53" s="91"/>
+      <c r="C53" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="D53" s="95"/>
+      <c r="D53" s="93"/>
     </row>
     <row r="54" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
@@ -4770,7 +4745,7 @@
         <v>33</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="I54" s="7" t="s">
         <v>37</v>
@@ -4778,7 +4753,7 @@
     </row>
     <row r="55" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B55" s="33">
         <v>520</v>
@@ -4802,11 +4777,11 @@
       </c>
       <c r="H55" s="58">
         <f>VLOOKUP(F55,SummaryReport!A:J,8,FALSE)</f>
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="I55" s="6">
         <f>1-G55/H55</f>
-        <v>2.3163609404885488E-2</v>
+        <v>3.9444215914804071E-2</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -4830,27 +4805,27 @@
         <v>Login</v>
       </c>
       <c r="G56" s="16">
-        <f t="shared" ref="G56:G65" si="25">C56/3</f>
+        <f>C56/3</f>
         <v>105.73426573426575</v>
       </c>
       <c r="H56" s="58">
         <f>VLOOKUP(F56,SummaryReport!A:J,8,FALSE)</f>
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="I56" s="6">
-        <f t="shared" ref="I56:I65" si="26">1-G56/H56</f>
-        <v>0.26573426573426562</v>
+        <f t="shared" ref="I56:I65" si="25">1-G56/H56</f>
+        <v>2.0979020979020824E-2</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="80" t="s">
-        <v>101</v>
+      <c r="A57" s="78" t="s">
+        <v>88</v>
       </c>
       <c r="B57" s="33">
         <v>55</v>
       </c>
       <c r="C57" s="19">
-        <f t="shared" ref="C57:C64" si="27">GETPIVOTDATA("Итого",$I$1,"transaction rq",A57)*3</f>
+        <f t="shared" ref="C57:C64" si="26">GETPIVOTDATA("Итого",$I$1,"transaction rq",A57)*3</f>
         <v>55.384615384615387</v>
       </c>
       <c r="D57" s="65">
@@ -4863,32 +4838,32 @@
         <v>CheckoutUserData</v>
       </c>
       <c r="G57" s="16">
+        <f t="shared" ref="G57:G65" si="27">C57/3</f>
+        <v>18.461538461538463</v>
+      </c>
+      <c r="H57" s="58">
+        <f>VLOOKUP(F57,SummaryReport!A:J,8,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="I57" s="6">
         <f t="shared" si="25"/>
-        <v>18.461538461538463</v>
-      </c>
-      <c r="H57" s="58" t="e">
-        <f>VLOOKUP(F57,SummaryReport!A:J,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I57" s="6" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>-2.5641025641025772E-2</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B58" s="33">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C58" s="19">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>186.29370629370629</v>
       </c>
       <c r="D58" s="65">
         <f t="shared" ref="D58:D65" si="28">1-B58/C58</f>
-        <v>-1.9894894894894932E-2</v>
+        <v>1.576576576576616E-3</v>
       </c>
       <c r="E58" s="20"/>
       <c r="F58" s="37" t="str">
@@ -4896,32 +4871,32 @@
         <v>AddToCart</v>
       </c>
       <c r="G58" s="16">
+        <f t="shared" si="27"/>
+        <v>62.0979020979021</v>
+      </c>
+      <c r="H58" s="58">
+        <f>VLOOKUP(F58,SummaryReport!A:J,8,FALSE)</f>
+        <v>62</v>
+      </c>
+      <c r="I58" s="6">
         <f t="shared" si="25"/>
-        <v>62.0979020979021</v>
-      </c>
-      <c r="H58" s="58" t="e">
-        <f>VLOOKUP(F58,SummaryReport!A:J,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I58" s="6" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>-1.5790660951950919E-3</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B59" s="33">
-        <v>450</v>
+        <v>317</v>
       </c>
       <c r="C59" s="19">
-        <f t="shared" si="27"/>
-        <v>448.11188811188816</v>
+        <f t="shared" si="26"/>
+        <v>317.20279720279723</v>
       </c>
       <c r="D59" s="65">
         <f t="shared" si="28"/>
-        <v>-4.2134831460673983E-3</v>
+        <v>6.3932980599656908E-4</v>
       </c>
       <c r="E59" s="20"/>
       <c r="F59" s="37" t="str">
@@ -4929,27 +4904,27 @@
         <v>ChooseCategory</v>
       </c>
       <c r="G59" s="16">
+        <f t="shared" si="27"/>
+        <v>105.73426573426575</v>
+      </c>
+      <c r="H59" s="58">
+        <f>VLOOKUP(F59,SummaryReport!A:J,8,FALSE)</f>
+        <v>108</v>
+      </c>
+      <c r="I59" s="6">
         <f t="shared" si="25"/>
-        <v>149.37062937062939</v>
-      </c>
-      <c r="H59" s="58" t="e">
-        <f>VLOOKUP(F59,SummaryReport!A:J,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I59" s="6" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>2.0979020979020824E-2</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B60" s="33">
         <v>55</v>
       </c>
       <c r="C60" s="19">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>55.384615384615387</v>
       </c>
       <c r="D60" s="65">
@@ -4962,27 +4937,27 @@
         <v>Payment</v>
       </c>
       <c r="G60" s="16">
-        <f t="shared" si="25"/>
+        <f>C60/3</f>
         <v>18.461538461538463</v>
       </c>
-      <c r="H60" s="58" t="e">
+      <c r="H60" s="58">
         <f>VLOOKUP(F60,SummaryReport!A:J,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I60" s="6" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>18</v>
+      </c>
+      <c r="I60" s="6">
+        <f>1-G60/H60</f>
+        <v>-2.5641025641025772E-2</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B61" s="33">
         <v>95</v>
       </c>
       <c r="C61" s="19">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>96.293706293706293</v>
       </c>
       <c r="D61" s="65">
@@ -4995,32 +4970,32 @@
         <v>OpenCart</v>
       </c>
       <c r="G61" s="16">
+        <f t="shared" si="27"/>
+        <v>32.0979020979021</v>
+      </c>
+      <c r="H61" s="58">
+        <f>VLOOKUP(F61,SummaryReport!A:J,8,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="I61" s="6">
         <f t="shared" si="25"/>
-        <v>32.0979020979021</v>
-      </c>
-      <c r="H61" s="58" t="e">
-        <f>VLOOKUP(F61,SummaryReport!A:J,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I61" s="6" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>-3.0594405594406293E-3</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B62" s="33">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C62" s="19">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>40.909090909090907</v>
       </c>
       <c r="D62" s="65">
         <f t="shared" si="28"/>
-        <v>2.2222222222222143E-2</v>
+        <v>-2.2222222222223476E-3</v>
       </c>
       <c r="E62" s="20"/>
       <c r="F62" s="37" t="str">
@@ -5028,16 +5003,16 @@
         <v>DeleteProduct</v>
       </c>
       <c r="G62" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>13.636363636363635</v>
       </c>
-      <c r="H62" s="58" t="e">
+      <c r="H62" s="58">
         <f>VLOOKUP(F62,SummaryReport!A:J,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I62" s="6" t="e">
+        <v>14</v>
+      </c>
+      <c r="I62" s="6">
         <f>1-G62/H62</f>
-        <v>#N/A</v>
+        <v>2.5974025974026094E-2</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -5061,27 +5036,27 @@
         <v>Logout</v>
       </c>
       <c r="G63" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>67.16577540106951</v>
       </c>
       <c r="H63" s="58">
         <f>VLOOKUP(F63,SummaryReport!A:J,8,FALSE)</f>
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="I63" s="6">
-        <f t="shared" si="26"/>
-        <v>0.3663606094238725</v>
+        <f t="shared" si="25"/>
+        <v>1.2268008807801323E-2</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B64" s="33">
         <v>70</v>
       </c>
       <c r="C64" s="19">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>70.588235294117652</v>
       </c>
       <c r="D64" s="65">
@@ -5094,21 +5069,21 @@
         <v>OpenRegistrationPage</v>
       </c>
       <c r="G64" s="16">
-        <f t="shared" si="25"/>
+        <f>C64/3</f>
         <v>23.529411764705884</v>
       </c>
       <c r="H64" s="58">
         <f>VLOOKUP(F64,SummaryReport!A:J,8,FALSE)</f>
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I64" s="6">
-        <f t="shared" si="26"/>
-        <v>0.28698752228163993</v>
+        <f t="shared" si="25"/>
+        <v>5.8823529411764608E-2</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B65" s="33">
         <v>70</v>
@@ -5127,21 +5102,21 @@
         <v>UserRegistered</v>
       </c>
       <c r="G65" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>23.529411764705884</v>
       </c>
       <c r="H65" s="58">
         <f>VLOOKUP(F65,SummaryReport!A:J,8,FALSE)</f>
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I65" s="6">
-        <f t="shared" si="26"/>
-        <v>0.28698752228163993</v>
+        <f t="shared" si="25"/>
+        <v>1.9607843137254832E-2</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B66" s="33">
         <v>130</v>
@@ -5162,21 +5137,21 @@
         <f t="shared" ref="G66" si="30">C66/3</f>
         <v>43.636363636363633</v>
       </c>
-      <c r="H66" s="58" t="e">
+      <c r="H66" s="58">
         <f>VLOOKUP(F66,SummaryReport!A:J,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I66" s="6" t="e">
+        <v>46</v>
+      </c>
+      <c r="I66" s="6">
         <f t="shared" ref="I66" si="31">1-G66/H66</f>
-        <v>#N/A</v>
+        <v>5.1383399209486202E-2</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B67" s="33">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C67" s="19">
         <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A67)*3</f>
@@ -5184,7 +5159,7 @@
       </c>
       <c r="D67" s="65">
         <f>1-B67/C67</f>
-        <v>-1.9894894894894932E-2</v>
+        <v>1.576576576576616E-3</v>
       </c>
       <c r="E67" s="20"/>
       <c r="F67" s="37" t="str">
@@ -5195,13 +5170,13 @@
         <f>C67/3</f>
         <v>62.0979020979021</v>
       </c>
-      <c r="H67" s="58" t="e">
+      <c r="H67" s="58">
         <f>VLOOKUP(F67,SummaryReport!A:J,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I67" s="6" t="e">
+        <v>62</v>
+      </c>
+      <c r="I67" s="6">
         <f>1-G67/H67</f>
-        <v>#N/A</v>
+        <v>-1.5790660951950919E-3</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5210,23 +5185,23 @@
       </c>
       <c r="B68" s="34">
         <f>SUM(B55:B67)</f>
-        <v>2385</v>
+        <v>2245</v>
       </c>
       <c r="C68" s="35">
         <f>SUM(C55:C67)</f>
-        <v>2378.1571369806666</v>
+        <v>2247.2480460715756</v>
       </c>
       <c r="D68" s="66">
         <f>1-B68/C68</f>
-        <v>-2.8773805199522329E-3</v>
+        <v>1.0003551123363152E-3</v>
       </c>
       <c r="G68" s="3">
         <f>SUM(G55:G67)</f>
-        <v>792.71904566022204</v>
-      </c>
-      <c r="H68" s="3" t="e">
+        <v>749.08268202385841</v>
+      </c>
+      <c r="H68" s="3">
         <f>SUM(H55:H67)</f>
-        <v>#N/A</v>
+        <v>765</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5284,7 +5259,7 @@
         <v>Главная страница</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5293,7 +5268,7 @@
         <v>Вход в систему</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5302,7 +5277,7 @@
         <v>Проверка пользовательских данных перед покупкой</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5311,7 +5286,7 @@
         <v>Добавление товара в корзину</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -5320,7 +5295,7 @@
         <v>Выбор категории товаров</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -5329,7 +5304,7 @@
         <v>Оплата</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -5338,7 +5313,7 @@
         <v>Переход в корзину</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -5347,7 +5322,7 @@
         <v>Удаление продукта</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -5356,7 +5331,7 @@
         <v>Выход из системы</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -5365,7 +5340,7 @@
         <v>Страница регистрации</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -5374,7 +5349,7 @@
         <v>Регистрация пользователя</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -5383,7 +5358,7 @@
         <v>Поиск продукта</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -5392,7 +5367,7 @@
         <v>Переход на страницу продукта</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -5405,7 +5380,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="A1:J19"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5453,27 +5428,27 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>62</v>
+      <c r="A2" s="67" t="s">
+        <v>83</v>
       </c>
       <c r="B2" s="67"/>
       <c r="C2">
-        <v>2.7E-2</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="D2">
-        <v>5.0999999999999997E-2</v>
+        <v>0.68100000000000005</v>
       </c>
       <c r="E2">
-        <v>0.115</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="F2">
-        <v>2.5000000000000001E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="G2">
-        <v>8.6999999999999994E-2</v>
+        <v>0.80800000000000005</v>
       </c>
       <c r="H2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -5484,25 +5459,25 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="C3">
-        <v>2.9000000000000001E-2</v>
+        <v>2.024</v>
       </c>
       <c r="D3">
-        <v>0.03</v>
+        <v>2.1429999999999998</v>
       </c>
       <c r="E3">
-        <v>3.2000000000000001E-2</v>
+        <v>2.2440000000000002</v>
       </c>
       <c r="F3">
-        <v>1E-3</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="G3">
-        <v>3.2000000000000001E-2</v>
+        <v>2.2440000000000002</v>
       </c>
       <c r="H3">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -5513,25 +5488,25 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C4">
-        <v>7.2999999999999995E-2</v>
+        <v>1.1930000000000001</v>
       </c>
       <c r="D4">
-        <v>0.249</v>
+        <v>1.522</v>
       </c>
       <c r="E4">
-        <v>0.878</v>
+        <v>1.9239999999999999</v>
       </c>
       <c r="F4">
-        <v>0.14699999999999999</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="G4">
-        <v>0.375</v>
+        <v>1.899</v>
       </c>
       <c r="H4">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -5542,25 +5517,25 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C5">
-        <v>4.2000000000000003E-2</v>
+        <v>1.4570000000000001</v>
       </c>
       <c r="D5">
-        <v>7.8E-2</v>
+        <v>1.649</v>
       </c>
       <c r="E5">
-        <v>0.61399999999999999</v>
+        <v>2.0219999999999998</v>
       </c>
       <c r="F5">
-        <v>8.1000000000000003E-2</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="G5">
-        <v>0.126</v>
+        <v>1.83</v>
       </c>
       <c r="H5">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -5571,25 +5546,25 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="C6">
-        <v>4.8000000000000001E-2</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="D6">
-        <v>0.21</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="E6">
-        <v>1.115</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="F6">
-        <v>0.20300000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="G6">
-        <v>0.33300000000000002</v>
+        <v>0.57799999999999996</v>
       </c>
       <c r="H6">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -5600,25 +5575,25 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C7">
-        <v>6.9000000000000006E-2</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="D7">
-        <v>0.21</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="E7">
-        <v>0.77200000000000002</v>
+        <v>1.44</v>
       </c>
       <c r="F7">
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="G7">
-        <v>0.29099999999999998</v>
+        <v>1.3109999999999999</v>
       </c>
       <c r="H7">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -5629,25 +5604,25 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D8">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="E8">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="F8">
+        <v>0.01</v>
+      </c>
+      <c r="G8">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="H8">
         <v>68</v>
-      </c>
-      <c r="C8">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="D8">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="E8">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="F8">
-        <v>2.3E-2</v>
-      </c>
-      <c r="G8">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="H8">
-        <v>33</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -5658,25 +5633,25 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C9">
-        <v>6.7000000000000004E-2</v>
+        <v>0.7</v>
       </c>
       <c r="D9">
-        <v>9.1999999999999998E-2</v>
+        <v>0.84799999999999998</v>
       </c>
       <c r="E9">
-        <v>0.26</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="F9">
-        <v>3.5999999999999997E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="G9">
-        <v>0.11899999999999999</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="H9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -5687,25 +5662,25 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C10">
-        <v>2.7E-2</v>
+        <v>4.2190000000000003</v>
       </c>
       <c r="D10">
-        <v>4.8000000000000001E-2</v>
+        <v>5.7060000000000004</v>
       </c>
       <c r="E10">
-        <v>0.18</v>
+        <v>6.702</v>
       </c>
       <c r="F10">
-        <v>2.5999999999999999E-2</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="G10">
-        <v>6.0999999999999999E-2</v>
+        <v>6.516</v>
       </c>
       <c r="H10">
-        <v>102</v>
+        <v>180</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -5716,25 +5691,25 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C11">
-        <v>0.51500000000000001</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="D11">
-        <v>0.72599999999999998</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="E11">
-        <v>2.5630000000000002</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="F11">
-        <v>0.42899999999999999</v>
+        <v>1.9E-2</v>
       </c>
       <c r="G11">
-        <v>0.69099999999999995</v>
+        <v>0.45</v>
       </c>
       <c r="H11">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -5745,25 +5720,25 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C12">
-        <v>0.48899999999999999</v>
+        <v>1.0880000000000001</v>
       </c>
       <c r="D12">
-        <v>0.71599999999999997</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="E12">
-        <v>1.821</v>
+        <v>1.1839999999999999</v>
       </c>
       <c r="F12">
-        <v>0.30299999999999999</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="G12">
-        <v>0.89400000000000002</v>
+        <v>1.1839999999999999</v>
       </c>
       <c r="H12">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -5774,25 +5749,25 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="C13">
-        <v>0.57899999999999996</v>
+        <v>3.3719999999999999</v>
       </c>
       <c r="D13">
-        <v>1.0329999999999999</v>
+        <v>6.3869999999999996</v>
       </c>
       <c r="E13">
-        <v>2.8570000000000002</v>
+        <v>9.3949999999999996</v>
       </c>
       <c r="F13">
-        <v>0.56699999999999995</v>
+        <v>1.76</v>
       </c>
       <c r="G13">
-        <v>1.081</v>
+        <v>9.1560000000000006</v>
       </c>
       <c r="H13">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -5803,25 +5778,25 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="C14">
-        <v>0.56399999999999995</v>
+        <v>7.6459999999999999</v>
       </c>
       <c r="D14">
-        <v>1.044</v>
+        <v>8.0009999999999994</v>
       </c>
       <c r="E14">
-        <v>3.1150000000000002</v>
+        <v>8.2850000000000001</v>
       </c>
       <c r="F14">
-        <v>0.52200000000000002</v>
+        <v>0.183</v>
       </c>
       <c r="G14">
-        <v>1.1919999999999999</v>
+        <v>8.2309999999999999</v>
       </c>
       <c r="H14">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -5832,28 +5807,28 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C15">
-        <v>0.65700000000000003</v>
+        <v>8.9649999999999999</v>
       </c>
       <c r="D15">
-        <v>0.79700000000000004</v>
+        <v>9.4410000000000007</v>
       </c>
       <c r="E15">
-        <v>1.0329999999999999</v>
+        <v>9.7789999999999999</v>
       </c>
       <c r="F15">
-        <v>0.14499999999999999</v>
+        <v>0.193</v>
       </c>
       <c r="G15">
-        <v>1.0329999999999999</v>
+        <v>9.6669999999999998</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -5861,25 +5836,25 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="C16">
-        <v>0.27</v>
+        <v>9.1530000000000005</v>
       </c>
       <c r="D16">
-        <v>0.37</v>
+        <v>9.7059999999999995</v>
       </c>
       <c r="E16">
-        <v>1.375</v>
+        <v>10.077999999999999</v>
       </c>
       <c r="F16">
-        <v>0.187</v>
+        <v>0.254</v>
       </c>
       <c r="G16">
-        <v>0.42699999999999999</v>
+        <v>10.071</v>
       </c>
       <c r="H16">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -5890,25 +5865,25 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="C17">
-        <v>2.5000000000000001E-2</v>
+        <v>13.577999999999999</v>
       </c>
       <c r="D17">
-        <v>0.03</v>
+        <v>14.161</v>
       </c>
       <c r="E17">
-        <v>9.0999999999999998E-2</v>
+        <v>14.693</v>
       </c>
       <c r="F17">
-        <v>1.2999999999999999E-2</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="G17">
-        <v>2.9000000000000001E-2</v>
+        <v>14.693</v>
       </c>
       <c r="H17">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -5919,28 +5894,28 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="C18">
-        <v>7.1999999999999995E-2</v>
+        <v>10.109</v>
       </c>
       <c r="D18">
-        <v>0.16600000000000001</v>
+        <v>10.956</v>
       </c>
       <c r="E18">
-        <v>0.42299999999999999</v>
+        <v>11.521000000000001</v>
       </c>
       <c r="F18">
-        <v>7.9000000000000001E-2</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="G18">
-        <v>0.29099999999999998</v>
+        <v>11.506</v>
       </c>
       <c r="H18">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -5948,25 +5923,25 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="C19">
-        <v>2.5999999999999999E-2</v>
+        <v>8.7780000000000005</v>
       </c>
       <c r="D19">
-        <v>0.05</v>
+        <v>11.837999999999999</v>
       </c>
       <c r="E19">
-        <v>0.13500000000000001</v>
+        <v>15.106</v>
       </c>
       <c r="F19">
-        <v>2.5999999999999999E-2</v>
+        <v>1.7629999999999999</v>
       </c>
       <c r="G19">
-        <v>0.09</v>
+        <v>14.532</v>
       </c>
       <c r="H19">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -5976,31 +5951,55 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="D20">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="E20">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="F20">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G20">
+        <v>0.879</v>
+      </c>
       <c r="H20">
-        <f>SUM(H2:H19)</f>
-        <v>1172</v>
+        <v>24</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="BuyingTicket" xr:uid="{CAD88E3E-CAF9-47B8-9CAC-558280E3DC87}"/>
-    <hyperlink ref="A3" display="DeleteTicket" xr:uid="{C3EB1C5D-8F5C-4493-B3B3-83EF477EBAFC}"/>
-    <hyperlink ref="A4" display="Login" xr:uid="{523A220C-C0BC-4586-AB2D-525E5BB64F81}"/>
-    <hyperlink ref="A5" display="Logout" xr:uid="{E75052CA-7BBF-4922-ACD2-9966B2A68261}"/>
-    <hyperlink ref="A6" display="OpenLandingPage" xr:uid="{C6836C6D-EA30-4430-BD9D-B5F159077A0A}"/>
-    <hyperlink ref="A7" display="OpenPage_FindFlight" xr:uid="{81178DB6-ABBD-4723-946E-817D5966915D}"/>
-    <hyperlink ref="A8" display="OpenRegistrationPage" xr:uid="{B5B4C3B7-AA61-4BE0-8A6C-50CEFDF8DED0}"/>
-    <hyperlink ref="A9" display="press continue" xr:uid="{28681E23-2C00-48DC-97D2-E932F7C76BEE}"/>
-    <hyperlink ref="A10" display="SubmitFlight" xr:uid="{946308BF-EE88-43CE-BCCC-C1D7805649EA}"/>
-    <hyperlink ref="A11" display="UC1_LoginLogout" xr:uid="{415B5270-B86C-4F08-A1C1-00EBF2F4491F}"/>
-    <hyperlink ref="A12" display="UC2_SearchTicket" xr:uid="{F4E51458-499D-4332-9C24-1E811D213D02}"/>
-    <hyperlink ref="A13" display="UC3_BuyingTicket" xr:uid="{F33B33B4-F165-4FF3-BAF5-6DAE4D6C0E75}"/>
-    <hyperlink ref="A14" display="UC4_ViewTicketList" xr:uid="{95AC6949-4F9F-4A12-9689-46DFFD11FF4C}"/>
-    <hyperlink ref="A15" display="UC5_DeleteTicket" xr:uid="{9E28DCA7-18AE-4F1E-8F6A-8FBF594ECCAA}"/>
-    <hyperlink ref="A16" display="UC7_RandomUserRegistrtion" xr:uid="{DD35DEBB-2179-47F8-BC28-0799706622C5}"/>
-    <hyperlink ref="A17" display="UserRegistered" xr:uid="{BA392A4D-D3A1-4CDF-8CAE-CBF0F1CED951}"/>
-    <hyperlink ref="A18" display="ViewTicketList" xr:uid="{E7595B25-3867-4E89-8AF0-D55D46B83395}"/>
-    <hyperlink ref="A19" display="СhooseDepartureTime" xr:uid="{D424C7A1-32B5-41CF-B9AC-C47323E64544}"/>
+    <hyperlink ref="A2" display="AddToCart" xr:uid="{AACC72D6-1077-496B-A008-EF4BA5B3EF87}"/>
+    <hyperlink ref="A3" display="CheckoutUserData" xr:uid="{B476F560-2DCC-489C-9F99-3BB32E869C53}"/>
+    <hyperlink ref="A4" display="ChooseCategory" xr:uid="{ED3255CB-5A5F-4A09-A522-B8A249283A78}"/>
+    <hyperlink ref="A5" display="ChooseProduct" xr:uid="{5CEF01F5-45FC-4282-9DE3-C7DE0F5CC174}"/>
+    <hyperlink ref="A6" display="DeleteProduct" xr:uid="{E30160F1-9717-4FE6-A6F4-557B5D69D0D1}"/>
+    <hyperlink ref="A7" display="Login" xr:uid="{958136F5-BEBD-46DF-AE80-8C04BA6D9DFB}"/>
+    <hyperlink ref="A8" display="Logout" xr:uid="{4B4E4D94-F737-4240-879E-F6B072D797FC}"/>
+    <hyperlink ref="A9" display="OpenCart" xr:uid="{3A143EB4-2DB0-4B0A-9BFB-981329646D38}"/>
+    <hyperlink ref="A10" display="OpenLandingPage" xr:uid="{046A9FF8-15F2-4F7E-8F23-8002CEAE25E7}"/>
+    <hyperlink ref="A11" display="OpenRegistrationPage" xr:uid="{BD63B2E6-E27E-45AF-8124-C75CAFD2939D}"/>
+    <hyperlink ref="A12" display="Payment" xr:uid="{585477F5-6E5D-4ED7-B349-7173A6C73F65}"/>
+    <hyperlink ref="A13" display="SeachProduct" xr:uid="{06D722B5-2027-4565-BC64-A1A72C3AA25F}"/>
+    <hyperlink ref="A14" display="UC1_RandomUserRegistration" xr:uid="{369E980E-D6ED-494C-8E13-5691899721E5}"/>
+    <hyperlink ref="A15" display="UC2_LoginLogout" xr:uid="{433B10C0-13F6-43DA-AA5F-785740B60C43}"/>
+    <hyperlink ref="A16" display="UC4_AddToCart" xr:uid="{3F895890-EC13-4EBC-9DF8-FBFF4406FFB8}"/>
+    <hyperlink ref="A17" display="UC5_BuyingProduct" xr:uid="{D4938E30-155C-4AC6-BCE3-C9A4E0D09745}"/>
+    <hyperlink ref="A18" display="UC6_DeleteProduct" xr:uid="{6BF0567E-8C66-4AF6-B3B8-0835F478D664}"/>
+    <hyperlink ref="A19" display="UC7_SeachProduct" xr:uid="{20986254-407C-4A0C-A511-59617D1FD1FE}"/>
+    <hyperlink ref="A20" display="UserRegistered" xr:uid="{BF93AB1D-7FAE-4BF9-B400-AED4A200B6D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6008,10 +6007,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="C1:Q80"/>
+  <dimension ref="C1:Q84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6033,57 +6032,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E1" s="96" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
+      <c r="E1" s="94" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
     </row>
     <row r="3" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="78" t="s">
+      <c r="F3" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="78" t="s">
+      <c r="G3" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="78" t="s">
+      <c r="H3" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="78" t="s">
+      <c r="I3" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="78" t="s">
-        <v>85</v>
+      <c r="J3" s="77" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E4" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="70" t="e">
+        <v>77</v>
+      </c>
+      <c r="F4" s="70" t="str">
         <f>VLOOKUP(E4,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G4" s="71" t="e">
+        <v>OpenLandingPage</v>
+      </c>
+      <c r="G4" s="71">
         <f>VLOOKUP(E4,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H4" s="72">
-        <f>765*0.6</f>
-        <v>459</v>
-      </c>
-      <c r="I4" s="73" t="e">
+        <v>520</v>
+      </c>
+      <c r="H4" s="95">
+        <f>900*0.6</f>
+        <v>540</v>
+      </c>
+      <c r="I4" s="73">
         <f>1-G4/H4</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J4" s="77" t="s">
-        <v>86</v>
+        <v>3.703703703703709E-2</v>
+      </c>
+      <c r="J4" s="76" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6098,164 +6097,164 @@
         <f>VLOOKUP(E5,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
         <v>320</v>
       </c>
-      <c r="H5" s="74">
-        <f>633*0.6</f>
-        <v>379.8</v>
+      <c r="H5" s="95">
+        <f>531*0.6</f>
+        <v>318.59999999999997</v>
       </c>
       <c r="I5" s="73">
         <f t="shared" ref="I5:I6" si="0">1-G5/H5</f>
-        <v>0.15745129015271198</v>
-      </c>
-      <c r="J5" s="77" t="s">
-        <v>86</v>
+        <v>-4.3942247332078299E-3</v>
+      </c>
+      <c r="J5" s="76" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E6" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="70" t="e">
+        <v>88</v>
+      </c>
+      <c r="F6" s="70" t="str">
         <f>VLOOKUP(E6,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G6" s="71" t="e">
+        <v>CheckoutUserData</v>
+      </c>
+      <c r="G6" s="71">
         <f>VLOOKUP(E6,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H6" s="69">
-        <f>426*0.6</f>
-        <v>255.6</v>
-      </c>
-      <c r="I6" s="73" t="e">
+        <v>55</v>
+      </c>
+      <c r="H6" s="95">
+        <f>92*0.6</f>
+        <v>55.199999999999996</v>
+      </c>
+      <c r="I6" s="73">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J6" s="77" t="s">
-        <v>86</v>
+        <v>3.6231884057970065E-3</v>
+      </c>
+      <c r="J6" s="76" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E7" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="70" t="e">
+        <v>84</v>
+      </c>
+      <c r="F7" s="70" t="str">
         <f>VLOOKUP(E7,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G7" s="71" t="e">
+        <v>AddToCart</v>
+      </c>
+      <c r="G7" s="71">
         <f>VLOOKUP(E7,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H7" s="74">
-        <f>424*0.6</f>
-        <v>254.39999999999998</v>
-      </c>
-      <c r="I7" s="73" t="e">
+        <v>186</v>
+      </c>
+      <c r="H7" s="95">
+        <f>298*0.6</f>
+        <v>178.79999999999998</v>
+      </c>
+      <c r="I7" s="73">
         <f>1-G7/H7</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J7" s="77" t="s">
-        <v>86</v>
-      </c>
-      <c r="L7" s="76"/>
+        <v>-4.026845637583909E-2</v>
+      </c>
+      <c r="J7" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" s="75"/>
     </row>
     <row r="8" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E8" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="70" t="e">
+        <v>81</v>
+      </c>
+      <c r="F8" s="70" t="str">
         <f>VLOOKUP(E8,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G8" s="71" t="e">
+        <v>ChooseCategory</v>
+      </c>
+      <c r="G8" s="71">
         <f>VLOOKUP(E8,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H8" s="74">
-        <f>386*0.6</f>
-        <v>231.6</v>
-      </c>
-      <c r="I8" s="73" t="e">
-        <f t="shared" ref="I8:I15" si="1">1-G8/H8</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J8" s="77" t="s">
-        <v>83</v>
-      </c>
-      <c r="L8" s="76"/>
+        <v>317</v>
+      </c>
+      <c r="H8" s="95">
+        <f>528*0.6</f>
+        <v>316.8</v>
+      </c>
+      <c r="I8" s="73">
+        <f>1-G8/H8</f>
+        <v>-6.3131313131314926E-4</v>
+      </c>
+      <c r="J8" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" s="75"/>
     </row>
     <row r="9" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E9" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="70" t="e">
+        <v>90</v>
+      </c>
+      <c r="F9" s="70" t="str">
         <f>VLOOKUP(E9,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G9" s="71" t="e">
+        <v>Payment</v>
+      </c>
+      <c r="G9" s="71">
         <f>VLOOKUP(E9,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H9" s="74">
-        <f>258*0.6</f>
-        <v>154.79999999999998</v>
-      </c>
-      <c r="I9" s="73" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J9" s="77" t="s">
-        <v>86</v>
-      </c>
-      <c r="L9" s="76"/>
+        <v>55</v>
+      </c>
+      <c r="H9" s="95">
+        <f>92*0.6</f>
+        <v>55.199999999999996</v>
+      </c>
+      <c r="I9" s="73">
+        <f t="shared" ref="I9:I10" si="1">1-G9/H9</f>
+        <v>3.6231884057970065E-3</v>
+      </c>
+      <c r="J9" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" s="75"/>
     </row>
     <row r="10" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E10" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="70" t="e">
+        <v>86</v>
+      </c>
+      <c r="F10" s="70" t="str">
         <f>VLOOKUP(E10,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G10" s="71" t="e">
+        <v>OpenCart</v>
+      </c>
+      <c r="G10" s="71">
         <f>VLOOKUP(E10,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H10" s="74">
-        <f>420*0.6</f>
-        <v>252</v>
-      </c>
-      <c r="I10" s="73" t="e">
+        <v>95</v>
+      </c>
+      <c r="H10" s="95">
+        <f>159*0.6</f>
+        <v>95.399999999999991</v>
+      </c>
+      <c r="I10" s="73">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J10" s="77" t="s">
-        <v>86</v>
-      </c>
-      <c r="L10" s="76"/>
+        <v>4.1928721174003813E-3</v>
+      </c>
+      <c r="J10" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="L10" s="75"/>
     </row>
     <row r="11" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E11" s="68" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="70" t="e">
+        <v>92</v>
+      </c>
+      <c r="F11" s="70" t="str">
         <f>VLOOKUP(E11,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G11" s="71" t="e">
+        <v>DeleteProduct</v>
+      </c>
+      <c r="G11" s="71">
         <f>VLOOKUP(E11,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H11" s="74">
-        <f>125*0.6</f>
-        <v>75</v>
-      </c>
-      <c r="I11" s="73" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J11" s="77" t="s">
-        <v>83</v>
+        <v>41</v>
+      </c>
+      <c r="H11" s="95">
+        <f>69*0.6</f>
+        <v>41.4</v>
+      </c>
+      <c r="I11" s="73">
+        <f>1-G11/H11</f>
+        <v>9.6618357487922024E-3</v>
+      </c>
+      <c r="J11" s="76" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6270,1463 +6269,1573 @@
         <f>VLOOKUP(E12,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
         <v>200</v>
       </c>
-      <c r="H12" s="74">
-        <f>437*0.6</f>
-        <v>262.2</v>
+      <c r="H12" s="95">
+        <f>338*0.6</f>
+        <v>202.79999999999998</v>
       </c>
       <c r="I12" s="73">
-        <f t="shared" si="1"/>
-        <v>0.23722349351639971</v>
-      </c>
-      <c r="J12" s="77" t="s">
-        <v>86</v>
+        <f>1-G12/H12</f>
+        <v>1.3806706114398382E-2</v>
+      </c>
+      <c r="J12" s="76" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E13" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="70" t="e">
+        <v>78</v>
+      </c>
+      <c r="F13" s="70" t="str">
         <f>VLOOKUP(E13,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G13" s="71" t="e">
+        <v>OpenRegistrationPage</v>
+      </c>
+      <c r="G13" s="71">
         <f>VLOOKUP(E13,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H13" s="69">
-        <f>125*0.6</f>
-        <v>75</v>
-      </c>
-      <c r="I13" s="73" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J13" s="77" t="s">
-        <v>83</v>
+        <v>70</v>
+      </c>
+      <c r="H13" s="95">
+        <f>120*0.6</f>
+        <v>72</v>
+      </c>
+      <c r="I13" s="73">
+        <f t="shared" ref="I13:I16" si="2">1-G13/H13</f>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="J13" s="76" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E14" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="70" t="e">
+        <v>79</v>
+      </c>
+      <c r="F14" s="70" t="str">
         <f>VLOOKUP(E14,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G14" s="71" t="e">
+        <v>UserRegistered</v>
+      </c>
+      <c r="G14" s="71">
         <f>VLOOKUP(E14,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H14" s="69">
-        <f>125*0.6</f>
-        <v>75</v>
-      </c>
-      <c r="I14" s="73" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J14" s="77" t="s">
-        <v>83</v>
+        <v>70</v>
+      </c>
+      <c r="H14" s="95">
+        <f>120*0.6</f>
+        <v>72</v>
+      </c>
+      <c r="I14" s="73">
+        <f t="shared" si="2"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="J14" s="76" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E15" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="70" t="e">
+        <v>94</v>
+      </c>
+      <c r="F15" s="70" t="str">
         <f>VLOOKUP(E15,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G15" s="71" t="e">
+        <v>SeachProduct</v>
+      </c>
+      <c r="G15" s="71">
         <f>VLOOKUP(E15,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H15" s="69">
-        <f>122*0.6</f>
-        <v>73.2</v>
-      </c>
-      <c r="I15" s="73" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J15" s="77" t="s">
-        <v>86</v>
+        <v>130</v>
+      </c>
+      <c r="H15" s="95">
+        <f>221*0.6</f>
+        <v>132.6</v>
+      </c>
+      <c r="I15" s="73">
+        <f t="shared" si="2"/>
+        <v>1.9607843137254832E-2</v>
+      </c>
+      <c r="J15" s="76" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-    </row>
-    <row r="17" spans="5:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="96" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-    </row>
-    <row r="19" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E19" s="78" t="s">
+      <c r="E16" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="70" t="str">
+        <f>VLOOKUP(E16,Соответствие!$A$2:$B$14,2,FALSE)</f>
+        <v>ChooseProduct</v>
+      </c>
+      <c r="G16" s="71">
+        <f>VLOOKUP(E16,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
+        <v>186</v>
+      </c>
+      <c r="H16" s="95">
+        <f>307*0.6</f>
+        <v>184.2</v>
+      </c>
+      <c r="I16" s="73">
+        <f t="shared" si="2"/>
+        <v>-9.7719869706840434E-3</v>
+      </c>
+      <c r="J16" s="76" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="5:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E18" s="94" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
+    </row>
+    <row r="20" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E20" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="78" t="s">
+      <c r="F20" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="78" t="s">
+      <c r="G20" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="78" t="s">
+      <c r="H20" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="78" t="s">
+      <c r="I20" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="J19" s="78" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="5:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E20" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="70" t="e">
-        <f>VLOOKUP(E20,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G20" s="71" t="e">
-        <f>VLOOKUP(E20,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H20" s="72">
-        <f>(682/4)*3</f>
-        <v>511.5</v>
-      </c>
-      <c r="I20" s="73" t="e">
-        <f>1-G20/H20</f>
-        <v>#N/A</v>
-      </c>
       <c r="J20" s="77" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="5:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E21" s="59" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="F21" s="70" t="str">
         <f>VLOOKUP(E21,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>Login</v>
+        <v>OpenLandingPage</v>
       </c>
       <c r="G21" s="71">
         <f>VLOOKUP(E21,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>320</v>
-      </c>
-      <c r="H21" s="74">
-        <f>(543/4)*3</f>
-        <v>407.25</v>
+        <v>520</v>
+      </c>
+      <c r="H21" s="95">
+        <f>(718/4)*3</f>
+        <v>538.5</v>
       </c>
       <c r="I21" s="73">
-        <f t="shared" ref="I21:I22" si="2">1-G21/H21</f>
-        <v>0.21424186617556784</v>
-      </c>
-      <c r="J21" s="77" t="s">
-        <v>86</v>
-      </c>
-      <c r="L21" s="76"/>
-      <c r="Q21" s="76"/>
+        <f>1-G21/H21</f>
+        <v>3.4354688950789192E-2</v>
+      </c>
+      <c r="J21" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="L21" s="75"/>
+      <c r="Q21" s="75"/>
     </row>
     <row r="22" spans="5:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E22" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="70" t="e">
+        <v>0</v>
+      </c>
+      <c r="F22" s="70" t="str">
         <f>VLOOKUP(E22,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G22" s="71" t="e">
+        <v>Login</v>
+      </c>
+      <c r="G22" s="71">
         <f>VLOOKUP(E22,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H22" s="69">
-        <f>(382/4)*3</f>
-        <v>286.5</v>
-      </c>
-      <c r="I22" s="73" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J22" s="77" t="s">
-        <v>86</v>
-      </c>
-      <c r="L22" s="76"/>
-      <c r="Q22" s="76"/>
+        <v>320</v>
+      </c>
+      <c r="H22" s="95">
+        <f>(427/4)*3</f>
+        <v>320.25</v>
+      </c>
+      <c r="I22" s="73">
+        <f t="shared" ref="I22:I23" si="3">1-G22/H22</f>
+        <v>7.8064012490242085E-4</v>
+      </c>
+      <c r="J22" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="L22" s="75"/>
+      <c r="Q22" s="75"/>
     </row>
     <row r="23" spans="5:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E23" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="70" t="e">
+        <v>88</v>
+      </c>
+      <c r="F23" s="70" t="str">
         <f>VLOOKUP(E23,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G23" s="71" t="e">
+        <v>CheckoutUserData</v>
+      </c>
+      <c r="G23" s="71">
         <f>VLOOKUP(E23,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H23" s="74">
-        <f>(382/4)*3</f>
-        <v>286.5</v>
-      </c>
-      <c r="I23" s="73" t="e">
-        <f>1-G23/H23</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J23" s="77" t="s">
-        <v>83</v>
-      </c>
-      <c r="L23" s="76"/>
-      <c r="Q23" s="76"/>
+        <v>55</v>
+      </c>
+      <c r="H23" s="95">
+        <f>(76/4)*3</f>
+        <v>57</v>
+      </c>
+      <c r="I23" s="73">
+        <f t="shared" si="3"/>
+        <v>3.5087719298245612E-2</v>
+      </c>
+      <c r="J23" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="L23" s="75"/>
+      <c r="Q23" s="75"/>
     </row>
     <row r="24" spans="5:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E24" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="70" t="e">
+        <v>84</v>
+      </c>
+      <c r="F24" s="70" t="str">
         <f>VLOOKUP(E24,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G24" s="71" t="e">
+        <v>AddToCart</v>
+      </c>
+      <c r="G24" s="71">
         <f>VLOOKUP(E24,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H24" s="74">
-        <f>(350/4)*3</f>
-        <v>262.5</v>
-      </c>
-      <c r="I24" s="73" t="e">
-        <f t="shared" ref="I24:I31" si="3">1-G24/H24</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J24" s="77" t="s">
-        <v>83</v>
-      </c>
-      <c r="L24" s="76"/>
-      <c r="Q24" s="76"/>
+        <v>186</v>
+      </c>
+      <c r="H24" s="95">
+        <f>(242/4)*3</f>
+        <v>181.5</v>
+      </c>
+      <c r="I24" s="73">
+        <f>1-G24/H24</f>
+        <v>-2.4793388429751984E-2</v>
+      </c>
+      <c r="J24" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="L24" s="75"/>
+      <c r="Q24" s="75"/>
     </row>
     <row r="25" spans="5:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E25" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" s="70" t="e">
+        <v>81</v>
+      </c>
+      <c r="F25" s="70" t="str">
         <f>VLOOKUP(E25,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G25" s="71" t="e">
+        <v>ChooseCategory</v>
+      </c>
+      <c r="G25" s="71">
         <f>VLOOKUP(E25,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H25" s="74">
-        <f>(230/4)*3</f>
-        <v>172.5</v>
-      </c>
-      <c r="I25" s="73" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J25" s="77" t="s">
-        <v>86</v>
+        <v>317</v>
+      </c>
+      <c r="H25" s="95">
+        <f>(424/4)*3</f>
+        <v>318</v>
+      </c>
+      <c r="I25" s="73">
+        <f>1-G25/H25</f>
+        <v>3.1446540880503138E-3</v>
+      </c>
+      <c r="J25" s="76" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="5:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E26" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="F26" s="70" t="e">
+        <v>90</v>
+      </c>
+      <c r="F26" s="70" t="str">
         <f>VLOOKUP(E26,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G26" s="71" t="e">
+        <v>Payment</v>
+      </c>
+      <c r="G26" s="71">
         <f>VLOOKUP(E26,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H26" s="74">
-        <f>(366/4)*3</f>
-        <v>274.5</v>
-      </c>
-      <c r="I26" s="73" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J26" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" s="95">
+        <f>(75/4)*3</f>
+        <v>56.25</v>
+      </c>
+      <c r="I26" s="73">
+        <f t="shared" ref="I26:I27" si="4">1-G26/H26</f>
+        <v>2.2222222222222254E-2</v>
+      </c>
+      <c r="J26" s="76" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="5:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E27" s="59" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="27" spans="5:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E27" s="68" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="70" t="e">
+      <c r="F27" s="70" t="str">
         <f>VLOOKUP(E27,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G27" s="71" t="e">
+        <v>OpenCart</v>
+      </c>
+      <c r="G27" s="71">
         <f>VLOOKUP(E27,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H27" s="74">
-        <f>(102/4)*3</f>
-        <v>76.5</v>
-      </c>
-      <c r="I27" s="73" t="e">
-        <f>1-G27/H27</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J27" s="77" t="s">
-        <v>83</v>
+        <v>95</v>
+      </c>
+      <c r="H27" s="95">
+        <f>(131/4)*3</f>
+        <v>98.25</v>
+      </c>
+      <c r="I27" s="73">
+        <f t="shared" si="4"/>
+        <v>3.30788804071247E-2</v>
+      </c>
+      <c r="J27" s="76" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="5:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E28" s="59" t="s">
-        <v>3</v>
+      <c r="E28" s="68" t="s">
+        <v>92</v>
       </c>
       <c r="F28" s="70" t="str">
         <f>VLOOKUP(E28,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>Logout</v>
+        <v>DeleteProduct</v>
       </c>
       <c r="G28" s="71">
         <f>VLOOKUP(E28,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>200</v>
-      </c>
-      <c r="H28" s="74">
-        <f>(413/4)*3</f>
-        <v>309.75</v>
+        <v>41</v>
+      </c>
+      <c r="H28" s="95">
+        <f>(55/4)*3</f>
+        <v>41.25</v>
       </c>
       <c r="I28" s="73">
         <f>1-G28/H28</f>
-        <v>0.35431799838579503</v>
-      </c>
-      <c r="J28" s="77" t="s">
-        <v>86</v>
+        <v>6.0606060606060996E-3</v>
+      </c>
+      <c r="J28" s="76" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="5:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E29" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="F29" s="70" t="e">
+      <c r="E29" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="70" t="str">
         <f>VLOOKUP(E29,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G29" s="71" t="e">
+        <v>Logout</v>
+      </c>
+      <c r="G29" s="71">
         <f>VLOOKUP(E29,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H29" s="69">
-        <f>(134/4)*3</f>
-        <v>100.5</v>
-      </c>
-      <c r="I29" s="73" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J29" s="77" t="s">
-        <v>83</v>
+        <v>200</v>
+      </c>
+      <c r="H29" s="95">
+        <f>(270/4)*3</f>
+        <v>202.5</v>
+      </c>
+      <c r="I29" s="73">
+        <f>1-G29/H29</f>
+        <v>1.2345679012345734E-2</v>
+      </c>
+      <c r="J29" s="76" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="5:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E30" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="F30" s="70" t="e">
+        <v>78</v>
+      </c>
+      <c r="F30" s="70" t="str">
         <f>VLOOKUP(E30,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G30" s="71" t="e">
+        <v>OpenRegistrationPage</v>
+      </c>
+      <c r="G30" s="71">
         <f>VLOOKUP(E30,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H30" s="69">
-        <f>(134/4)*3</f>
-        <v>100.5</v>
-      </c>
-      <c r="I30" s="73" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J30" s="77" t="s">
-        <v>83</v>
+        <v>70</v>
+      </c>
+      <c r="H30" s="95">
+        <f>(96/4)*3</f>
+        <v>72</v>
+      </c>
+      <c r="I30" s="73">
+        <f t="shared" ref="I30:I33" si="5">1-G30/H30</f>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="J30" s="76" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="5:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E31" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="F31" s="70" t="e">
+        <v>79</v>
+      </c>
+      <c r="F31" s="70" t="str">
         <f>VLOOKUP(E31,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G31" s="71" t="e">
+        <v>UserRegistered</v>
+      </c>
+      <c r="G31" s="71">
         <f>VLOOKUP(E31,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H31" s="69">
-        <f>(133/4)*3</f>
-        <v>99.75</v>
-      </c>
-      <c r="I31" s="73" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J31" s="77" t="s">
-        <v>86</v>
-      </c>
-      <c r="L31" s="76"/>
-      <c r="Q31" s="76"/>
-    </row>
-    <row r="32" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="L32" s="76"/>
-      <c r="Q32" s="76"/>
-    </row>
-    <row r="33" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E33" s="96" t="s">
-        <v>87</v>
-      </c>
-      <c r="F33" s="96"/>
-      <c r="G33" s="96"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="96"/>
-      <c r="J33" s="96"/>
+        <v>70</v>
+      </c>
+      <c r="H31" s="95">
+        <f>(96/4)*3</f>
+        <v>72</v>
+      </c>
+      <c r="I31" s="73">
+        <f t="shared" si="5"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="J31" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="L31" s="75"/>
+      <c r="Q31" s="75"/>
+    </row>
+    <row r="32" spans="5:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E32" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32" s="70" t="str">
+        <f>VLOOKUP(E32,Соответствие!$A$2:$B$14,2,FALSE)</f>
+        <v>SeachProduct</v>
+      </c>
+      <c r="G32" s="71">
+        <f>VLOOKUP(E32,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="H32" s="95">
+        <f>(177/4)*3</f>
+        <v>132.75</v>
+      </c>
+      <c r="I32" s="73">
+        <f t="shared" si="5"/>
+        <v>2.0715630885122405E-2</v>
+      </c>
+      <c r="J32" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="L32" s="75"/>
+      <c r="Q32" s="75"/>
+    </row>
+    <row r="33" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E33" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33" s="70" t="str">
+        <f>VLOOKUP(E33,Соответствие!$A$2:$B$14,2,FALSE)</f>
+        <v>ChooseProduct</v>
+      </c>
+      <c r="G33" s="71">
+        <f>VLOOKUP(E33,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
+        <v>186</v>
+      </c>
+      <c r="H33" s="95">
+        <f>(247/4)*3</f>
+        <v>185.25</v>
+      </c>
+      <c r="I33" s="73">
+        <f t="shared" si="5"/>
+        <v>-4.0485829959513442E-3</v>
+      </c>
+      <c r="J33" s="76" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="35" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E35" s="78" t="s">
+      <c r="E35" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="94"/>
+      <c r="G35" s="94"/>
+      <c r="H35" s="94"/>
+      <c r="I35" s="94"/>
+      <c r="J35" s="94"/>
+    </row>
+    <row r="36" spans="5:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E37" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="78" t="s">
+      <c r="F37" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="G35" s="78" t="s">
+      <c r="G37" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="H35" s="78" t="s">
+      <c r="H37" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="I35" s="78" t="s">
+      <c r="I37" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="78" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="5:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E36" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="F36" s="70" t="e">
-        <f>VLOOKUP(E36,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G36" s="71" t="e">
-        <f>VLOOKUP(E36,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H36" s="72">
-        <v>512</v>
-      </c>
-      <c r="I36" s="73" t="e">
-        <f>1-G36/H36</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J36" s="77" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E37" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="F37" s="70" t="str">
-        <f>VLOOKUP(E37,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>Login</v>
-      </c>
-      <c r="G37" s="71">
-        <f>VLOOKUP(E37,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>320</v>
-      </c>
-      <c r="H37" s="74">
-        <v>407</v>
-      </c>
-      <c r="I37" s="73">
-        <f t="shared" ref="I37:I38" si="4">1-G37/H37</f>
-        <v>0.21375921375921381</v>
-      </c>
       <c r="J37" s="77" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E38" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="F38" s="70" t="e">
+        <v>77</v>
+      </c>
+      <c r="F38" s="70" t="str">
         <f>VLOOKUP(E38,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G38" s="71" t="e">
+        <v>OpenLandingPage</v>
+      </c>
+      <c r="G38" s="71">
         <f>VLOOKUP(E38,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H38" s="69">
-        <v>290</v>
-      </c>
-      <c r="I38" s="73" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J38" s="77" t="s">
-        <v>83</v>
+        <v>520</v>
+      </c>
+      <c r="H38" s="72">
+        <v>540</v>
+      </c>
+      <c r="I38" s="73">
+        <f>1-G38/H38</f>
+        <v>3.703703703703709E-2</v>
+      </c>
+      <c r="J38" s="76" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E39" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="70" t="e">
+        <v>0</v>
+      </c>
+      <c r="F39" s="70" t="str">
         <f>VLOOKUP(E39,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G39" s="71" t="e">
+        <v>Login</v>
+      </c>
+      <c r="G39" s="71">
         <f>VLOOKUP(E39,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>320</v>
       </c>
       <c r="H39" s="74">
-        <v>290</v>
-      </c>
-      <c r="I39" s="73" t="e">
-        <f>1-G39/H39</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J39" s="77" t="s">
-        <v>83</v>
+        <v>324</v>
+      </c>
+      <c r="I39" s="73">
+        <f t="shared" ref="I39:I40" si="6">1-G39/H39</f>
+        <v>1.2345679012345734E-2</v>
+      </c>
+      <c r="J39" s="76" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E40" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" s="70" t="e">
+        <v>88</v>
+      </c>
+      <c r="F40" s="70" t="str">
         <f>VLOOKUP(E40,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G40" s="71" t="e">
+        <v>CheckoutUserData</v>
+      </c>
+      <c r="G40" s="71">
         <f>VLOOKUP(E40,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H40" s="74">
-        <v>264</v>
-      </c>
-      <c r="I40" s="73" t="e">
-        <f>1-G40/H40</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J40" s="77" t="s">
-        <v>83</v>
-      </c>
-      <c r="L40" s="76"/>
-      <c r="O40" s="76"/>
+        <v>55</v>
+      </c>
+      <c r="H40" s="69">
+        <v>55</v>
+      </c>
+      <c r="I40" s="73">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="L40" s="75"/>
+      <c r="O40" s="75"/>
     </row>
     <row r="41" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E41" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="F41" s="70" t="e">
+        <v>84</v>
+      </c>
+      <c r="F41" s="70" t="str">
         <f>VLOOKUP(E41,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G41" s="71" t="e">
+        <v>AddToCart</v>
+      </c>
+      <c r="G41" s="71">
         <f>VLOOKUP(E41,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>186</v>
       </c>
       <c r="H41" s="74">
-        <v>174</v>
-      </c>
-      <c r="I41" s="73" t="e">
-        <f t="shared" ref="I41:I42" si="5">1-G41/H41</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J41" s="77" t="s">
-        <v>83</v>
+        <v>183</v>
+      </c>
+      <c r="I41" s="73">
+        <f>1-G41/H41</f>
+        <v>-1.6393442622950838E-2</v>
+      </c>
+      <c r="J41" s="76" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E42" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="F42" s="70" t="e">
+        <v>81</v>
+      </c>
+      <c r="F42" s="70" t="str">
         <f>VLOOKUP(E42,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G42" s="71" t="e">
+        <v>ChooseCategory</v>
+      </c>
+      <c r="G42" s="71">
         <f>VLOOKUP(E42,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>317</v>
       </c>
       <c r="H42" s="74">
-        <v>278</v>
-      </c>
-      <c r="I42" s="73" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J42" s="77" t="s">
-        <v>83</v>
+        <v>320</v>
+      </c>
+      <c r="I42" s="73">
+        <f>1-G42/H42</f>
+        <v>9.3750000000000222E-3</v>
+      </c>
+      <c r="J42" s="76" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E43" s="68" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" s="70" t="e">
+      <c r="E43" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="F43" s="70" t="str">
         <f>VLOOKUP(E43,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G43" s="71" t="e">
+        <v>Payment</v>
+      </c>
+      <c r="G43" s="71">
         <f>VLOOKUP(E43,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>55</v>
       </c>
       <c r="H43" s="74">
-        <v>78</v>
-      </c>
-      <c r="I43" s="73" t="e">
-        <f>1-G43/H43</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J43" s="77" t="s">
-        <v>83</v>
+        <v>55</v>
+      </c>
+      <c r="I43" s="73">
+        <f t="shared" ref="I43:I44" si="7">1-G43/H43</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="76" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E44" s="59" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="F44" s="70" t="str">
         <f>VLOOKUP(E44,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>Logout</v>
+        <v>OpenCart</v>
       </c>
       <c r="G44" s="71">
         <f>VLOOKUP(E44,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="H44" s="74">
-        <v>309</v>
+        <v>95</v>
       </c>
       <c r="I44" s="73">
-        <f>1-G44/H44</f>
-        <v>0.3527508090614887</v>
-      </c>
-      <c r="J44" s="77" t="s">
-        <v>83</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="76" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E45" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="F45" s="70" t="str">
+        <f>VLOOKUP(E45,Соответствие!$A$2:$B$14,2,FALSE)</f>
+        <v>DeleteProduct</v>
+      </c>
+      <c r="G45" s="71">
+        <f>VLOOKUP(E45,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
         <v>41</v>
       </c>
-      <c r="F45" s="70" t="e">
-        <f>VLOOKUP(E45,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G45" s="71" t="e">
-        <f>VLOOKUP(E45,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H45" s="69">
-        <v>100</v>
-      </c>
-      <c r="I45" s="73" t="e">
-        <f t="shared" ref="I45:I47" si="6">1-G45/H45</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J45" s="77" t="s">
-        <v>83</v>
+      <c r="H45" s="74">
+        <v>42</v>
+      </c>
+      <c r="I45" s="73">
+        <f>1-G45/H45</f>
+        <v>2.3809523809523836E-2</v>
+      </c>
+      <c r="J45" s="76" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E46" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="F46" s="70" t="e">
+      <c r="E46" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="70" t="str">
         <f>VLOOKUP(E46,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G46" s="71" t="e">
+        <v>Logout</v>
+      </c>
+      <c r="G46" s="71">
         <f>VLOOKUP(E46,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H46" s="69">
-        <v>100</v>
-      </c>
-      <c r="I46" s="73" t="e">
-        <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J46" s="77" t="s">
-        <v>83</v>
-      </c>
-      <c r="L46" s="76"/>
-      <c r="O46" s="76"/>
+        <v>200</v>
+      </c>
+      <c r="H46" s="74">
+        <v>203</v>
+      </c>
+      <c r="I46" s="73">
+        <f>1-G46/H46</f>
+        <v>1.4778325123152691E-2</v>
+      </c>
+      <c r="J46" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="L46" s="75"/>
+      <c r="O46" s="75"/>
     </row>
     <row r="47" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E47" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="F47" s="70" t="e">
+        <v>78</v>
+      </c>
+      <c r="F47" s="70" t="str">
         <f>VLOOKUP(E47,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G47" s="71" t="e">
+        <v>OpenRegistrationPage</v>
+      </c>
+      <c r="G47" s="71">
         <f>VLOOKUP(E47,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>70</v>
       </c>
       <c r="H47" s="69">
-        <v>100</v>
-      </c>
-      <c r="I47" s="73" t="e">
-        <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J47" s="77" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="49" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E49" s="96" t="s">
-        <v>88</v>
-      </c>
-      <c r="F49" s="96"/>
-      <c r="G49" s="96"/>
-      <c r="H49" s="96"/>
-      <c r="I49" s="96"/>
-      <c r="J49" s="96"/>
-    </row>
-    <row r="51" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E51" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="I47" s="73">
+        <f t="shared" ref="I47:I50" si="8">1-G47/H47</f>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="J47" s="76" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E48" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="F48" s="70" t="str">
+        <f>VLOOKUP(E48,Соответствие!$A$2:$B$14,2,FALSE)</f>
+        <v>UserRegistered</v>
+      </c>
+      <c r="G48" s="71">
+        <f>VLOOKUP(E48,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="H48" s="69">
+        <v>72</v>
+      </c>
+      <c r="I48" s="73">
+        <f t="shared" si="8"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="J48" s="76" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E49" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" s="70" t="str">
+        <f>VLOOKUP(E49,Соответствие!$A$2:$B$14,2,FALSE)</f>
+        <v>SeachProduct</v>
+      </c>
+      <c r="G49" s="71">
+        <f>VLOOKUP(E49,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="H49" s="69">
+        <v>132</v>
+      </c>
+      <c r="I49" s="73">
+        <f t="shared" si="8"/>
+        <v>1.5151515151515138E-2</v>
+      </c>
+      <c r="J49" s="76" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E50" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="F50" s="70" t="str">
+        <f>VLOOKUP(E50,Соответствие!$A$2:$B$14,2,FALSE)</f>
+        <v>ChooseProduct</v>
+      </c>
+      <c r="G50" s="71">
+        <f>VLOOKUP(E50,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
+        <v>186</v>
+      </c>
+      <c r="H50" s="69">
+        <v>189</v>
+      </c>
+      <c r="I50" s="73">
+        <f t="shared" si="8"/>
+        <v>1.5873015873015928E-2</v>
+      </c>
+      <c r="J50" s="76" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E52" s="94" t="s">
+        <v>75</v>
+      </c>
+      <c r="F52" s="94"/>
+      <c r="G52" s="94"/>
+      <c r="H52" s="94"/>
+      <c r="I52" s="94"/>
+      <c r="J52" s="94"/>
+    </row>
+    <row r="54" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E54" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="F51" s="78" t="s">
+      <c r="F54" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="G51" s="78" t="s">
+      <c r="G54" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="H51" s="78" t="s">
+      <c r="H54" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="I51" s="78" t="s">
+      <c r="I54" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="J51" s="78" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="52" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E52" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="F52" s="70" t="e">
-        <f>VLOOKUP(E52,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G52" s="71" t="e">
-        <f>VLOOKUP(E52,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H52" s="72">
-        <f>(340/2)*3</f>
-        <v>510</v>
-      </c>
-      <c r="I52" s="73" t="e">
-        <f>1-G52/H52</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J52" s="77" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E53" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="F53" s="70" t="str">
-        <f>VLOOKUP(E53,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>Login</v>
-      </c>
-      <c r="G53" s="71">
-        <f>VLOOKUP(E53,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>320</v>
-      </c>
-      <c r="H53" s="74">
-        <f>(271/2)*3</f>
-        <v>406.5</v>
-      </c>
-      <c r="I53" s="73">
-        <f t="shared" ref="I53:I54" si="7">1-G53/H53</f>
-        <v>0.21279212792127922</v>
-      </c>
-      <c r="J53" s="77" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E54" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="F54" s="70" t="e">
-        <f>VLOOKUP(E54,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G54" s="71" t="e">
-        <f>VLOOKUP(E54,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H54" s="69">
-        <f>(194/2)*3</f>
-        <v>291</v>
-      </c>
-      <c r="I54" s="73" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
       <c r="J54" s="77" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E55" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="F55" s="70" t="e">
+        <v>77</v>
+      </c>
+      <c r="F55" s="70" t="str">
         <f>VLOOKUP(E55,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G55" s="71" t="e">
+        <v>OpenLandingPage</v>
+      </c>
+      <c r="G55" s="71">
         <f>VLOOKUP(E55,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H55" s="74">
-        <f>(192/2)*3</f>
-        <v>288</v>
-      </c>
-      <c r="I55" s="73" t="e">
+        <v>520</v>
+      </c>
+      <c r="H55" s="95">
+        <f>(360/2)*3</f>
+        <v>540</v>
+      </c>
+      <c r="I55" s="73">
         <f>1-G55/H55</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J55" s="77" t="s">
-        <v>83</v>
+        <v>3.703703703703709E-2</v>
+      </c>
+      <c r="J55" s="76" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E56" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="F56" s="70" t="e">
+        <v>0</v>
+      </c>
+      <c r="F56" s="70" t="str">
         <f>VLOOKUP(E56,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G56" s="71" t="e">
+        <v>Login</v>
+      </c>
+      <c r="G56" s="71">
         <f>VLOOKUP(E56,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H56" s="74">
-        <f>(175/2)*3</f>
-        <v>262.5</v>
-      </c>
-      <c r="I56" s="73" t="e">
-        <f>1-G56/H56</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J56" s="77" t="s">
-        <v>83</v>
+        <v>320</v>
+      </c>
+      <c r="H56" s="95">
+        <f>(218/2)*3</f>
+        <v>327</v>
+      </c>
+      <c r="I56" s="73">
+        <f t="shared" ref="I56:I57" si="9">1-G56/H56</f>
+        <v>2.1406727828746197E-2</v>
+      </c>
+      <c r="J56" s="76" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E57" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="F57" s="70" t="e">
+        <v>88</v>
+      </c>
+      <c r="F57" s="70" t="str">
         <f>VLOOKUP(E57,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G57" s="71" t="e">
+        <v>CheckoutUserData</v>
+      </c>
+      <c r="G57" s="71">
         <f>VLOOKUP(E57,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H57" s="74">
-        <f>(115/2)*3</f>
-        <v>172.5</v>
-      </c>
-      <c r="I57" s="73" t="e">
-        <f t="shared" ref="I57:I58" si="8">1-G57/H57</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J57" s="77" t="s">
-        <v>83</v>
+        <v>55</v>
+      </c>
+      <c r="H57" s="95">
+        <f>(40/2)*3</f>
+        <v>60</v>
+      </c>
+      <c r="I57" s="73">
+        <f t="shared" si="9"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="J57" s="76" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E58" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="F58" s="70" t="e">
+        <v>84</v>
+      </c>
+      <c r="F58" s="70" t="str">
         <f>VLOOKUP(E58,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G58" s="71" t="e">
+        <v>AddToCart</v>
+      </c>
+      <c r="G58" s="71">
         <f>VLOOKUP(E58,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H58" s="74">
-        <f>(183/2)*3</f>
-        <v>274.5</v>
-      </c>
-      <c r="I58" s="73" t="e">
-        <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J58" s="77" t="s">
-        <v>83</v>
+        <v>186</v>
+      </c>
+      <c r="H58" s="95">
+        <f>(127/2)*3</f>
+        <v>190.5</v>
+      </c>
+      <c r="I58" s="73">
+        <f>1-G58/H58</f>
+        <v>2.3622047244094446E-2</v>
+      </c>
+      <c r="J58" s="76" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E59" s="68" t="s">
-        <v>7</v>
-      </c>
-      <c r="F59" s="70" t="e">
+      <c r="E59" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="F59" s="70" t="str">
         <f>VLOOKUP(E59,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G59" s="71" t="e">
+        <v>ChooseCategory</v>
+      </c>
+      <c r="G59" s="71">
         <f>VLOOKUP(E59,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H59" s="74">
-        <f>(51/2)*3</f>
-        <v>76.5</v>
-      </c>
-      <c r="I59" s="73" t="e">
+        <v>317</v>
+      </c>
+      <c r="H59" s="95">
+        <f>(214/2)*3</f>
+        <v>321</v>
+      </c>
+      <c r="I59" s="73">
         <f>1-G59/H59</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J59" s="77" t="s">
-        <v>83</v>
+        <v>1.2461059190031154E-2</v>
+      </c>
+      <c r="J59" s="76" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E60" s="59" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="F60" s="70" t="str">
         <f>VLOOKUP(E60,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>Logout</v>
+        <v>Payment</v>
       </c>
       <c r="G60" s="71">
         <f>VLOOKUP(E60,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>200</v>
-      </c>
-      <c r="H60" s="74">
-        <f>(206/2)*3</f>
-        <v>309</v>
+        <v>55</v>
+      </c>
+      <c r="H60" s="95">
+        <f>(40/2)*3</f>
+        <v>60</v>
       </c>
       <c r="I60" s="73">
-        <f>1-G60/H60</f>
-        <v>0.3527508090614887</v>
-      </c>
-      <c r="J60" s="77" t="s">
-        <v>83</v>
+        <f t="shared" ref="I60:I61" si="10">1-G60/H60</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="J60" s="76" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E61" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="F61" s="70" t="e">
+      <c r="E61" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="F61" s="70" t="str">
         <f>VLOOKUP(E61,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G61" s="71" t="e">
+        <v>OpenCart</v>
+      </c>
+      <c r="G61" s="71">
         <f>VLOOKUP(E61,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H61" s="69">
-        <f>(67/2)*3</f>
-        <v>100.5</v>
-      </c>
-      <c r="I61" s="73" t="e">
-        <f t="shared" ref="I61:I63" si="9">1-G61/H61</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J61" s="77" t="s">
-        <v>83</v>
+        <v>95</v>
+      </c>
+      <c r="H61" s="95">
+        <f>(68/2)*3</f>
+        <v>102</v>
+      </c>
+      <c r="I61" s="73">
+        <f t="shared" si="10"/>
+        <v>6.8627450980392135E-2</v>
+      </c>
+      <c r="J61" s="76" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E62" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="F62" s="70" t="e">
+        <v>92</v>
+      </c>
+      <c r="F62" s="70" t="str">
         <f>VLOOKUP(E62,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G62" s="71" t="e">
+        <v>DeleteProduct</v>
+      </c>
+      <c r="G62" s="71">
         <f>VLOOKUP(E62,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H62" s="69">
-        <f>(67/2)*3</f>
-        <v>100.5</v>
-      </c>
-      <c r="I62" s="73" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J62" s="77" t="s">
-        <v>83</v>
+        <v>41</v>
+      </c>
+      <c r="H62" s="95">
+        <f>(28/2)*3</f>
+        <v>42</v>
+      </c>
+      <c r="I62" s="73">
+        <f>1-G62/H62</f>
+        <v>2.3809523809523836E-2</v>
+      </c>
+      <c r="J62" s="76" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E63" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="F63" s="70" t="e">
+      <c r="E63" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="70" t="str">
         <f>VLOOKUP(E63,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G63" s="71" t="e">
+        <v>Logout</v>
+      </c>
+      <c r="G63" s="71">
         <f>VLOOKUP(E63,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H63" s="69">
-        <f>(67/2)*3</f>
-        <v>100.5</v>
-      </c>
-      <c r="I63" s="73" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J63" s="77" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="65" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E65" s="96" t="s">
-        <v>82</v>
-      </c>
-      <c r="F65" s="96"/>
-      <c r="G65" s="96"/>
-      <c r="H65" s="96"/>
-      <c r="I65" s="96"/>
-      <c r="J65" s="96"/>
-    </row>
-    <row r="67" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E67" s="78" t="s">
+        <v>200</v>
+      </c>
+      <c r="H63" s="95">
+        <f>(135/2)*3</f>
+        <v>202.5</v>
+      </c>
+      <c r="I63" s="73">
+        <f>1-G63/H63</f>
+        <v>1.2345679012345734E-2</v>
+      </c>
+      <c r="J63" s="76" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E64" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="F64" s="70" t="str">
+        <f>VLOOKUP(E64,Соответствие!$A$2:$B$14,2,FALSE)</f>
+        <v>OpenRegistrationPage</v>
+      </c>
+      <c r="G64" s="71">
+        <f>VLOOKUP(E64,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="H64" s="95">
+        <f>(48/2)*3</f>
+        <v>72</v>
+      </c>
+      <c r="I64" s="73">
+        <f t="shared" ref="I64:I67" si="11">1-G64/H64</f>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="J64" s="76" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E65" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="F65" s="70" t="str">
+        <f>VLOOKUP(E65,Соответствие!$A$2:$B$14,2,FALSE)</f>
+        <v>UserRegistered</v>
+      </c>
+      <c r="G65" s="71">
+        <f>VLOOKUP(E65,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="H65" s="95">
+        <f>(48/2)*3</f>
+        <v>72</v>
+      </c>
+      <c r="I65" s="73">
+        <f t="shared" si="11"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="J65" s="76" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E66" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="F66" s="70" t="str">
+        <f>VLOOKUP(E66,Соответствие!$A$2:$B$14,2,FALSE)</f>
+        <v>SeachProduct</v>
+      </c>
+      <c r="G66" s="71">
+        <f>VLOOKUP(E66,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="H66" s="95">
+        <f>(90/2)*3</f>
+        <v>135</v>
+      </c>
+      <c r="I66" s="73">
+        <f t="shared" si="11"/>
+        <v>3.703703703703709E-2</v>
+      </c>
+      <c r="J66" s="76" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E67" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="F67" s="70" t="str">
+        <f>VLOOKUP(E67,Соответствие!$A$2:$B$14,2,FALSE)</f>
+        <v>ChooseProduct</v>
+      </c>
+      <c r="G67" s="71">
+        <f>VLOOKUP(E67,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
+        <v>186</v>
+      </c>
+      <c r="H67" s="95">
+        <f>(129/2)*3</f>
+        <v>193.5</v>
+      </c>
+      <c r="I67" s="73">
+        <f t="shared" si="11"/>
+        <v>3.8759689922480578E-2</v>
+      </c>
+      <c r="J67" s="76" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E69" s="94" t="s">
+        <v>69</v>
+      </c>
+      <c r="F69" s="94"/>
+      <c r="G69" s="94"/>
+      <c r="H69" s="94"/>
+      <c r="I69" s="94"/>
+      <c r="J69" s="94"/>
+    </row>
+    <row r="71" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E71" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="F67" s="78" t="s">
+      <c r="F71" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="G67" s="78" t="s">
+      <c r="G71" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="H67" s="78" t="s">
+      <c r="H71" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="I67" s="78" t="s">
+      <c r="I71" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="J67" s="78" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="68" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E68" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="F68" s="70" t="e">
-        <f>VLOOKUP(E68,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G68" s="71" t="e">
-        <f>VLOOKUP(E68,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H68" s="72">
-        <f>183*3</f>
-        <v>549</v>
-      </c>
-      <c r="I68" s="73" t="e">
-        <f>1-G68/H68</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J68" s="77" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E69" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="F69" s="70" t="str">
-        <f>VLOOKUP(E69,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>Login</v>
-      </c>
-      <c r="G69" s="71">
-        <f>VLOOKUP(E69,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>320</v>
-      </c>
-      <c r="H69" s="74">
-        <f>146*3</f>
-        <v>438</v>
-      </c>
-      <c r="I69" s="73">
-        <f t="shared" ref="I69:I70" si="10">1-G69/H69</f>
-        <v>0.26940639269406397</v>
-      </c>
-      <c r="J69" s="77" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E70" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="F70" s="70" t="e">
-        <f>VLOOKUP(E70,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G70" s="71" t="e">
-        <f>VLOOKUP(E70,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H70" s="69">
-        <f>103*3</f>
-        <v>309</v>
-      </c>
-      <c r="I70" s="73" t="e">
-        <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J70" s="77" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E71" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="F71" s="70" t="e">
-        <f>VLOOKUP(E71,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G71" s="71" t="e">
-        <f>VLOOKUP(E71,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H71" s="74">
-        <f>101*3</f>
-        <v>303</v>
-      </c>
-      <c r="I71" s="73" t="e">
-        <f>1-G71/H71</f>
-        <v>#N/A</v>
-      </c>
       <c r="J71" s="77" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E72" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="F72" s="70" t="e">
+        <v>77</v>
+      </c>
+      <c r="F72" s="70" t="str">
         <f>VLOOKUP(E72,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G72" s="71" t="e">
+        <v>OpenLandingPage</v>
+      </c>
+      <c r="G72" s="71">
         <f>VLOOKUP(E72,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H72" s="74">
-        <f>91*3</f>
-        <v>273</v>
-      </c>
-      <c r="I72" s="73" t="e">
+        <v>520</v>
+      </c>
+      <c r="H72" s="72">
+        <f>182*3</f>
+        <v>546</v>
+      </c>
+      <c r="I72" s="73">
         <f>1-G72/H72</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J72" s="77" t="s">
-        <v>83</v>
+        <v>4.7619047619047672E-2</v>
+      </c>
+      <c r="J72" s="76" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E73" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="F73" s="70" t="e">
+        <v>0</v>
+      </c>
+      <c r="F73" s="70" t="str">
         <f>VLOOKUP(E73,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G73" s="71" t="e">
+        <v>Login</v>
+      </c>
+      <c r="G73" s="71">
         <f>VLOOKUP(E73,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>320</v>
       </c>
       <c r="H73" s="74">
-        <f>60*3</f>
-        <v>180</v>
-      </c>
-      <c r="I73" s="73" t="e">
-        <f t="shared" ref="I73:I74" si="11">1-G73/H73</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J73" s="77" t="s">
-        <v>83</v>
+        <f>112*3</f>
+        <v>336</v>
+      </c>
+      <c r="I73" s="73">
+        <f t="shared" ref="I73:I74" si="12">1-G73/H73</f>
+        <v>4.7619047619047672E-2</v>
+      </c>
+      <c r="J73" s="76" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E74" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="F74" s="70" t="e">
+        <v>88</v>
+      </c>
+      <c r="F74" s="70" t="str">
         <f>VLOOKUP(E74,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G74" s="71" t="e">
+        <v>CheckoutUserData</v>
+      </c>
+      <c r="G74" s="71">
         <f>VLOOKUP(E74,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H74" s="74">
-        <f>102*3</f>
-        <v>306</v>
-      </c>
-      <c r="I74" s="73" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J74" s="77" t="s">
-        <v>83</v>
+        <v>55</v>
+      </c>
+      <c r="H74" s="69">
+        <f>20*3</f>
+        <v>60</v>
+      </c>
+      <c r="I74" s="73">
+        <f t="shared" si="12"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="J74" s="76" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E75" s="68" t="s">
-        <v>7</v>
-      </c>
-      <c r="F75" s="70" t="e">
+      <c r="E75" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="F75" s="70" t="str">
         <f>VLOOKUP(E75,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G75" s="71" t="e">
+        <v>AddToCart</v>
+      </c>
+      <c r="G75" s="71">
         <f>VLOOKUP(E75,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>186</v>
       </c>
       <c r="H75" s="74">
-        <f>30*3</f>
-        <v>90</v>
-      </c>
-      <c r="I75" s="73" t="e">
+        <f>64*3</f>
+        <v>192</v>
+      </c>
+      <c r="I75" s="73">
         <f>1-G75/H75</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J75" s="77" t="s">
-        <v>83</v>
+        <v>3.125E-2</v>
+      </c>
+      <c r="J75" s="76" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="76" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E76" s="59" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="F76" s="70" t="str">
         <f>VLOOKUP(E76,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>Logout</v>
+        <v>ChooseCategory</v>
       </c>
       <c r="G76" s="71">
         <f>VLOOKUP(E76,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="H76" s="74">
-        <f>108*3</f>
-        <v>324</v>
+        <f>110*3</f>
+        <v>330</v>
       </c>
       <c r="I76" s="73">
         <f>1-G76/H76</f>
-        <v>0.38271604938271608</v>
-      </c>
-      <c r="J76" s="77" t="s">
-        <v>83</v>
+        <v>3.9393939393939426E-2</v>
+      </c>
+      <c r="J76" s="76" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E77" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="F77" s="70" t="e">
+      <c r="E77" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="F77" s="70" t="str">
         <f>VLOOKUP(E77,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G77" s="71" t="e">
+        <v>Payment</v>
+      </c>
+      <c r="G77" s="71">
         <f>VLOOKUP(E77,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H77" s="69">
-        <f>36*3</f>
-        <v>108</v>
-      </c>
-      <c r="I77" s="73" t="e">
-        <f t="shared" ref="I77:I79" si="12">1-G77/H77</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J77" s="77" t="s">
-        <v>83</v>
+        <v>55</v>
+      </c>
+      <c r="H77" s="74">
+        <f>20*3</f>
+        <v>60</v>
+      </c>
+      <c r="I77" s="73">
+        <f t="shared" ref="I77:I78" si="13">1-G77/H77</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="J77" s="76" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E78" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="F78" s="70" t="e">
+      <c r="E78" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="F78" s="70" t="str">
         <f>VLOOKUP(E78,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G78" s="71" t="e">
+        <v>OpenCart</v>
+      </c>
+      <c r="G78" s="71">
         <f>VLOOKUP(E78,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H78" s="69">
-        <f t="shared" ref="H78" si="13">36*3</f>
-        <v>108</v>
-      </c>
-      <c r="I78" s="73" t="e">
-        <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J78" s="77" t="s">
-        <v>83</v>
+        <v>95</v>
+      </c>
+      <c r="H78" s="74">
+        <f>34*3</f>
+        <v>102</v>
+      </c>
+      <c r="I78" s="73">
+        <f t="shared" si="13"/>
+        <v>6.8627450980392135E-2</v>
+      </c>
+      <c r="J78" s="76" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="79" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E79" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="F79" s="70" t="str">
+        <f>VLOOKUP(E79,Соответствие!$A$2:$B$14,2,FALSE)</f>
+        <v>DeleteProduct</v>
+      </c>
+      <c r="G79" s="71">
+        <f>VLOOKUP(E79,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
+        <v>41</v>
+      </c>
+      <c r="H79" s="74">
+        <f>14*3</f>
         <v>42</v>
       </c>
-      <c r="F79" s="70" t="e">
-        <f>VLOOKUP(E79,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G79" s="71" t="e">
-        <f>VLOOKUP(E79,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H79" s="69">
-        <f>35*3</f>
-        <v>105</v>
-      </c>
-      <c r="I79" s="73" t="e">
-        <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J79" s="77" t="s">
-        <v>83</v>
+      <c r="I79" s="73">
+        <f>1-G79/H79</f>
+        <v>2.3809523809523836E-2</v>
+      </c>
+      <c r="J79" s="76" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="80" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H80" s="79"/>
+      <c r="E80" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F80" s="70" t="str">
+        <f>VLOOKUP(E80,Соответствие!$A$2:$B$14,2,FALSE)</f>
+        <v>Logout</v>
+      </c>
+      <c r="G80" s="71">
+        <f>VLOOKUP(E80,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
+        <v>200</v>
+      </c>
+      <c r="H80" s="74">
+        <f>68*3</f>
+        <v>204</v>
+      </c>
+      <c r="I80" s="73">
+        <f>1-G80/H80</f>
+        <v>1.9607843137254943E-2</v>
+      </c>
+      <c r="J80" s="76" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="81" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E81" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="F81" s="70" t="str">
+        <f>VLOOKUP(E81,Соответствие!$A$2:$B$14,2,FALSE)</f>
+        <v>OpenRegistrationPage</v>
+      </c>
+      <c r="G81" s="71">
+        <f>VLOOKUP(E81,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="H81" s="69">
+        <f>24*3</f>
+        <v>72</v>
+      </c>
+      <c r="I81" s="73">
+        <f t="shared" ref="I81:I84" si="14">1-G81/H81</f>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="J81" s="76" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="82" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E82" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="F82" s="70" t="str">
+        <f>VLOOKUP(E82,Соответствие!$A$2:$B$14,2,FALSE)</f>
+        <v>UserRegistered</v>
+      </c>
+      <c r="G82" s="71">
+        <f>VLOOKUP(E82,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="H82" s="69">
+        <f>24*3</f>
+        <v>72</v>
+      </c>
+      <c r="I82" s="73">
+        <f t="shared" si="14"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="J82" s="76" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="83" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E83" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="F83" s="70" t="str">
+        <f>VLOOKUP(E83,Соответствие!$A$2:$B$14,2,FALSE)</f>
+        <v>SeachProduct</v>
+      </c>
+      <c r="G83" s="71">
+        <f>VLOOKUP(E83,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="H83" s="69">
+        <f>45*3</f>
+        <v>135</v>
+      </c>
+      <c r="I83" s="73">
+        <f t="shared" si="14"/>
+        <v>3.703703703703709E-2</v>
+      </c>
+      <c r="J83" s="76" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="84" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E84" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="F84" s="70" t="str">
+        <f>VLOOKUP(E84,Соответствие!$A$2:$B$14,2,FALSE)</f>
+        <v>ChooseProduct</v>
+      </c>
+      <c r="G84" s="71">
+        <f>VLOOKUP(E84,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
+        <v>186</v>
+      </c>
+      <c r="H84" s="69">
+        <f>66*3</f>
+        <v>198</v>
+      </c>
+      <c r="I84" s="73">
+        <f t="shared" si="14"/>
+        <v>6.0606060606060552E-2</v>
+      </c>
+      <c r="J84" s="76" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E49:J49"/>
-    <mergeCell ref="E65:J65"/>
     <mergeCell ref="E1:J1"/>
-    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="E69:J69"/>
   </mergeCells>
-  <conditionalFormatting sqref="I4:I15">
-    <cfRule type="cellIs" dxfId="28" priority="76" operator="lessThan">
+  <conditionalFormatting sqref="I72:I84">
+    <cfRule type="cellIs" dxfId="28" priority="19" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I31">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36:I47">
-    <cfRule type="cellIs" dxfId="26" priority="21" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I52:I63">
-    <cfRule type="cellIs" dxfId="25" priority="14" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I68:I79">
-    <cfRule type="cellIs" dxfId="24" priority="7" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J15">
-    <cfRule type="cellIs" dxfId="23" priority="29" operator="equal">
+  <conditionalFormatting sqref="J72:J84">
+    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="70" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",J4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20:J31">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="23" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",J20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J36:J47">
-    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="16" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",J36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52:J63">
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",J52)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J68:J79">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",J68)))</formula>
+    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",J72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7:L10">
-    <cfRule type="cellIs" dxfId="13" priority="79" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="91" operator="lessThan">
       <formula>-5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:L24 Q21:Q24 L31:L32 Q31:Q32">
-    <cfRule type="cellIs" dxfId="12" priority="67" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="79" operator="lessThan">
       <formula>-5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L40 O40 L46 O46">
-    <cfRule type="cellIs" dxfId="11" priority="60" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="72" operator="lessThan">
       <formula>-5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:I16">
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J16">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",J4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21:I33">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21:J33">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",J21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38:I50">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J38:J50">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",J38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55:I67">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J55:J67">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",J55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7738,7 +7847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC37186-D6E2-4BF3-B195-7C599BE8A61C}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -7753,33 +7862,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
+      <c r="A1" s="94" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="78" t="s">
-        <v>85</v>
+      <c r="F3" s="77" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -7801,8 +7910,8 @@
         <f>1-C4/D4</f>
         <v>#N/A</v>
       </c>
-      <c r="F4" s="77" t="s">
-        <v>83</v>
+      <c r="F4" s="76" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -7824,8 +7933,8 @@
         <f t="shared" ref="E5:E6" si="0">1-C5/D5</f>
         <v>0.24882629107981225</v>
       </c>
-      <c r="F5" s="77" t="s">
-        <v>83</v>
+      <c r="F5" s="76" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -7847,8 +7956,8 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="F6" s="77" t="s">
-        <v>83</v>
+      <c r="F6" s="76" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -7870,8 +7979,8 @@
         <f>1-C7/D7</f>
         <v>#N/A</v>
       </c>
-      <c r="F7" s="77" t="s">
-        <v>83</v>
+      <c r="F7" s="76" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -7893,8 +8002,8 @@
         <f>1-C8/D8</f>
         <v>#N/A</v>
       </c>
-      <c r="F8" s="77" t="s">
-        <v>83</v>
+      <c r="F8" s="76" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -7916,8 +8025,8 @@
         <f t="shared" ref="E9:E10" si="1">1-C9/D9</f>
         <v>#N/A</v>
       </c>
-      <c r="F9" s="77" t="s">
-        <v>83</v>
+      <c r="F9" s="76" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -7939,8 +8048,8 @@
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="F10" s="77" t="s">
-        <v>83</v>
+      <c r="F10" s="76" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -7962,8 +8071,8 @@
         <f>1-C11/D11</f>
         <v>#N/A</v>
       </c>
-      <c r="F11" s="77" t="s">
-        <v>83</v>
+      <c r="F11" s="76" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -7985,8 +8094,8 @@
         <f>1-C12/D12</f>
         <v>0.36808846761453395</v>
       </c>
-      <c r="F12" s="77" t="s">
-        <v>83</v>
+      <c r="F12" s="76" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -8008,8 +8117,8 @@
         <f t="shared" ref="E13:E15" si="2">1-C13/D13</f>
         <v>#N/A</v>
       </c>
-      <c r="F13" s="77" t="s">
-        <v>83</v>
+      <c r="F13" s="76" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -8031,8 +8140,8 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="F14" s="77" t="s">
-        <v>83</v>
+      <c r="F14" s="76" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -8054,8 +8163,8 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="F15" s="77" t="s">
-        <v>83</v>
+      <c r="F15" s="76" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -8063,15 +8172,15 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E15">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F15">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",F4)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Документы/AdvantageShoping_Профиль.xlsx
+++ b/Документы/AdvantageShoping_Профиль.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Programs\Itogovoe\Документы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FF3C21-07BB-4B4A-8B3D-AB784D3DF21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D792896F-61C6-441F-9553-C402022DD610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Автоматизированный расчет" sheetId="3" r:id="rId1"/>
@@ -821,12 +821,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1867,87 +1875,87 @@
   </borders>
   <cellStyleXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1957,20 +1965,20 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="38" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
@@ -1992,31 +2000,31 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="42" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="32" fillId="42" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="42" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="33" fillId="42" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="37" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -2026,14 +2034,14 @@
     <xf numFmtId="1" fontId="0" fillId="35" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="40" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2047,41 +2055,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="37" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="38" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="42" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="42" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="43" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2097,7 +2105,8 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="80">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2181,127 +2190,7 @@
     <cellStyle name="Текст предупреждения" xfId="15" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="40">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="28">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2501,22 +2390,22 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.000"/>
+      <numFmt numFmtId="165" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="0.0000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000"/>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2978,25 +2867,25 @@
     <dataField name="Сумма по полю Итого" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="39">
+    <format dxfId="27">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="26">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="25">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="24">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="23">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="22">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="21">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -3277,8 +3166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z70"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3435,10 +3324,10 @@
         <f t="shared" ref="T2:T7" si="2">60/(Q2)</f>
         <v>0.46153846153846156</v>
       </c>
-      <c r="U2" s="85">
+      <c r="U2" s="84">
         <v>20</v>
       </c>
-      <c r="V2" s="86">
+      <c r="V2" s="85">
         <f>ROUND(R2*T2*U2,0)</f>
         <v>18</v>
       </c>
@@ -3473,7 +3362,7 @@
         <v>130</v>
       </c>
       <c r="F3" s="4">
-        <f t="shared" ref="F3:F11" si="4">60/E3*C3</f>
+        <f t="shared" ref="F3" si="4">60/E3*C3</f>
         <v>0.46153846153846156</v>
       </c>
       <c r="G3">
@@ -3518,10 +3407,10 @@
         <f t="shared" si="2"/>
         <v>0.68181818181818177</v>
       </c>
-      <c r="U3" s="85">
+      <c r="U3" s="84">
         <v>20</v>
       </c>
-      <c r="V3" s="86">
+      <c r="V3" s="85">
         <f>ROUND(R3*T3*U3,0)</f>
         <v>14</v>
       </c>
@@ -3553,7 +3442,7 @@
         <v>130</v>
       </c>
       <c r="F4" s="4">
-        <f>60/E4*C4</f>
+        <f t="shared" ref="F4:F12" si="9">60/E4*C4</f>
         <v>0.46153846153846156</v>
       </c>
       <c r="G4">
@@ -3598,10 +3487,10 @@
         <f t="shared" si="2"/>
         <v>1.1764705882352942</v>
       </c>
-      <c r="U4" s="85">
+      <c r="U4" s="84">
         <v>20</v>
       </c>
-      <c r="V4" s="86">
+      <c r="V4" s="85">
         <f>ROUND(R4*T4*U4,0)</f>
         <v>24</v>
       </c>
@@ -3633,7 +3522,7 @@
         <v>130</v>
       </c>
       <c r="F5" s="4">
-        <f>60/E5*C5</f>
+        <f t="shared" si="9"/>
         <v>0.46153846153846156</v>
       </c>
       <c r="G5">
@@ -3678,10 +3567,10 @@
         <f t="shared" si="2"/>
         <v>1.0909090909090908</v>
       </c>
-      <c r="U5" s="85">
+      <c r="U5" s="84">
         <v>20</v>
       </c>
-      <c r="V5" s="86">
+      <c r="V5" s="85">
         <f>ROUND(R5*T5*U5,0)</f>
         <v>44</v>
       </c>
@@ -3713,7 +3602,7 @@
         <v>130</v>
       </c>
       <c r="F6" s="4">
-        <f>60/E6*C6</f>
+        <f t="shared" si="9"/>
         <v>0.46153846153846156</v>
       </c>
       <c r="G6">
@@ -3758,10 +3647,10 @@
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="U6" s="85">
+      <c r="U6" s="84">
         <v>20</v>
       </c>
-      <c r="V6" s="86">
+      <c r="V6" s="85">
         <f>ROUND(R6*T6*U6,0)</f>
         <v>30</v>
       </c>
@@ -3793,7 +3682,7 @@
         <v>130</v>
       </c>
       <c r="F7" s="4">
-        <f>60/E7*C7</f>
+        <f t="shared" si="9"/>
         <v>0.46153846153846156</v>
       </c>
       <c r="G7">
@@ -3838,10 +3727,10 @@
         <f t="shared" si="2"/>
         <v>1.0909090909090908</v>
       </c>
-      <c r="U7" s="85">
+      <c r="U7" s="84">
         <v>20</v>
       </c>
-      <c r="V7" s="86">
+      <c r="V7" s="85">
         <f>SUM(V2:V6)</f>
         <v>130</v>
       </c>
@@ -3873,7 +3762,7 @@
         <v>130</v>
       </c>
       <c r="F8" s="4">
-        <f>60/E8*C8</f>
+        <f t="shared" si="9"/>
         <v>0.46153846153846156</v>
       </c>
       <c r="G8">
@@ -3916,7 +3805,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="55">
-        <f t="shared" ref="D9:D11" si="9">VLOOKUP(A9,$M$1:$X$8,6,FALSE)</f>
+        <f t="shared" ref="D9:D11" si="10">VLOOKUP(A9,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="E9">
@@ -3924,7 +3813,7 @@
         <v>130</v>
       </c>
       <c r="F9" s="4">
-        <f>60/E9*C9</f>
+        <f t="shared" si="9"/>
         <v>0.46153846153846156</v>
       </c>
       <c r="G9">
@@ -3943,7 +3832,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="87" t="s">
         <v>43</v>
       </c>
       <c r="B10" s="37" t="s">
@@ -3953,7 +3842,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="55">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="E10">
@@ -3961,7 +3850,7 @@
         <v>55</v>
       </c>
       <c r="F10" s="4">
-        <f>60/E10*C10</f>
+        <f t="shared" si="9"/>
         <v>1.0909090909090908</v>
       </c>
       <c r="G10">
@@ -3981,7 +3870,7 @@
       <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="87" t="s">
+      <c r="A11" s="86" t="s">
         <v>43</v>
       </c>
       <c r="B11" s="37" t="s">
@@ -3991,7 +3880,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="55">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="E11">
@@ -3999,7 +3888,7 @@
         <v>55</v>
       </c>
       <c r="F11" s="4">
-        <f>60/E11*C11</f>
+        <f t="shared" si="9"/>
         <v>1.0909090909090908</v>
       </c>
       <c r="G11">
@@ -4019,33 +3908,33 @@
       <c r="P11" s="3"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="88" t="s">
         <v>81</v>
       </c>
       <c r="C12" s="53">
         <v>1</v>
       </c>
       <c r="D12" s="55">
-        <f t="shared" ref="D12:D19" si="10">VLOOKUP(A12,$M$1:$X$8,6,FALSE)</f>
+        <f t="shared" ref="D12:D19" si="11">VLOOKUP(A12,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="E12">
-        <f t="shared" ref="E12:E19" si="11">VLOOKUP(A12,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" ref="E12:E19" si="12">VLOOKUP(A12,$M$1:$X$8,5,FALSE)</f>
         <v>55</v>
       </c>
       <c r="F12" s="4">
-        <f>60/E12*C12</f>
+        <f t="shared" si="9"/>
         <v>1.0909090909090908</v>
       </c>
       <c r="G12">
-        <f t="shared" ref="G12:G19" si="12">VLOOKUP(A12,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" ref="G12:G19" si="13">VLOOKUP(A12,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" ref="H12:H19" si="13">D12*F12*G12</f>
+        <f t="shared" ref="H12:H19" si="14">D12*F12*G12</f>
         <v>43.636363636363633</v>
       </c>
       <c r="I12" s="2" t="s">
@@ -4057,7 +3946,7 @@
       <c r="P12" s="3"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="87" t="s">
+      <c r="A13" s="86" t="s">
         <v>43</v>
       </c>
       <c r="B13" s="37" t="s">
@@ -4067,23 +3956,23 @@
         <v>1</v>
       </c>
       <c r="D13" s="55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="E13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>55</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" ref="F12:F19" si="14">60/E13*C13</f>
+        <f t="shared" ref="F13:F19" si="15">60/E13*C13</f>
         <v>1.0909090909090908</v>
       </c>
       <c r="G13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43.636363636363633</v>
       </c>
       <c r="I13" s="2" t="s">
@@ -4095,33 +3984,33 @@
       <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="82" t="s">
         <v>77</v>
       </c>
       <c r="C14" s="53">
         <v>1</v>
       </c>
       <c r="D14" s="56">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>51</v>
       </c>
       <c r="F14" s="4">
+        <f t="shared" si="15"/>
+        <v>1.1764705882352942</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="H14" s="3">
         <f t="shared" si="14"/>
-        <v>1.1764705882352942</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="H14" s="3">
-        <f t="shared" si="13"/>
         <v>23.529411764705884</v>
       </c>
       <c r="I14" s="2" t="s">
@@ -4143,23 +4032,23 @@
         <v>1</v>
       </c>
       <c r="D15" s="54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>51</v>
       </c>
       <c r="F15" s="4">
+        <f t="shared" si="15"/>
+        <v>1.1764705882352942</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="H15" s="3">
         <f t="shared" si="14"/>
-        <v>1.1764705882352942</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="H15" s="3">
-        <f t="shared" si="13"/>
         <v>23.529411764705884</v>
       </c>
       <c r="I15" s="2" t="s">
@@ -4171,7 +4060,7 @@
       <c r="P15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="84" t="s">
+      <c r="A16" s="83" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="37" t="s">
@@ -4181,29 +4070,29 @@
         <v>1</v>
       </c>
       <c r="D16" s="54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>51</v>
       </c>
       <c r="F16" s="4">
+        <f t="shared" si="15"/>
+        <v>1.1764705882352942</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="H16" s="3">
         <f t="shared" si="14"/>
-        <v>1.1764705882352942</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="H16" s="3">
-        <f t="shared" si="13"/>
         <v>23.529411764705884</v>
       </c>
       <c r="P16" s="3"/>
     </row>
     <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="84" t="s">
+      <c r="A17" s="83" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="37" t="s">
@@ -4213,28 +4102,28 @@
         <v>1</v>
       </c>
       <c r="D17" s="55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>51</v>
       </c>
       <c r="F17" s="4">
+        <f t="shared" si="15"/>
+        <v>1.1764705882352942</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="H17" s="3">
         <f t="shared" si="14"/>
-        <v>1.1764705882352942</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="H17" s="3">
-        <f t="shared" si="13"/>
         <v>23.529411764705884</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="81" t="s">
+      <c r="A18" s="96" t="s">
         <v>97</v>
       </c>
       <c r="B18" s="37" t="s">
@@ -4244,23 +4133,23 @@
         <v>1</v>
       </c>
       <c r="D18" s="54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>88</v>
       </c>
       <c r="F18" s="4">
+        <f t="shared" si="15"/>
+        <v>0.68181818181818177</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="H18" s="3">
         <f t="shared" si="14"/>
-        <v>0.68181818181818177</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="H18" s="3">
-        <f t="shared" si="13"/>
         <v>13.636363636363635</v>
       </c>
       <c r="O18" s="3"/>
@@ -4278,23 +4167,23 @@
         <v>1</v>
       </c>
       <c r="D19" s="54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>88</v>
       </c>
       <c r="F19" s="4">
+        <f t="shared" si="15"/>
+        <v>0.68181818181818177</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="H19" s="3">
         <f t="shared" si="14"/>
-        <v>0.68181818181818177</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="H19" s="3">
-        <f t="shared" si="13"/>
         <v>13.636363636363635</v>
       </c>
       <c r="P19" s="3"/>
@@ -4310,23 +4199,23 @@
         <v>1</v>
       </c>
       <c r="D20" s="54">
-        <f t="shared" ref="D20:D22" si="15">VLOOKUP(A20,$M$1:$X$8,6,FALSE)</f>
+        <f t="shared" ref="D20:D22" si="16">VLOOKUP(A20,$M$1:$X$8,6,FALSE)</f>
         <v>1</v>
       </c>
       <c r="E20">
-        <f t="shared" ref="E20:E22" si="16">VLOOKUP(A20,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" ref="E20:E22" si="17">VLOOKUP(A20,$M$1:$X$8,5,FALSE)</f>
         <v>88</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" ref="F20:F23" si="17">60/E20*C20</f>
+        <f t="shared" ref="F20:F23" si="18">60/E20*C20</f>
         <v>0.68181818181818177</v>
       </c>
       <c r="G20">
-        <f t="shared" ref="G20:G22" si="18">VLOOKUP(A20,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" ref="G20:G22" si="19">VLOOKUP(A20,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" ref="H20:H22" si="19">D20*F20*G20</f>
+        <f t="shared" ref="H20:H22" si="20">D20*F20*G20</f>
         <v>13.636363636363635</v>
       </c>
       <c r="P20" s="3"/>
@@ -4342,23 +4231,23 @@
         <v>1</v>
       </c>
       <c r="D21" s="54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>88</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.68181818181818177</v>
       </c>
       <c r="G21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>13.636363636363635</v>
       </c>
     </row>
@@ -4373,23 +4262,23 @@
         <v>1</v>
       </c>
       <c r="D22" s="54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>88</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.68181818181818177</v>
       </c>
       <c r="G22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>13.636363636363635</v>
       </c>
       <c r="P22" s="3"/>
@@ -4405,23 +4294,23 @@
         <v>1</v>
       </c>
       <c r="D23" s="54">
-        <f t="shared" ref="D23:D31" si="20">VLOOKUP(A23,$M$1:$X$8,6,FALSE)</f>
+        <f t="shared" ref="D23:D31" si="21">VLOOKUP(A23,$M$1:$X$8,6,FALSE)</f>
         <v>1</v>
       </c>
       <c r="E23">
-        <f t="shared" ref="E23:E31" si="21">VLOOKUP(A23,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" ref="E23:E31" si="22">VLOOKUP(A23,$M$1:$X$8,5,FALSE)</f>
         <v>88</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.68181818181818177</v>
       </c>
       <c r="G23">
-        <f t="shared" ref="G23:G31" si="22">VLOOKUP(A23,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" ref="G23:G31" si="23">VLOOKUP(A23,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" ref="H23:H31" si="23">D23*F23*G23</f>
+        <f t="shared" ref="H23:H31" si="24">D23*F23*G23</f>
         <v>13.636363636363635</v>
       </c>
       <c r="P23" s="3"/>
@@ -4437,29 +4326,29 @@
         <v>1</v>
       </c>
       <c r="D24" s="54">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>88</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" ref="F24:F31" si="24">60/E24*C24</f>
+        <f t="shared" ref="F24:F31" si="25">60/E24*C24</f>
         <v>0.68181818181818177</v>
       </c>
       <c r="G24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>20</v>
       </c>
       <c r="H24" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>13.636363636363635</v>
       </c>
       <c r="P24" s="3"/>
     </row>
     <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="87" t="s">
+      <c r="A25" s="86" t="s">
         <v>98</v>
       </c>
       <c r="B25" s="37" t="s">
@@ -4469,23 +4358,23 @@
         <v>1</v>
       </c>
       <c r="D25" s="54">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="E25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>55</v>
       </c>
       <c r="F25" s="4">
+        <f t="shared" si="25"/>
+        <v>1.0909090909090908</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="23"/>
+        <v>20</v>
+      </c>
+      <c r="H25" s="3">
         <f t="shared" si="24"/>
-        <v>1.0909090909090908</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="22"/>
-        <v>20</v>
-      </c>
-      <c r="H25" s="3">
-        <f t="shared" si="23"/>
         <v>43.636363636363633</v>
       </c>
       <c r="I25" s="52"/>
@@ -4493,7 +4382,7 @@
       <c r="P25" s="3"/>
     </row>
     <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="87" t="s">
+      <c r="A26" s="86" t="s">
         <v>98</v>
       </c>
       <c r="B26" s="37" t="s">
@@ -4503,28 +4392,28 @@
         <v>1</v>
       </c>
       <c r="D26" s="54">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="E26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>55</v>
       </c>
       <c r="F26" s="4">
+        <f t="shared" si="25"/>
+        <v>1.0909090909090908</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="23"/>
+        <v>20</v>
+      </c>
+      <c r="H26" s="3">
         <f t="shared" si="24"/>
-        <v>1.0909090909090908</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="22"/>
-        <v>20</v>
-      </c>
-      <c r="H26" s="3">
-        <f t="shared" si="23"/>
         <v>43.636363636363633</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="81" t="s">
+      <c r="A27" s="96" t="s">
         <v>84</v>
       </c>
       <c r="B27" s="37" t="s">
@@ -4534,23 +4423,23 @@
         <v>1</v>
       </c>
       <c r="D27" s="54">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="E27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>80</v>
       </c>
       <c r="F27" s="4">
+        <f t="shared" si="25"/>
+        <v>0.75</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="23"/>
+        <v>20</v>
+      </c>
+      <c r="H27" s="3">
         <f t="shared" si="24"/>
-        <v>0.75</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="22"/>
-        <v>20</v>
-      </c>
-      <c r="H27" s="3">
-        <f t="shared" si="23"/>
         <v>30</v>
       </c>
     </row>
@@ -4565,23 +4454,23 @@
         <v>1</v>
       </c>
       <c r="D28" s="54">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="E28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>80</v>
       </c>
       <c r="F28" s="4">
+        <f t="shared" si="25"/>
+        <v>0.75</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="23"/>
+        <v>20</v>
+      </c>
+      <c r="H28" s="3">
         <f t="shared" si="24"/>
-        <v>0.75</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="22"/>
-        <v>20</v>
-      </c>
-      <c r="H28" s="3">
-        <f t="shared" si="23"/>
         <v>30</v>
       </c>
     </row>
@@ -4596,23 +4485,23 @@
         <v>1</v>
       </c>
       <c r="D29" s="54">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="E29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>80</v>
       </c>
       <c r="F29" s="4">
+        <f t="shared" si="25"/>
+        <v>0.75</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="23"/>
+        <v>20</v>
+      </c>
+      <c r="H29" s="3">
         <f t="shared" si="24"/>
-        <v>0.75</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="22"/>
-        <v>20</v>
-      </c>
-      <c r="H29" s="3">
-        <f t="shared" si="23"/>
         <v>30</v>
       </c>
     </row>
@@ -4627,23 +4516,23 @@
         <v>1</v>
       </c>
       <c r="D30" s="54">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="E30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>80</v>
       </c>
       <c r="F30" s="4">
+        <f t="shared" si="25"/>
+        <v>0.75</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="23"/>
+        <v>20</v>
+      </c>
+      <c r="H30" s="3">
         <f t="shared" si="24"/>
-        <v>0.75</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="22"/>
-        <v>20</v>
-      </c>
-      <c r="H30" s="3">
-        <f t="shared" si="23"/>
         <v>30</v>
       </c>
       <c r="P30" s="3"/>
@@ -4659,23 +4548,23 @@
         <v>1</v>
       </c>
       <c r="D31" s="55">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="E31">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>80</v>
       </c>
       <c r="F31" s="4">
+        <f t="shared" si="25"/>
+        <v>0.75</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="23"/>
+        <v>20</v>
+      </c>
+      <c r="H31" s="3">
         <f t="shared" si="24"/>
-        <v>0.75</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="22"/>
-        <v>20</v>
-      </c>
-      <c r="H31" s="3">
-        <f t="shared" si="23"/>
         <v>30</v>
       </c>
       <c r="P31" s="3"/>
@@ -4813,7 +4702,7 @@
         <v>108</v>
       </c>
       <c r="I56" s="6">
-        <f t="shared" ref="I56:I65" si="25">1-G56/H56</f>
+        <f t="shared" ref="I56:I65" si="26">1-G56/H56</f>
         <v>2.0979020979020824E-2</v>
       </c>
     </row>
@@ -4825,7 +4714,7 @@
         <v>55</v>
       </c>
       <c r="C57" s="19">
-        <f t="shared" ref="C57:C64" si="26">GETPIVOTDATA("Итого",$I$1,"transaction rq",A57)*3</f>
+        <f t="shared" ref="C57:C64" si="27">GETPIVOTDATA("Итого",$I$1,"transaction rq",A57)*3</f>
         <v>55.384615384615387</v>
       </c>
       <c r="D57" s="65">
@@ -4838,7 +4727,7 @@
         <v>CheckoutUserData</v>
       </c>
       <c r="G57" s="16">
-        <f t="shared" ref="G57:G65" si="27">C57/3</f>
+        <f t="shared" ref="G57:G65" si="28">C57/3</f>
         <v>18.461538461538463</v>
       </c>
       <c r="H57" s="58">
@@ -4846,7 +4735,7 @@
         <v>18</v>
       </c>
       <c r="I57" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-2.5641025641025772E-2</v>
       </c>
     </row>
@@ -4858,11 +4747,11 @@
         <v>186</v>
       </c>
       <c r="C58" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>186.29370629370629</v>
       </c>
       <c r="D58" s="65">
-        <f t="shared" ref="D58:D65" si="28">1-B58/C58</f>
+        <f t="shared" ref="D58:D65" si="29">1-B58/C58</f>
         <v>1.576576576576616E-3</v>
       </c>
       <c r="E58" s="20"/>
@@ -4871,7 +4760,7 @@
         <v>AddToCart</v>
       </c>
       <c r="G58" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>62.0979020979021</v>
       </c>
       <c r="H58" s="58">
@@ -4879,7 +4768,7 @@
         <v>62</v>
       </c>
       <c r="I58" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-1.5790660951950919E-3</v>
       </c>
     </row>
@@ -4891,11 +4780,11 @@
         <v>317</v>
       </c>
       <c r="C59" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>317.20279720279723</v>
       </c>
       <c r="D59" s="65">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>6.3932980599656908E-4</v>
       </c>
       <c r="E59" s="20"/>
@@ -4904,7 +4793,7 @@
         <v>ChooseCategory</v>
       </c>
       <c r="G59" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>105.73426573426575</v>
       </c>
       <c r="H59" s="58">
@@ -4912,7 +4801,7 @@
         <v>108</v>
       </c>
       <c r="I59" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2.0979020979020824E-2</v>
       </c>
     </row>
@@ -4924,11 +4813,11 @@
         <v>55</v>
       </c>
       <c r="C60" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>55.384615384615387</v>
       </c>
       <c r="D60" s="65">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>6.9444444444445308E-3</v>
       </c>
       <c r="E60" s="20"/>
@@ -4957,11 +4846,11 @@
         <v>95</v>
       </c>
       <c r="C61" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>96.293706293706293</v>
       </c>
       <c r="D61" s="65">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1.3435003631082076E-2</v>
       </c>
       <c r="E61" s="20"/>
@@ -4970,7 +4859,7 @@
         <v>OpenCart</v>
       </c>
       <c r="G61" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>32.0979020979021</v>
       </c>
       <c r="H61" s="58">
@@ -4978,7 +4867,7 @@
         <v>32</v>
       </c>
       <c r="I61" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-3.0594405594406293E-3</v>
       </c>
     </row>
@@ -4990,11 +4879,11 @@
         <v>41</v>
       </c>
       <c r="C62" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>40.909090909090907</v>
       </c>
       <c r="D62" s="65">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-2.2222222222223476E-3</v>
       </c>
       <c r="E62" s="20"/>
@@ -5003,7 +4892,7 @@
         <v>DeleteProduct</v>
       </c>
       <c r="G62" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>13.636363636363635</v>
       </c>
       <c r="H62" s="58">
@@ -5027,7 +4916,7 @@
         <v>201.49732620320853</v>
       </c>
       <c r="D63" s="65">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>7.4309978768576368E-3</v>
       </c>
       <c r="E63" s="20"/>
@@ -5036,7 +4925,7 @@
         <v>Logout</v>
       </c>
       <c r="G63" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>67.16577540106951</v>
       </c>
       <c r="H63" s="58">
@@ -5044,7 +4933,7 @@
         <v>68</v>
       </c>
       <c r="I63" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.2268008807801323E-2</v>
       </c>
     </row>
@@ -5056,11 +4945,11 @@
         <v>70</v>
       </c>
       <c r="C64" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>70.588235294117652</v>
       </c>
       <c r="D64" s="65">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>8.3333333333334147E-3</v>
       </c>
       <c r="E64" s="20"/>
@@ -5077,7 +4966,7 @@
         <v>25</v>
       </c>
       <c r="I64" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>5.8823529411764608E-2</v>
       </c>
     </row>
@@ -5093,7 +4982,7 @@
         <v>70.588235294117652</v>
       </c>
       <c r="D65" s="65">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>8.3333333333334147E-3</v>
       </c>
       <c r="E65" s="20"/>
@@ -5102,7 +4991,7 @@
         <v>UserRegistered</v>
       </c>
       <c r="G65" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>23.529411764705884</v>
       </c>
       <c r="H65" s="58">
@@ -5110,7 +4999,7 @@
         <v>24</v>
       </c>
       <c r="I65" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.9607843137254832E-2</v>
       </c>
     </row>
@@ -5126,7 +5015,7 @@
         <v>130.90909090909091</v>
       </c>
       <c r="D66" s="65">
-        <f t="shared" ref="D66" si="29">1-B66/C66</f>
+        <f t="shared" ref="D66" si="30">1-B66/C66</f>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="F66" s="37" t="str">
@@ -5134,7 +5023,7 @@
         <v>SeachProduct</v>
       </c>
       <c r="G66" s="16">
-        <f t="shared" ref="G66" si="30">C66/3</f>
+        <f t="shared" ref="G66" si="31">C66/3</f>
         <v>43.636363636363633</v>
       </c>
       <c r="H66" s="58">
@@ -5142,7 +5031,7 @@
         <v>46</v>
       </c>
       <c r="I66" s="6">
-        <f t="shared" ref="I66" si="31">1-G66/H66</f>
+        <f t="shared" ref="I66" si="32">1-G66/H66</f>
         <v>5.1383399209486202E-2</v>
       </c>
     </row>
@@ -6073,7 +5962,7 @@
         <f>VLOOKUP(E4,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
         <v>520</v>
       </c>
-      <c r="H4" s="95">
+      <c r="H4" s="89">
         <f>900*0.6</f>
         <v>540</v>
       </c>
@@ -6097,7 +5986,7 @@
         <f>VLOOKUP(E5,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
         <v>320</v>
       </c>
-      <c r="H5" s="95">
+      <c r="H5" s="89">
         <f>531*0.6</f>
         <v>318.59999999999997</v>
       </c>
@@ -6121,7 +6010,7 @@
         <f>VLOOKUP(E6,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
         <v>55</v>
       </c>
-      <c r="H6" s="95">
+      <c r="H6" s="89">
         <f>92*0.6</f>
         <v>55.199999999999996</v>
       </c>
@@ -6145,7 +6034,7 @@
         <f>VLOOKUP(E7,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
         <v>186</v>
       </c>
-      <c r="H7" s="95">
+      <c r="H7" s="89">
         <f>298*0.6</f>
         <v>178.79999999999998</v>
       </c>
@@ -6170,7 +6059,7 @@
         <f>VLOOKUP(E8,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
         <v>317</v>
       </c>
-      <c r="H8" s="95">
+      <c r="H8" s="89">
         <f>528*0.6</f>
         <v>316.8</v>
       </c>
@@ -6195,7 +6084,7 @@
         <f>VLOOKUP(E9,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
         <v>55</v>
       </c>
-      <c r="H9" s="95">
+      <c r="H9" s="89">
         <f>92*0.6</f>
         <v>55.199999999999996</v>
       </c>
@@ -6220,7 +6109,7 @@
         <f>VLOOKUP(E10,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
         <v>95</v>
       </c>
-      <c r="H10" s="95">
+      <c r="H10" s="89">
         <f>159*0.6</f>
         <v>95.399999999999991</v>
       </c>
@@ -6245,7 +6134,7 @@
         <f>VLOOKUP(E11,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
         <v>41</v>
       </c>
-      <c r="H11" s="95">
+      <c r="H11" s="89">
         <f>69*0.6</f>
         <v>41.4</v>
       </c>
@@ -6269,7 +6158,7 @@
         <f>VLOOKUP(E12,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
         <v>200</v>
       </c>
-      <c r="H12" s="95">
+      <c r="H12" s="89">
         <f>338*0.6</f>
         <v>202.79999999999998</v>
       </c>
@@ -6293,7 +6182,7 @@
         <f>VLOOKUP(E13,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
         <v>70</v>
       </c>
-      <c r="H13" s="95">
+      <c r="H13" s="89">
         <f>120*0.6</f>
         <v>72</v>
       </c>
@@ -6317,7 +6206,7 @@
         <f>VLOOKUP(E14,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
         <v>70</v>
       </c>
-      <c r="H14" s="95">
+      <c r="H14" s="89">
         <f>120*0.6</f>
         <v>72</v>
       </c>
@@ -6341,7 +6230,7 @@
         <f>VLOOKUP(E15,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
         <v>130</v>
       </c>
-      <c r="H15" s="95">
+      <c r="H15" s="89">
         <f>221*0.6</f>
         <v>132.6</v>
       </c>
@@ -6365,7 +6254,7 @@
         <f>VLOOKUP(E16,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
         <v>186</v>
       </c>
-      <c r="H16" s="95">
+      <c r="H16" s="89">
         <f>307*0.6</f>
         <v>184.2</v>
       </c>
@@ -6420,7 +6309,7 @@
         <f>VLOOKUP(E21,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
         <v>520</v>
       </c>
-      <c r="H21" s="95">
+      <c r="H21" s="89">
         <f>(718/4)*3</f>
         <v>538.5</v>
       </c>
@@ -6446,7 +6335,7 @@
         <f>VLOOKUP(E22,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
         <v>320</v>
       </c>
-      <c r="H22" s="95">
+      <c r="H22" s="89">
         <f>(427/4)*3</f>
         <v>320.25</v>
       </c>
@@ -6472,7 +6361,7 @@
         <f>VLOOKUP(E23,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
         <v>55</v>
       </c>
-      <c r="H23" s="95">
+      <c r="H23" s="89">
         <f>(76/4)*3</f>
         <v>57</v>
       </c>
@@ -6498,7 +6387,7 @@
         <f>VLOOKUP(E24,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
         <v>186</v>
       </c>
-      <c r="H24" s="95">
+      <c r="H24" s="89">
         <f>(242/4)*3</f>
         <v>181.5</v>
       </c>
@@ -6524,7 +6413,7 @@
         <f>VLOOKUP(E25,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
         <v>317</v>
       </c>
-      <c r="H25" s="95">
+      <c r="H25" s="89">
         <f>(424/4)*3</f>
         <v>318</v>
       </c>
@@ -6548,7 +6437,7 @@
         <f>VLOOKUP(E26,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
         <v>55</v>
       </c>
-      <c r="H26" s="95">
+      <c r="H26" s="89">
         <f>(75/4)*3</f>
         <v>56.25</v>
       </c>
@@ -6572,7 +6461,7 @@
         <f>VLOOKUP(E27,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
         <v>95</v>
       </c>
-      <c r="H27" s="95">
+      <c r="H27" s="89">
         <f>(131/4)*3</f>
         <v>98.25</v>
       </c>
@@ -6596,7 +6485,7 @@
         <f>VLOOKUP(E28,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
         <v>41</v>
       </c>
-      <c r="H28" s="95">
+      <c r="H28" s="89">
         <f>(55/4)*3</f>
         <v>41.25</v>
       </c>
@@ -6620,7 +6509,7 @@
         <f>VLOOKUP(E29,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
         <v>200</v>
       </c>
-      <c r="H29" s="95">
+      <c r="H29" s="89">
         <f>(270/4)*3</f>
         <v>202.5</v>
       </c>
@@ -6644,7 +6533,7 @@
         <f>VLOOKUP(E30,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
         <v>70</v>
       </c>
-      <c r="H30" s="95">
+      <c r="H30" s="89">
         <f>(96/4)*3</f>
         <v>72</v>
       </c>
@@ -6668,7 +6557,7 @@
         <f>VLOOKUP(E31,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
         <v>70</v>
       </c>
-      <c r="H31" s="95">
+      <c r="H31" s="89">
         <f>(96/4)*3</f>
         <v>72</v>
       </c>
@@ -6694,7 +6583,7 @@
         <f>VLOOKUP(E32,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
         <v>130</v>
       </c>
-      <c r="H32" s="95">
+      <c r="H32" s="89">
         <f>(177/4)*3</f>
         <v>132.75</v>
       </c>
@@ -6720,7 +6609,7 @@
         <f>VLOOKUP(E33,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
         <v>186</v>
       </c>
-      <c r="H33" s="95">
+      <c r="H33" s="89">
         <f>(247/4)*3</f>
         <v>185.25</v>
       </c>
@@ -7108,7 +6997,7 @@
         <f>VLOOKUP(E55,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
         <v>520</v>
       </c>
-      <c r="H55" s="95">
+      <c r="H55" s="89">
         <f>(360/2)*3</f>
         <v>540</v>
       </c>
@@ -7132,7 +7021,7 @@
         <f>VLOOKUP(E56,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
         <v>320</v>
       </c>
-      <c r="H56" s="95">
+      <c r="H56" s="89">
         <f>(218/2)*3</f>
         <v>327</v>
       </c>
@@ -7156,7 +7045,7 @@
         <f>VLOOKUP(E57,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
         <v>55</v>
       </c>
-      <c r="H57" s="95">
+      <c r="H57" s="89">
         <f>(40/2)*3</f>
         <v>60</v>
       </c>
@@ -7180,7 +7069,7 @@
         <f>VLOOKUP(E58,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
         <v>186</v>
       </c>
-      <c r="H58" s="95">
+      <c r="H58" s="89">
         <f>(127/2)*3</f>
         <v>190.5</v>
       </c>
@@ -7204,7 +7093,7 @@
         <f>VLOOKUP(E59,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
         <v>317</v>
       </c>
-      <c r="H59" s="95">
+      <c r="H59" s="89">
         <f>(214/2)*3</f>
         <v>321</v>
       </c>
@@ -7228,7 +7117,7 @@
         <f>VLOOKUP(E60,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
         <v>55</v>
       </c>
-      <c r="H60" s="95">
+      <c r="H60" s="89">
         <f>(40/2)*3</f>
         <v>60</v>
       </c>
@@ -7252,7 +7141,7 @@
         <f>VLOOKUP(E61,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
         <v>95</v>
       </c>
-      <c r="H61" s="95">
+      <c r="H61" s="89">
         <f>(68/2)*3</f>
         <v>102</v>
       </c>
@@ -7276,7 +7165,7 @@
         <f>VLOOKUP(E62,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
         <v>41</v>
       </c>
-      <c r="H62" s="95">
+      <c r="H62" s="89">
         <f>(28/2)*3</f>
         <v>42</v>
       </c>
@@ -7300,7 +7189,7 @@
         <f>VLOOKUP(E63,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
         <v>200</v>
       </c>
-      <c r="H63" s="95">
+      <c r="H63" s="89">
         <f>(135/2)*3</f>
         <v>202.5</v>
       </c>
@@ -7324,7 +7213,7 @@
         <f>VLOOKUP(E64,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
         <v>70</v>
       </c>
-      <c r="H64" s="95">
+      <c r="H64" s="89">
         <f>(48/2)*3</f>
         <v>72</v>
       </c>
@@ -7348,7 +7237,7 @@
         <f>VLOOKUP(E65,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
         <v>70</v>
       </c>
-      <c r="H65" s="95">
+      <c r="H65" s="89">
         <f>(48/2)*3</f>
         <v>72</v>
       </c>
@@ -7372,7 +7261,7 @@
         <f>VLOOKUP(E66,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
         <v>130</v>
       </c>
-      <c r="H66" s="95">
+      <c r="H66" s="89">
         <f>(90/2)*3</f>
         <v>135</v>
       </c>
@@ -7396,7 +7285,7 @@
         <f>VLOOKUP(E67,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
         <v>186</v>
       </c>
-      <c r="H67" s="95">
+      <c r="H67" s="89">
         <f>(129/2)*3</f>
         <v>193.5</v>
       </c>
@@ -7758,84 +7647,84 @@
     <mergeCell ref="E52:J52"/>
     <mergeCell ref="E69:J69"/>
   </mergeCells>
-  <conditionalFormatting sqref="I72:I84">
-    <cfRule type="cellIs" dxfId="28" priority="19" operator="lessThan">
+  <conditionalFormatting sqref="I4:I16">
+    <cfRule type="cellIs" dxfId="20" priority="12" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J72:J84">
-    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
+  <conditionalFormatting sqref="I21:I33">
+    <cfRule type="cellIs" dxfId="19" priority="9" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38:I50">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55:I67">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I72:I84">
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J16">
+    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",J4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21:J33">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",J21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J38:J50">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",J38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J55:J67">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",J55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J72:J84">
+    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="14" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",J72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7:L10">
-    <cfRule type="cellIs" dxfId="17" priority="91" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="91" operator="lessThan">
       <formula>-5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:L24 Q21:Q24 L31:L32 Q31:Q32">
-    <cfRule type="cellIs" dxfId="16" priority="79" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="79" operator="lessThan">
       <formula>-5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L40 O40 L46 O46">
-    <cfRule type="cellIs" dxfId="15" priority="72" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="72" operator="lessThan">
       <formula>-5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I16">
-    <cfRule type="cellIs" dxfId="14" priority="12" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J16">
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",J4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I21:I33">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J21:J33">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",J21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38:I50">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J38:J50">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",J38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I55:I67">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J55:J67">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",J55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7847,7 +7736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC37186-D6E2-4BF3-B195-7C599BE8A61C}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>

--- a/Документы/AdvantageShoping_Профиль.xlsx
+++ b/Документы/AdvantageShoping_Профиль.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Programs\Itogovoe\Документы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D792896F-61C6-441F-9553-C402022DD610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB127A1C-EF18-4D60-AAD3-9C7555F703BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -474,32 +474,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="95">
   <si>
     <t>Вход в систему</t>
   </si>
   <si>
-    <t>Оплата билета</t>
-  </si>
-  <si>
-    <t>Просмотр квитанций</t>
-  </si>
-  <si>
     <t>Выход из системы</t>
   </si>
   <si>
     <t>Итого</t>
   </si>
   <si>
-    <t xml:space="preserve">Заполнение полей для поиска билета </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выбор рейса из найденных </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Отмена бронирования </t>
-  </si>
-  <si>
     <t>Наименование операции</t>
   </si>
   <si>
@@ -593,25 +578,10 @@
     <t>Регистрация новых пользователей</t>
   </si>
   <si>
-    <t>Главная Welcome страница</t>
-  </si>
-  <si>
-    <t>Заполнение полей регистарции</t>
-  </si>
-  <si>
-    <t>Перход на страницу регистрации</t>
-  </si>
-  <si>
-    <t>Переход на следуюущий эран после регистарции</t>
-  </si>
-  <si>
     <t>Логин</t>
   </si>
   <si>
     <t>Операций/час = количество операций одним пользователем в час (60 * количество операций один пользователем в минуту (pacing / 60)) * кол-во пользователей</t>
-  </si>
-  <si>
-    <t>Переход на страницу поиска билетов</t>
   </si>
   <si>
     <t>Название запроса</t>
@@ -2090,6 +2060,8 @@
     <xf numFmtId="0" fontId="39" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2105,8 +2077,6 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="80">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3166,7 +3136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B27" sqref="B27:B31"/>
     </sheetView>
   </sheetViews>
@@ -3197,75 +3167,75 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="O1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="P1" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="R1" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="U1" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="22" t="s">
+      <c r="W1" s="15" t="s">
         <v>23</v>
-      </c>
-      <c r="P1" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q1" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="R1" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="S1" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="T1" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="U1" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="W1" s="15" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="80" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C2" s="53">
         <v>1</v>
@@ -3298,7 +3268,7 @@
       </c>
       <c r="L2" s="61"/>
       <c r="M2" s="64" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="N2" s="5">
         <v>30</v>
@@ -3345,7 +3315,7 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="81" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B3" s="37" t="s">
         <v>0</v>
@@ -3374,14 +3344,14 @@
         <v>18.461538461538463</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3" s="3">
         <v>67.16577540106951</v>
       </c>
       <c r="L3" s="62"/>
       <c r="M3" s="64" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="N3" s="5">
         <v>20</v>
@@ -3425,10 +3395,10 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="81" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C4" s="53">
         <v>1</v>
@@ -3454,14 +3424,14 @@
         <v>18.461538461538463</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="J4" s="3">
         <v>172.90004113533524</v>
       </c>
       <c r="L4" s="61"/>
       <c r="M4" s="64" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N4" s="5">
         <v>9</v>
@@ -3505,10 +3475,10 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="81" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C5" s="53">
         <v>1</v>
@@ -3534,14 +3504,14 @@
         <v>18.461538461538463</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="J5" s="3">
         <v>105.73426573426573</v>
       </c>
       <c r="L5" s="61"/>
       <c r="M5" s="24" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="N5" s="5">
         <v>19</v>
@@ -3585,10 +3555,10 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="81" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C6" s="53">
         <v>1</v>
@@ -3614,14 +3584,14 @@
         <v>18.461538461538463</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="J6" s="3">
         <v>62.0979020979021</v>
       </c>
       <c r="L6" s="61"/>
       <c r="M6" s="24" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="N6" s="5">
         <v>18</v>
@@ -3665,10 +3635,10 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="81" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C7" s="53">
         <v>1</v>
@@ -3694,14 +3664,14 @@
         <v>18.461538461538463</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J7" s="3">
         <v>62.0979020979021</v>
       </c>
       <c r="L7" s="61"/>
       <c r="M7" s="24" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="N7" s="5">
         <v>13</v>
@@ -3745,10 +3715,10 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="81" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C8" s="53">
         <v>1</v>
@@ -3774,7 +3744,7 @@
         <v>18.461538461538463</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J8" s="3">
         <v>32.0979020979021</v>
@@ -3796,10 +3766,10 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="81" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C9" s="53">
         <v>1</v>
@@ -3825,7 +3795,7 @@
         <v>18.461538461538463</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J9" s="3">
         <v>18.461538461538463</v>
@@ -3833,10 +3803,10 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="87" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C10" s="53">
         <v>1</v>
@@ -3862,7 +3832,7 @@
         <v>43.636363636363633</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J10" s="3">
         <v>18.461538461538463</v>
@@ -3871,7 +3841,7 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="86" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B11" s="37" t="s">
         <v>0</v>
@@ -3900,7 +3870,7 @@
         <v>43.636363636363633</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="J11" s="3">
         <v>23.529411764705884</v>
@@ -3909,10 +3879,10 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="86" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B12" s="88" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C12" s="53">
         <v>1</v>
@@ -3938,7 +3908,7 @@
         <v>43.636363636363633</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="J12" s="3">
         <v>23.529411764705884</v>
@@ -3947,10 +3917,10 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="86" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13" s="53">
         <v>1</v>
@@ -3976,7 +3946,7 @@
         <v>43.636363636363633</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="J13" s="3">
         <v>13.636363636363635</v>
@@ -3984,11 +3954,11 @@
       <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="95" t="s">
-        <v>38</v>
+      <c r="A14" s="90" t="s">
+        <v>33</v>
       </c>
       <c r="B14" s="82" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C14" s="53">
         <v>1</v>
@@ -4014,7 +3984,7 @@
         <v>23.529411764705884</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="J14" s="3">
         <v>43.636363636363633</v>
@@ -4023,10 +3993,10 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="42" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C15" s="53">
         <v>1</v>
@@ -4052,7 +4022,7 @@
         <v>23.529411764705884</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="J15" s="3">
         <v>749.0826820238583</v>
@@ -4061,10 +4031,10 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="83" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C16" s="53">
         <v>1</v>
@@ -4093,10 +4063,10 @@
     </row>
     <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="83" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17" s="53">
         <v>1</v>
@@ -4123,11 +4093,11 @@
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="96" t="s">
-        <v>97</v>
+      <c r="A18" s="91" t="s">
+        <v>87</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C18" s="53">
         <v>1</v>
@@ -4158,7 +4128,7 @@
     </row>
     <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="81" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B19" s="37" t="s">
         <v>0</v>
@@ -4190,10 +4160,10 @@
     </row>
     <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="81" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C20" s="53">
         <v>1</v>
@@ -4222,10 +4192,10 @@
     </row>
     <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="81" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C21" s="53">
         <v>1</v>
@@ -4253,10 +4223,10 @@
     </row>
     <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="81" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C22" s="53">
         <v>1</v>
@@ -4285,10 +4255,10 @@
     </row>
     <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="79" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C23" s="53">
         <v>1</v>
@@ -4317,10 +4287,10 @@
     </row>
     <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="79" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C24" s="53">
         <v>1</v>
@@ -4349,10 +4319,10 @@
     </row>
     <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="86" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C25" s="53">
         <v>1</v>
@@ -4383,10 +4353,10 @@
     </row>
     <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="86" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C26" s="53">
         <v>1</v>
@@ -4413,11 +4383,11 @@
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="96" t="s">
-        <v>84</v>
+      <c r="A27" s="91" t="s">
+        <v>74</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C27" s="53">
         <v>1</v>
@@ -4445,7 +4415,7 @@
     </row>
     <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="81" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B28" s="37" t="s">
         <v>0</v>
@@ -4476,10 +4446,10 @@
     </row>
     <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="81" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C29" s="53">
         <v>1</v>
@@ -4507,10 +4477,10 @@
     </row>
     <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="81" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C30" s="53">
         <v>1</v>
@@ -4539,10 +4509,10 @@
     </row>
     <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="81" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C31" s="53">
         <v>1</v>
@@ -4604,45 +4574,45 @@
     </row>
     <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="90" t="s">
-        <v>47</v>
-      </c>
-      <c r="B53" s="91"/>
-      <c r="C53" s="92" t="s">
-        <v>58</v>
-      </c>
-      <c r="D53" s="93"/>
+      <c r="A53" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53" s="93"/>
+      <c r="C53" s="94" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="95"/>
     </row>
     <row r="54" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E54" s="41"/>
       <c r="F54" s="36" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B55" s="33">
         <v>520</v>
@@ -4708,7 +4678,7 @@
     </row>
     <row r="57" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A57" s="78" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B57" s="33">
         <v>55</v>
@@ -4741,7 +4711,7 @@
     </row>
     <row r="58" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B58" s="33">
         <v>186</v>
@@ -4774,7 +4744,7 @@
     </row>
     <row r="59" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B59" s="33">
         <v>317</v>
@@ -4807,7 +4777,7 @@
     </row>
     <row r="60" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B60" s="33">
         <v>55</v>
@@ -4840,7 +4810,7 @@
     </row>
     <row r="61" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B61" s="33">
         <v>95</v>
@@ -4873,7 +4843,7 @@
     </row>
     <row r="62" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B62" s="33">
         <v>41</v>
@@ -4906,7 +4876,7 @@
     </row>
     <row r="63" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B63" s="33">
         <v>200</v>
@@ -4939,7 +4909,7 @@
     </row>
     <row r="64" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B64" s="33">
         <v>70</v>
@@ -4972,7 +4942,7 @@
     </row>
     <row r="65" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B65" s="33">
         <v>70</v>
@@ -5005,7 +4975,7 @@
     </row>
     <row r="66" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B66" s="33">
         <v>130</v>
@@ -5037,7 +5007,7 @@
     </row>
     <row r="67" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B67" s="33">
         <v>186</v>
@@ -5070,7 +5040,7 @@
     </row>
     <row r="68" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B68" s="34">
         <f>SUM(B55:B67)</f>
@@ -5100,7 +5070,7 @@
       <c r="A70" s="21"/>
       <c r="B70" s="22"/>
       <c r="C70" s="23" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D70" s="23"/>
       <c r="E70" s="23"/>
@@ -5136,10 +5106,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5148,7 +5118,7 @@
         <v>Главная страница</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5157,7 +5127,7 @@
         <v>Вход в систему</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5166,7 +5136,7 @@
         <v>Проверка пользовательских данных перед покупкой</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5175,7 +5145,7 @@
         <v>Добавление товара в корзину</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -5184,7 +5154,7 @@
         <v>Выбор категории товаров</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -5193,7 +5163,7 @@
         <v>Оплата</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -5202,7 +5172,7 @@
         <v>Переход в корзину</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -5211,7 +5181,7 @@
         <v>Удаление продукта</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -5220,7 +5190,7 @@
         <v>Выход из системы</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -5229,7 +5199,7 @@
         <v>Страница регистрации</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -5238,7 +5208,7 @@
         <v>Регистрация пользователя</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -5247,7 +5217,7 @@
         <v>Поиск продукта</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -5256,7 +5226,7 @@
         <v>Переход на страницу продукта</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -5286,39 +5256,39 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B1" s="60" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C1" s="60" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D1" s="60" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E1" s="60" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F1" s="60" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G1" s="60" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H1" s="60" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I1" s="60" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J1" s="60" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B2" s="67"/>
       <c r="C2">
@@ -5348,7 +5318,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C3">
         <v>2.024</v>
@@ -5377,7 +5347,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C4">
         <v>1.1930000000000001</v>
@@ -5406,7 +5376,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C5">
         <v>1.4570000000000001</v>
@@ -5435,7 +5405,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C6">
         <v>0.41299999999999998</v>
@@ -5464,7 +5434,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C7">
         <v>0.77600000000000002</v>
@@ -5493,7 +5463,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C8">
         <v>0.30299999999999999</v>
@@ -5522,7 +5492,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C9">
         <v>0.7</v>
@@ -5551,7 +5521,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C10">
         <v>4.2190000000000003</v>
@@ -5580,7 +5550,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C11">
         <v>0.38900000000000001</v>
@@ -5609,7 +5579,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C12">
         <v>1.0880000000000001</v>
@@ -5638,7 +5608,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C13">
         <v>3.3719999999999999</v>
@@ -5667,7 +5637,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C14">
         <v>7.6459999999999999</v>
@@ -5696,7 +5666,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C15">
         <v>8.9649999999999999</v>
@@ -5725,7 +5695,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C16">
         <v>9.1530000000000005</v>
@@ -5754,7 +5724,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C17">
         <v>13.577999999999999</v>
@@ -5783,7 +5753,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C18">
         <v>10.109</v>
@@ -5812,7 +5782,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C19">
         <v>8.7780000000000005</v>
@@ -5841,7 +5811,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="67" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C20">
         <v>0.77700000000000002</v>
@@ -5898,8 +5868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C1:Q84"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72:J84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5921,38 +5891,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E1" s="94" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
+      <c r="E1" s="96" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
     </row>
     <row r="3" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E3" s="77" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F3" s="77" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G3" s="77" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H3" s="77" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I3" s="77" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J3" s="77" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E4" s="59" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F4" s="70" t="str">
         <f>VLOOKUP(E4,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -5971,7 +5941,7 @@
         <v>3.703703703703709E-2</v>
       </c>
       <c r="J4" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5995,12 +5965,12 @@
         <v>-4.3942247332078299E-3</v>
       </c>
       <c r="J5" s="76" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E6" s="59" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F6" s="70" t="str">
         <f>VLOOKUP(E6,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -6019,12 +5989,12 @@
         <v>3.6231884057970065E-3</v>
       </c>
       <c r="J6" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E7" s="59" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F7" s="70" t="str">
         <f>VLOOKUP(E7,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -6043,13 +6013,13 @@
         <v>-4.026845637583909E-2</v>
       </c>
       <c r="J7" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="L7" s="75"/>
     </row>
     <row r="8" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E8" s="59" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F8" s="70" t="str">
         <f>VLOOKUP(E8,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -6068,13 +6038,13 @@
         <v>-6.3131313131314926E-4</v>
       </c>
       <c r="J8" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="L8" s="75"/>
     </row>
     <row r="9" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E9" s="59" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F9" s="70" t="str">
         <f>VLOOKUP(E9,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -6093,13 +6063,13 @@
         <v>3.6231884057970065E-3</v>
       </c>
       <c r="J9" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="L9" s="75"/>
     </row>
     <row r="10" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E10" s="59" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F10" s="70" t="str">
         <f>VLOOKUP(E10,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -6118,13 +6088,13 @@
         <v>4.1928721174003813E-3</v>
       </c>
       <c r="J10" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="L10" s="75"/>
     </row>
     <row r="11" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E11" s="68" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F11" s="70" t="str">
         <f>VLOOKUP(E11,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -6143,12 +6113,12 @@
         <v>9.6618357487922024E-3</v>
       </c>
       <c r="J11" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E12" s="59" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12" s="70" t="str">
         <f>VLOOKUP(E12,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -6167,12 +6137,12 @@
         <v>1.3806706114398382E-2</v>
       </c>
       <c r="J12" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E13" s="68" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F13" s="70" t="str">
         <f>VLOOKUP(E13,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -6191,12 +6161,12 @@
         <v>2.777777777777779E-2</v>
       </c>
       <c r="J13" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E14" s="68" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F14" s="70" t="str">
         <f>VLOOKUP(E14,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -6215,12 +6185,12 @@
         <v>2.777777777777779E-2</v>
       </c>
       <c r="J14" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E15" s="68" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F15" s="70" t="str">
         <f>VLOOKUP(E15,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -6239,12 +6209,12 @@
         <v>1.9607843137254832E-2</v>
       </c>
       <c r="J15" s="76" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E16" s="59" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F16" s="70" t="str">
         <f>VLOOKUP(E16,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -6263,43 +6233,43 @@
         <v>-9.7719869706840434E-3</v>
       </c>
       <c r="J16" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="5:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E18" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="94"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="94"/>
+      <c r="E18" s="96" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
     </row>
     <row r="20" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E20" s="77" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F20" s="77" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G20" s="77" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H20" s="77" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I20" s="77" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J20" s="77" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="5:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E21" s="59" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F21" s="70" t="str">
         <f>VLOOKUP(E21,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -6318,7 +6288,7 @@
         <v>3.4354688950789192E-2</v>
       </c>
       <c r="J21" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="L21" s="75"/>
       <c r="Q21" s="75"/>
@@ -6344,14 +6314,14 @@
         <v>7.8064012490242085E-4</v>
       </c>
       <c r="J22" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="L22" s="75"/>
       <c r="Q22" s="75"/>
     </row>
     <row r="23" spans="5:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E23" s="59" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F23" s="70" t="str">
         <f>VLOOKUP(E23,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -6370,14 +6340,14 @@
         <v>3.5087719298245612E-2</v>
       </c>
       <c r="J23" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="L23" s="75"/>
       <c r="Q23" s="75"/>
     </row>
     <row r="24" spans="5:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E24" s="59" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F24" s="70" t="str">
         <f>VLOOKUP(E24,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -6396,14 +6366,14 @@
         <v>-2.4793388429751984E-2</v>
       </c>
       <c r="J24" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="L24" s="75"/>
       <c r="Q24" s="75"/>
     </row>
     <row r="25" spans="5:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E25" s="59" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F25" s="70" t="str">
         <f>VLOOKUP(E25,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -6422,12 +6392,12 @@
         <v>3.1446540880503138E-3</v>
       </c>
       <c r="J25" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="5:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E26" s="59" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F26" s="70" t="str">
         <f>VLOOKUP(E26,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -6446,12 +6416,12 @@
         <v>2.2222222222222254E-2</v>
       </c>
       <c r="J26" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="5:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E27" s="59" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F27" s="70" t="str">
         <f>VLOOKUP(E27,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -6470,12 +6440,12 @@
         <v>3.30788804071247E-2</v>
       </c>
       <c r="J27" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="5:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E28" s="68" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F28" s="70" t="str">
         <f>VLOOKUP(E28,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -6494,12 +6464,12 @@
         <v>6.0606060606060996E-3</v>
       </c>
       <c r="J28" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="5:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E29" s="59" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29" s="70" t="str">
         <f>VLOOKUP(E29,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -6518,12 +6488,12 @@
         <v>1.2345679012345734E-2</v>
       </c>
       <c r="J29" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="5:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E30" s="68" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F30" s="70" t="str">
         <f>VLOOKUP(E30,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -6542,12 +6512,12 @@
         <v>2.777777777777779E-2</v>
       </c>
       <c r="J30" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="5:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E31" s="68" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F31" s="70" t="str">
         <f>VLOOKUP(E31,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -6566,14 +6536,14 @@
         <v>2.777777777777779E-2</v>
       </c>
       <c r="J31" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="L31" s="75"/>
       <c r="Q31" s="75"/>
     </row>
     <row r="32" spans="5:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E32" s="68" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F32" s="70" t="str">
         <f>VLOOKUP(E32,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -6592,14 +6562,14 @@
         <v>2.0715630885122405E-2</v>
       </c>
       <c r="J32" s="76" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="L32" s="75"/>
       <c r="Q32" s="75"/>
     </row>
     <row r="33" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E33" s="59" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F33" s="70" t="str">
         <f>VLOOKUP(E33,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -6618,43 +6588,43 @@
         <v>-4.0485829959513442E-3</v>
       </c>
       <c r="J33" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E35" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F35" s="94"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="94"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="94"/>
+      <c r="E35" s="96" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="96"/>
+      <c r="G35" s="96"/>
+      <c r="H35" s="96"/>
+      <c r="I35" s="96"/>
+      <c r="J35" s="96"/>
     </row>
     <row r="36" spans="5:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E37" s="77" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F37" s="77" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G37" s="77" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H37" s="77" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I37" s="77" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J37" s="77" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E38" s="59" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F38" s="70" t="str">
         <f>VLOOKUP(E38,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -6672,7 +6642,7 @@
         <v>3.703703703703709E-2</v>
       </c>
       <c r="J38" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -6695,12 +6665,12 @@
         <v>1.2345679012345734E-2</v>
       </c>
       <c r="J39" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E40" s="59" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F40" s="70" t="str">
         <f>VLOOKUP(E40,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -6718,14 +6688,14 @@
         <v>0</v>
       </c>
       <c r="J40" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="L40" s="75"/>
       <c r="O40" s="75"/>
     </row>
     <row r="41" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E41" s="59" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F41" s="70" t="str">
         <f>VLOOKUP(E41,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -6743,12 +6713,12 @@
         <v>-1.6393442622950838E-2</v>
       </c>
       <c r="J41" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E42" s="59" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F42" s="70" t="str">
         <f>VLOOKUP(E42,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -6766,12 +6736,12 @@
         <v>9.3750000000000222E-3</v>
       </c>
       <c r="J42" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E43" s="59" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F43" s="70" t="str">
         <f>VLOOKUP(E43,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -6789,12 +6759,12 @@
         <v>0</v>
       </c>
       <c r="J43" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E44" s="59" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F44" s="70" t="str">
         <f>VLOOKUP(E44,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -6812,12 +6782,12 @@
         <v>0</v>
       </c>
       <c r="J44" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E45" s="68" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F45" s="70" t="str">
         <f>VLOOKUP(E45,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -6835,12 +6805,12 @@
         <v>2.3809523809523836E-2</v>
       </c>
       <c r="J45" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E46" s="59" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F46" s="70" t="str">
         <f>VLOOKUP(E46,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -6858,14 +6828,14 @@
         <v>1.4778325123152691E-2</v>
       </c>
       <c r="J46" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="L46" s="75"/>
       <c r="O46" s="75"/>
     </row>
     <row r="47" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E47" s="68" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F47" s="70" t="str">
         <f>VLOOKUP(E47,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -6883,12 +6853,12 @@
         <v>2.777777777777779E-2</v>
       </c>
       <c r="J47" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E48" s="68" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F48" s="70" t="str">
         <f>VLOOKUP(E48,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -6906,12 +6876,12 @@
         <v>2.777777777777779E-2</v>
       </c>
       <c r="J48" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E49" s="68" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F49" s="70" t="str">
         <f>VLOOKUP(E49,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -6929,12 +6899,12 @@
         <v>1.5151515151515138E-2</v>
       </c>
       <c r="J49" s="76" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E50" s="59" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F50" s="70" t="str">
         <f>VLOOKUP(E50,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -6952,42 +6922,42 @@
         <v>1.5873015873015928E-2</v>
       </c>
       <c r="J50" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E52" s="94" t="s">
-        <v>75</v>
-      </c>
-      <c r="F52" s="94"/>
-      <c r="G52" s="94"/>
-      <c r="H52" s="94"/>
-      <c r="I52" s="94"/>
-      <c r="J52" s="94"/>
+      <c r="E52" s="96" t="s">
+        <v>65</v>
+      </c>
+      <c r="F52" s="96"/>
+      <c r="G52" s="96"/>
+      <c r="H52" s="96"/>
+      <c r="I52" s="96"/>
+      <c r="J52" s="96"/>
     </row>
     <row r="54" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E54" s="77" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F54" s="77" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G54" s="77" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H54" s="77" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I54" s="77" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J54" s="77" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E55" s="59" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F55" s="70" t="str">
         <f>VLOOKUP(E55,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -7006,7 +6976,7 @@
         <v>3.703703703703709E-2</v>
       </c>
       <c r="J55" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -7030,12 +7000,12 @@
         <v>2.1406727828746197E-2</v>
       </c>
       <c r="J56" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E57" s="59" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F57" s="70" t="str">
         <f>VLOOKUP(E57,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -7054,12 +7024,12 @@
         <v>8.333333333333337E-2</v>
       </c>
       <c r="J57" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E58" s="59" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F58" s="70" t="str">
         <f>VLOOKUP(E58,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -7078,12 +7048,12 @@
         <v>2.3622047244094446E-2</v>
       </c>
       <c r="J58" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E59" s="59" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F59" s="70" t="str">
         <f>VLOOKUP(E59,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -7102,12 +7072,12 @@
         <v>1.2461059190031154E-2</v>
       </c>
       <c r="J59" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E60" s="59" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F60" s="70" t="str">
         <f>VLOOKUP(E60,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -7126,12 +7096,12 @@
         <v>8.333333333333337E-2</v>
       </c>
       <c r="J60" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E61" s="59" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F61" s="70" t="str">
         <f>VLOOKUP(E61,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -7150,12 +7120,12 @@
         <v>6.8627450980392135E-2</v>
       </c>
       <c r="J61" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E62" s="68" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F62" s="70" t="str">
         <f>VLOOKUP(E62,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -7174,12 +7144,12 @@
         <v>2.3809523809523836E-2</v>
       </c>
       <c r="J62" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E63" s="59" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F63" s="70" t="str">
         <f>VLOOKUP(E63,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -7198,12 +7168,12 @@
         <v>1.2345679012345734E-2</v>
       </c>
       <c r="J63" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E64" s="68" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F64" s="70" t="str">
         <f>VLOOKUP(E64,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -7222,12 +7192,12 @@
         <v>2.777777777777779E-2</v>
       </c>
       <c r="J64" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E65" s="68" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F65" s="70" t="str">
         <f>VLOOKUP(E65,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -7246,12 +7216,12 @@
         <v>2.777777777777779E-2</v>
       </c>
       <c r="J65" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E66" s="68" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F66" s="70" t="str">
         <f>VLOOKUP(E66,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -7270,12 +7240,12 @@
         <v>3.703703703703709E-2</v>
       </c>
       <c r="J66" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E67" s="59" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F67" s="70" t="str">
         <f>VLOOKUP(E67,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -7294,42 +7264,42 @@
         <v>3.8759689922480578E-2</v>
       </c>
       <c r="J67" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E69" s="94" t="s">
-        <v>69</v>
-      </c>
-      <c r="F69" s="94"/>
-      <c r="G69" s="94"/>
-      <c r="H69" s="94"/>
-      <c r="I69" s="94"/>
-      <c r="J69" s="94"/>
+      <c r="E69" s="96" t="s">
+        <v>59</v>
+      </c>
+      <c r="F69" s="96"/>
+      <c r="G69" s="96"/>
+      <c r="H69" s="96"/>
+      <c r="I69" s="96"/>
+      <c r="J69" s="96"/>
     </row>
     <row r="71" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E71" s="77" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F71" s="77" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G71" s="77" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H71" s="77" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I71" s="77" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J71" s="77" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="72" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E72" s="59" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F72" s="70" t="str">
         <f>VLOOKUP(E72,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -7348,7 +7318,7 @@
         <v>4.7619047619047672E-2</v>
       </c>
       <c r="J72" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -7372,12 +7342,12 @@
         <v>4.7619047619047672E-2</v>
       </c>
       <c r="J73" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E74" s="59" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F74" s="70" t="str">
         <f>VLOOKUP(E74,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -7396,12 +7366,12 @@
         <v>8.333333333333337E-2</v>
       </c>
       <c r="J74" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E75" s="59" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F75" s="70" t="str">
         <f>VLOOKUP(E75,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -7420,12 +7390,12 @@
         <v>3.125E-2</v>
       </c>
       <c r="J75" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E76" s="59" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F76" s="70" t="str">
         <f>VLOOKUP(E76,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -7444,12 +7414,12 @@
         <v>3.9393939393939426E-2</v>
       </c>
       <c r="J76" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E77" s="59" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F77" s="70" t="str">
         <f>VLOOKUP(E77,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -7468,12 +7438,12 @@
         <v>8.333333333333337E-2</v>
       </c>
       <c r="J77" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E78" s="59" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F78" s="70" t="str">
         <f>VLOOKUP(E78,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -7492,12 +7462,12 @@
         <v>6.8627450980392135E-2</v>
       </c>
       <c r="J78" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E79" s="68" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F79" s="70" t="str">
         <f>VLOOKUP(E79,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -7516,12 +7486,12 @@
         <v>2.3809523809523836E-2</v>
       </c>
       <c r="J79" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E80" s="59" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F80" s="70" t="str">
         <f>VLOOKUP(E80,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -7540,12 +7510,12 @@
         <v>1.9607843137254943E-2</v>
       </c>
       <c r="J80" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E81" s="68" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F81" s="70" t="str">
         <f>VLOOKUP(E81,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -7564,12 +7534,12 @@
         <v>2.777777777777779E-2</v>
       </c>
       <c r="J81" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E82" s="68" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F82" s="70" t="str">
         <f>VLOOKUP(E82,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -7588,12 +7558,12 @@
         <v>2.777777777777779E-2</v>
       </c>
       <c r="J82" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E83" s="68" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F83" s="70" t="str">
         <f>VLOOKUP(E83,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -7612,12 +7582,12 @@
         <v>3.703703703703709E-2</v>
       </c>
       <c r="J83" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E84" s="59" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F84" s="70" t="str">
         <f>VLOOKUP(E84,Соответствие!$A$2:$B$14,2,FALSE)</f>
@@ -7636,7 +7606,7 @@
         <v>6.0606060606060552E-2</v>
       </c>
       <c r="J84" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -7734,10 +7704,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC37186-D6E2-4BF3-B195-7C599BE8A61C}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7751,56 +7721,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
+      <c r="A1" s="96" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B3" s="77" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3" s="77" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3" s="77" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E3" s="77" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F3" s="77" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="70" t="e">
+        <v>67</v>
+      </c>
+      <c r="B4" s="70" t="str">
         <f>VLOOKUP(A4,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C4" s="71" t="e">
-        <f>VLOOKUP(A4,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)*2</f>
-        <v>#N/A</v>
+        <v>OpenLandingPage</v>
+      </c>
+      <c r="C4" s="71">
+        <f>VLOOKUP(A4,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
+        <v>520</v>
       </c>
       <c r="D4" s="72">
-        <v>1054</v>
-      </c>
-      <c r="E4" s="73" t="e">
+        <f>1052/2</f>
+        <v>526</v>
+      </c>
+      <c r="E4" s="73">
         <f>1-C4/D4</f>
-        <v>#N/A</v>
+        <v>1.1406844106463865E-2</v>
       </c>
       <c r="F4" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -7812,260 +7783,295 @@
         <v>Login</v>
       </c>
       <c r="C5" s="71">
-        <f>VLOOKUP(A5,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)*2</f>
-        <v>640</v>
+        <f>VLOOKUP(A5,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
+        <v>320</v>
       </c>
       <c r="D5" s="74">
-        <v>852</v>
+        <f>633/2</f>
+        <v>316.5</v>
       </c>
       <c r="E5" s="73">
         <f t="shared" ref="E5:E6" si="0">1-C5/D5</f>
-        <v>0.24882629107981225</v>
+        <v>-1.1058451816745585E-2</v>
       </c>
       <c r="F5" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="70" t="e">
+        <v>78</v>
+      </c>
+      <c r="B6" s="70" t="str">
         <f>VLOOKUP(A6,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C6" s="71" t="e">
-        <f>VLOOKUP(A6,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)*2</f>
-        <v>#N/A</v>
+        <v>CheckoutUserData</v>
+      </c>
+      <c r="C6" s="71">
+        <f>VLOOKUP(A6,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
+        <v>55</v>
       </c>
       <c r="D6" s="69">
-        <v>602</v>
-      </c>
-      <c r="E6" s="73" t="e">
+        <f>112/2</f>
+        <v>56</v>
+      </c>
+      <c r="E6" s="73">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>1.7857142857142905E-2</v>
       </c>
       <c r="F6" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="70" t="e">
+        <v>74</v>
+      </c>
+      <c r="B7" s="70" t="str">
         <f>VLOOKUP(A7,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C7" s="71" t="e">
-        <f>VLOOKUP(A7,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)*2</f>
-        <v>#N/A</v>
+        <v>AddToCart</v>
+      </c>
+      <c r="C7" s="71">
+        <f>VLOOKUP(A7,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
+        <v>186</v>
       </c>
       <c r="D7" s="74">
-        <v>602</v>
-      </c>
-      <c r="E7" s="73" t="e">
+        <f>370/2</f>
+        <v>185</v>
+      </c>
+      <c r="E7" s="73">
         <f>1-C7/D7</f>
-        <v>#N/A</v>
+        <v>-5.4054054054053502E-3</v>
       </c>
       <c r="F7" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="70" t="e">
+        <v>71</v>
+      </c>
+      <c r="B8" s="70" t="str">
         <f>VLOOKUP(A8,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C8" s="71" t="e">
-        <f>VLOOKUP(A8,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)*2</f>
-        <v>#N/A</v>
+        <v>ChooseCategory</v>
+      </c>
+      <c r="C8" s="71">
+        <f>VLOOKUP(A8,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
+        <v>317</v>
       </c>
       <c r="D8" s="74">
-        <v>552</v>
-      </c>
-      <c r="E8" s="73" t="e">
+        <f>631/2</f>
+        <v>315.5</v>
+      </c>
+      <c r="E8" s="73">
         <f>1-C8/D8</f>
-        <v>#N/A</v>
+        <v>-4.7543581616482644E-3</v>
       </c>
       <c r="F8" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="70" t="e">
+        <v>80</v>
+      </c>
+      <c r="B9" s="70" t="str">
         <f>VLOOKUP(A9,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C9" s="71" t="e">
-        <f>VLOOKUP(A9,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)*2</f>
-        <v>#N/A</v>
+        <v>Payment</v>
+      </c>
+      <c r="C9" s="71">
+        <f>VLOOKUP(A9,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
+        <v>55</v>
       </c>
       <c r="D9" s="74">
-        <v>360</v>
-      </c>
-      <c r="E9" s="73" t="e">
+        <f>112/2</f>
+        <v>56</v>
+      </c>
+      <c r="E9" s="73">
         <f t="shared" ref="E9:E10" si="1">1-C9/D9</f>
-        <v>#N/A</v>
+        <v>1.7857142857142905E-2</v>
       </c>
       <c r="F9" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="70" t="e">
+        <v>76</v>
+      </c>
+      <c r="B10" s="70" t="str">
         <f>VLOOKUP(A10,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C10" s="71" t="e">
-        <f>VLOOKUP(A10,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)*2</f>
-        <v>#N/A</v>
+        <v>OpenCart</v>
+      </c>
+      <c r="C10" s="71">
+        <f>VLOOKUP(A10,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
+        <v>95</v>
       </c>
       <c r="D10" s="74">
-        <v>555</v>
-      </c>
-      <c r="E10" s="73" t="e">
+        <f>192/2</f>
+        <v>96</v>
+      </c>
+      <c r="E10" s="73">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="F10" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="68" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="70" t="e">
+        <v>82</v>
+      </c>
+      <c r="B11" s="70" t="str">
         <f>VLOOKUP(A11,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C11" s="71" t="e">
-        <f>VLOOKUP(A11,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)*2</f>
-        <v>#N/A</v>
+        <v>DeleteProduct</v>
+      </c>
+      <c r="C11" s="71">
+        <f>VLOOKUP(A11,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
+        <v>41</v>
       </c>
       <c r="D11" s="74">
-        <v>147</v>
-      </c>
-      <c r="E11" s="73" t="e">
+        <f>80/2</f>
+        <v>40</v>
+      </c>
+      <c r="E11" s="73">
         <f>1-C11/D11</f>
-        <v>#N/A</v>
+        <v>-2.4999999999999911E-2</v>
       </c>
       <c r="F11" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="59" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B12" s="70" t="str">
         <f>VLOOKUP(A12,Соответствие!$A$2:$B$14,2,FALSE)</f>
         <v>Logout</v>
       </c>
       <c r="C12" s="71">
-        <f>VLOOKUP(A12,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)*2</f>
-        <v>400</v>
+        <f>VLOOKUP(A12,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
+        <v>200</v>
       </c>
       <c r="D12" s="74">
-        <v>633</v>
+        <f>393/2</f>
+        <v>196.5</v>
       </c>
       <c r="E12" s="73">
         <f>1-C12/D12</f>
-        <v>0.36808846761453395</v>
+        <v>-1.7811704834605591E-2</v>
       </c>
       <c r="F12" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="70" t="e">
+        <v>68</v>
+      </c>
+      <c r="B13" s="70" t="str">
         <f>VLOOKUP(A13,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C13" s="71" t="e">
-        <f>VLOOKUP(A13,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)*2</f>
-        <v>#N/A</v>
+        <v>OpenRegistrationPage</v>
+      </c>
+      <c r="C13" s="71">
+        <f>VLOOKUP(A13,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
+        <v>70</v>
       </c>
       <c r="D13" s="69">
-        <v>196</v>
-      </c>
-      <c r="E13" s="73" t="e">
-        <f t="shared" ref="E13:E15" si="2">1-C13/D13</f>
-        <v>#N/A</v>
+        <f>142/2</f>
+        <v>71</v>
+      </c>
+      <c r="E13" s="73">
+        <f t="shared" ref="E13:E16" si="2">1-C13/D13</f>
+        <v>1.4084507042253502E-2</v>
       </c>
       <c r="F13" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="70" t="e">
+        <v>69</v>
+      </c>
+      <c r="B14" s="70" t="str">
         <f>VLOOKUP(A14,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C14" s="71" t="e">
-        <f>VLOOKUP(A14,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)*2</f>
-        <v>#N/A</v>
+        <v>UserRegistered</v>
+      </c>
+      <c r="C14" s="71">
+        <f>VLOOKUP(A14,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
+        <v>70</v>
       </c>
       <c r="D14" s="69">
-        <v>195</v>
-      </c>
-      <c r="E14" s="73" t="e">
+        <f>140/2</f>
+        <v>70</v>
+      </c>
+      <c r="E14" s="73">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="F14" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="70" t="e">
+        <v>84</v>
+      </c>
+      <c r="B15" s="70" t="str">
         <f>VLOOKUP(A15,Соответствие!$A$2:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C15" s="71" t="e">
-        <f>VLOOKUP(A15,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)*2</f>
-        <v>#N/A</v>
+        <v>SeachProduct</v>
+      </c>
+      <c r="C15" s="71">
+        <f>VLOOKUP(A15,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
+        <v>130</v>
       </c>
       <c r="D15" s="69">
-        <v>195</v>
-      </c>
-      <c r="E15" s="73" t="e">
+        <f>264/2</f>
+        <v>132</v>
+      </c>
+      <c r="E15" s="73">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>1.5151515151515138E-2</v>
       </c>
       <c r="F15" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="70" t="str">
+        <f>VLOOKUP(A16,Соответствие!$A$2:$B$14,2,FALSE)</f>
+        <v>ChooseProduct</v>
+      </c>
+      <c r="C16" s="71">
+        <f>VLOOKUP(A16,'Автоматизированный расчет'!$A$55:$B$67,2,FALSE)</f>
+        <v>186</v>
+      </c>
+      <c r="D16" s="69">
+        <f>374/2</f>
+        <v>187</v>
+      </c>
+      <c r="E16" s="73">
+        <f t="shared" si="2"/>
+        <v>5.3475935828877219E-3</v>
+      </c>
+      <c r="F16" s="76" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <conditionalFormatting sqref="E4:E15">
+  <conditionalFormatting sqref="E4:E16">
     <cfRule type="cellIs" dxfId="2" priority="7" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F15">
+  <conditionalFormatting sqref="F4:F16">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>

--- a/Документы/AdvantageShoping_Профиль.xlsx
+++ b/Документы/AdvantageShoping_Профиль.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Programs\Itogovoe\Документы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB127A1C-EF18-4D60-AAD3-9C7555F703BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC7225B-BDC6-4E9C-90B2-F41FD17A51D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3136,7 +3136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B27" sqref="B27:B31"/>
     </sheetView>
   </sheetViews>
